--- a/data/Anaheim/A_creation.xlsx
+++ b/data/Anaheim/A_creation.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/NetbeansProjects/DNDP/data/Anaheim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8E0A2C6-09E0-2F4A-8CDF-87ADEAAF98D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154BC7D2-07D9-2B46-9AAD-BFA40D4C2DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="1440" windowWidth="27640" windowHeight="16440" xr2:uid="{418FED77-12DA-7B43-B3FF-D0E20B702B8C}"/>
+    <workbookView xWindow="1160" yWindow="1440" windowWidth="27640" windowHeight="16440" xr2:uid="{418FED77-12DA-7B43-B3FF-D0E20B702B8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -519,7 +519,7 @@
   <dimension ref="A1:P923"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection sqref="A1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -660,7 +660,7 @@
         <v>1</v>
       </c>
       <c r="L10">
-        <f ca="1">IF(COUNTIF(O$10:O$39, P10)&gt;0, RAND()*0.5, 0)</f>
+        <f ca="1">IF(COUNTIF(O$10:O$69, P10)&gt;0, RAND()*0.5, 0)</f>
         <v>0</v>
       </c>
       <c r="M10" t="s">
@@ -671,7 +671,7 @@
       </c>
       <c r="P10" cm="1">
         <f t="array" aca="1" ref="P10:P923" ca="1">_xlfn.SORTBY(_xlfn.SEQUENCE(914),_xlfn.RANDARRAY(914))</f>
-        <v>495</v>
+        <v>549</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -706,7 +706,7 @@
         <v>1</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11:L74" ca="1" si="0">IF(COUNTIF(O$10:O$39, P11)&gt;0, RAND()*0.5, 0)</f>
+        <f t="shared" ref="L11:L74" ca="1" si="0">IF(COUNTIF(O$10:O$69, P11)&gt;0, RAND()*0.5, 0)</f>
         <v>0</v>
       </c>
       <c r="M11" t="s">
@@ -718,7 +718,7 @@
       </c>
       <c r="P11">
         <f ca="1"/>
-        <v>316</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -765,7 +765,7 @@
       </c>
       <c r="P12">
         <f ca="1"/>
-        <v>434</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -812,7 +812,7 @@
       </c>
       <c r="P13">
         <f ca="1"/>
-        <v>236</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -859,7 +859,7 @@
       </c>
       <c r="P14">
         <f ca="1"/>
-        <v>482</v>
+        <v>797</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -906,7 +906,7 @@
       </c>
       <c r="P15">
         <f ca="1"/>
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -942,7 +942,7 @@
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>0.43620445124160323</v>
       </c>
       <c r="M16" t="s">
         <v>15</v>
@@ -953,7 +953,7 @@
       </c>
       <c r="P16">
         <f ca="1"/>
-        <v>490</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="P17">
         <f ca="1"/>
-        <v>610</v>
+        <v>745</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="P18">
         <f ca="1"/>
-        <v>129</v>
+        <v>771</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="P19">
         <f ca="1"/>
-        <v>814</v>
+        <v>828</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="P20">
         <f ca="1"/>
-        <v>397</v>
+        <v>606</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="P21">
         <f ca="1"/>
-        <v>440</v>
+        <v>898</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="P22">
         <f ca="1"/>
-        <v>254</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="P23">
         <f ca="1"/>
-        <v>570</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="P24">
         <f ca="1"/>
-        <v>850</v>
+        <v>650</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0766663613331255E-2</v>
+        <v>0</v>
       </c>
       <c r="M25" t="s">
         <v>15</v>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="P25">
         <f ca="1"/>
-        <v>5</v>
+        <v>510</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="P26">
         <f ca="1"/>
-        <v>549</v>
+        <v>473</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="P27">
         <f ca="1"/>
-        <v>774</v>
+        <v>434</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="P28">
         <f ca="1"/>
-        <v>208</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="P29">
         <f ca="1"/>
-        <v>375</v>
+        <v>866</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="P30">
         <f ca="1"/>
-        <v>605</v>
+        <v>583</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.2">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="P31">
         <f ca="1"/>
-        <v>325</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="P32">
         <f ca="1"/>
-        <v>862</v>
+        <v>676</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="P33">
         <f ca="1"/>
-        <v>335</v>
+        <v>893</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="P34">
         <f ca="1"/>
-        <v>193</v>
+        <v>714</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="P35">
         <f ca="1"/>
-        <v>431</v>
+        <v>362</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="P36">
         <f ca="1"/>
-        <v>888</v>
+        <v>877</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="P37">
         <f ca="1"/>
-        <v>459</v>
+        <v>904</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="P38">
         <f ca="1"/>
-        <v>267</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="P39">
         <f ca="1"/>
-        <v>529</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
@@ -2070,7 +2070,7 @@
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10064335547390146</v>
+        <v>0</v>
       </c>
       <c r="M40" t="s">
         <v>15</v>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="P40">
         <f ca="1"/>
-        <v>20</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="P41">
         <f ca="1"/>
-        <v>85</v>
+        <v>908</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
@@ -2164,7 +2164,7 @@
       </c>
       <c r="L42">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14186767130627836</v>
+        <v>0</v>
       </c>
       <c r="M42" t="s">
         <v>15</v>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="P42">
         <f ca="1"/>
-        <v>3</v>
+        <v>786</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="P43">
         <f ca="1"/>
-        <v>572</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="P44">
         <f ca="1"/>
-        <v>552</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="L45">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>0.1762489420474459</v>
       </c>
       <c r="M45" t="s">
         <v>15</v>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="P45">
         <f ca="1"/>
-        <v>445</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="P46">
         <f ca="1"/>
-        <v>716</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="P47">
         <f ca="1"/>
-        <v>439</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="P48">
         <f ca="1"/>
-        <v>321</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.2">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="P49">
         <f ca="1"/>
-        <v>189</v>
+        <v>795</v>
       </c>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.2">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="P50">
         <f ca="1"/>
-        <v>31</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.2">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="P51">
         <f ca="1"/>
-        <v>799</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
@@ -2645,7 +2645,7 @@
       </c>
       <c r="P52">
         <f ca="1"/>
-        <v>391</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.2">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="P53">
         <f ca="1"/>
-        <v>671</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.2">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="P54">
         <f ca="1"/>
-        <v>908</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.2">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="P55">
         <f ca="1"/>
-        <v>349</v>
+        <v>542</v>
       </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.2">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="L56">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33061306076691427</v>
+        <v>0</v>
       </c>
       <c r="M56" t="s">
         <v>15</v>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="P56">
         <f ca="1"/>
-        <v>15</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.2">
@@ -2880,7 +2880,7 @@
       </c>
       <c r="P57">
         <f ca="1"/>
-        <v>738</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.2">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="P58">
         <f ca="1"/>
-        <v>474</v>
+        <v>812</v>
       </c>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.2">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="P59">
         <f ca="1"/>
-        <v>832</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.2">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="L60">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44335362234740683</v>
+        <v>0</v>
       </c>
       <c r="M60" t="s">
         <v>15</v>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="P60">
         <f ca="1"/>
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.2">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="P61">
         <f ca="1"/>
-        <v>702</v>
+        <v>492</v>
       </c>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.2">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="P62">
         <f ca="1"/>
-        <v>365</v>
+        <v>906</v>
       </c>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.2">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="L63">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16258064663701866</v>
+        <v>0</v>
       </c>
       <c r="M63" t="s">
         <v>15</v>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="P63">
         <f ca="1"/>
-        <v>4</v>
+        <v>289</v>
       </c>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.2">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="P64">
         <f ca="1"/>
-        <v>414</v>
+        <v>657</v>
       </c>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.2">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="P65">
         <f ca="1"/>
-        <v>634</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.2">
@@ -3292,7 +3292,7 @@
       </c>
       <c r="L66">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>0.24742794891437248</v>
       </c>
       <c r="M66" t="s">
         <v>15</v>
@@ -3303,7 +3303,7 @@
       </c>
       <c r="P66">
         <f ca="1"/>
-        <v>685</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.2">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="P67">
         <f ca="1"/>
-        <v>65</v>
+        <v>868</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.2">
@@ -3397,7 +3397,7 @@
       </c>
       <c r="P68">
         <f ca="1"/>
-        <v>448</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.2">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="L69">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>0.35185538364804236</v>
       </c>
       <c r="M69" t="s">
         <v>15</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="P69">
         <f ca="1"/>
-        <v>767</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.2">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="P70">
         <f ca="1"/>
-        <v>777</v>
+        <v>358</v>
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.2">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="L71">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>0.33980019049300858</v>
       </c>
       <c r="M71" t="s">
         <v>15</v>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="P71">
         <f ca="1"/>
-        <v>637</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.2">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="P72">
         <f ca="1"/>
-        <v>828</v>
+        <v>875</v>
       </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.2">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="P73">
         <f ca="1"/>
-        <v>557</v>
+        <v>317</v>
       </c>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.2">
@@ -3679,7 +3679,7 @@
       </c>
       <c r="P74">
         <f ca="1"/>
-        <v>531</v>
+        <v>589</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.2">
@@ -3714,7 +3714,7 @@
         <v>1</v>
       </c>
       <c r="L75">
-        <f t="shared" ref="L75:L138" ca="1" si="2">IF(COUNTIF(O$10:O$39, P75)&gt;0, RAND()*0.5, 0)</f>
+        <f t="shared" ref="L75:L138" ca="1" si="2">IF(COUNTIF(O$10:O$69, P75)&gt;0, RAND()*0.5, 0)</f>
         <v>0</v>
       </c>
       <c r="M75" t="s">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="P75">
         <f ca="1"/>
-        <v>708</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.2">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="P76">
         <f ca="1"/>
-        <v>769</v>
+        <v>290</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.2">
@@ -3820,7 +3820,7 @@
       </c>
       <c r="P77">
         <f ca="1"/>
-        <v>483</v>
+        <v>272</v>
       </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.2">
@@ -3867,7 +3867,7 @@
       </c>
       <c r="P78">
         <f ca="1"/>
-        <v>133</v>
+        <v>841</v>
       </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.2">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="P79">
         <f ca="1"/>
-        <v>536</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.2">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="P80">
         <f ca="1"/>
-        <v>224</v>
+        <v>667</v>
       </c>
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.2">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="P81">
         <f ca="1"/>
-        <v>726</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
@@ -4055,7 +4055,7 @@
       </c>
       <c r="P82">
         <f ca="1"/>
-        <v>188</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.2">
@@ -4102,7 +4102,7 @@
       </c>
       <c r="P83">
         <f ca="1"/>
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
@@ -4149,7 +4149,7 @@
       </c>
       <c r="P84">
         <f ca="1"/>
-        <v>684</v>
+        <v>585</v>
       </c>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.2">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="P85">
         <f ca="1"/>
-        <v>447</v>
+        <v>488</v>
       </c>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.2">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="P86">
         <f ca="1"/>
-        <v>240</v>
+        <v>622</v>
       </c>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="P87">
         <f ca="1"/>
-        <v>170</v>
+        <v>315</v>
       </c>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="P88">
         <f ca="1"/>
-        <v>765</v>
+        <v>525</v>
       </c>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
@@ -4384,7 +4384,7 @@
       </c>
       <c r="P89">
         <f ca="1"/>
-        <v>793</v>
+        <v>833</v>
       </c>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="P90">
         <f ca="1"/>
-        <v>194</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="P91">
         <f ca="1"/>
-        <v>265</v>
+        <v>429</v>
       </c>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="L92">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>8.3341315814471462E-2</v>
       </c>
       <c r="M92" t="s">
         <v>15</v>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="P92">
         <f ca="1"/>
-        <v>498</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="P93">
         <f ca="1"/>
-        <v>615</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="P94">
         <f ca="1"/>
-        <v>261</v>
+        <v>501</v>
       </c>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
@@ -4655,7 +4655,7 @@
       </c>
       <c r="L95">
         <f t="shared" ca="1" si="2"/>
-        <v>4.305825005434305E-2</v>
+        <v>0</v>
       </c>
       <c r="M95" t="s">
         <v>15</v>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="P95">
         <f ca="1"/>
-        <v>6</v>
+        <v>535</v>
       </c>
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
@@ -4713,7 +4713,7 @@
       </c>
       <c r="P96">
         <f ca="1"/>
-        <v>226</v>
+        <v>449</v>
       </c>
     </row>
     <row r="97" spans="2:16" x14ac:dyDescent="0.2">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="P97">
         <f ca="1"/>
-        <v>847</v>
+        <v>396</v>
       </c>
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.2">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="P98">
         <f ca="1"/>
-        <v>284</v>
+        <v>218</v>
       </c>
     </row>
     <row r="99" spans="2:16" x14ac:dyDescent="0.2">
@@ -4854,7 +4854,7 @@
       </c>
       <c r="P99">
         <f ca="1"/>
-        <v>249</v>
+        <v>705</v>
       </c>
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.2">
@@ -4890,7 +4890,7 @@
       </c>
       <c r="L100">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>0.35284716464690508</v>
       </c>
       <c r="M100" t="s">
         <v>15</v>
@@ -4901,7 +4901,7 @@
       </c>
       <c r="P100">
         <f ca="1"/>
-        <v>665</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.2">
@@ -4948,7 +4948,7 @@
       </c>
       <c r="P101">
         <f ca="1"/>
-        <v>730</v>
+        <v>253</v>
       </c>
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.2">
@@ -4995,7 +4995,7 @@
       </c>
       <c r="P102">
         <f ca="1"/>
-        <v>36</v>
+        <v>292</v>
       </c>
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.2">
@@ -5042,7 +5042,7 @@
       </c>
       <c r="P103">
         <f ca="1"/>
-        <v>138</v>
+        <v>350</v>
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.2">
@@ -5089,7 +5089,7 @@
       </c>
       <c r="P104">
         <f ca="1"/>
-        <v>314</v>
+        <v>895</v>
       </c>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.2">
@@ -5125,7 +5125,7 @@
       </c>
       <c r="L105">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13265737202828637</v>
+        <v>0</v>
       </c>
       <c r="M105" t="s">
         <v>15</v>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="P105">
         <f ca="1"/>
-        <v>17</v>
+        <v>402</v>
       </c>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.2">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="P106">
         <f ca="1"/>
-        <v>181</v>
+        <v>769</v>
       </c>
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.2">
@@ -5230,7 +5230,7 @@
       </c>
       <c r="P107">
         <f ca="1"/>
-        <v>436</v>
+        <v>570</v>
       </c>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.2">
@@ -5277,7 +5277,7 @@
       </c>
       <c r="P108">
         <f ca="1"/>
-        <v>339</v>
+        <v>554</v>
       </c>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.2">
@@ -5324,7 +5324,7 @@
       </c>
       <c r="P109">
         <f ca="1"/>
-        <v>855</v>
+        <v>807</v>
       </c>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.2">
@@ -5371,7 +5371,7 @@
       </c>
       <c r="P110">
         <f ca="1"/>
-        <v>473</v>
+        <v>644</v>
       </c>
     </row>
     <row r="111" spans="2:16" x14ac:dyDescent="0.2">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="P111">
         <f ca="1"/>
-        <v>61</v>
+        <v>98</v>
       </c>
     </row>
     <row r="112" spans="2:16" x14ac:dyDescent="0.2">
@@ -5465,7 +5465,7 @@
       </c>
       <c r="P112">
         <f ca="1"/>
-        <v>461</v>
+        <v>252</v>
       </c>
     </row>
     <row r="113" spans="2:16" x14ac:dyDescent="0.2">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="P113">
         <f ca="1"/>
-        <v>288</v>
+        <v>249</v>
       </c>
     </row>
     <row r="114" spans="2:16" x14ac:dyDescent="0.2">
@@ -5559,7 +5559,7 @@
       </c>
       <c r="P114">
         <f ca="1"/>
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="115" spans="2:16" x14ac:dyDescent="0.2">
@@ -5606,7 +5606,7 @@
       </c>
       <c r="P115">
         <f ca="1"/>
-        <v>662</v>
+        <v>210</v>
       </c>
     </row>
     <row r="116" spans="2:16" x14ac:dyDescent="0.2">
@@ -5653,7 +5653,7 @@
       </c>
       <c r="P116">
         <f ca="1"/>
-        <v>600</v>
+        <v>652</v>
       </c>
     </row>
     <row r="117" spans="2:16" x14ac:dyDescent="0.2">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="P117">
         <f ca="1"/>
-        <v>53</v>
+        <v>775</v>
       </c>
     </row>
     <row r="118" spans="2:16" x14ac:dyDescent="0.2">
@@ -5747,7 +5747,7 @@
       </c>
       <c r="P118">
         <f ca="1"/>
-        <v>817</v>
+        <v>70</v>
       </c>
     </row>
     <row r="119" spans="2:16" x14ac:dyDescent="0.2">
@@ -5794,7 +5794,7 @@
       </c>
       <c r="P119">
         <f ca="1"/>
-        <v>892</v>
+        <v>557</v>
       </c>
     </row>
     <row r="120" spans="2:16" x14ac:dyDescent="0.2">
@@ -5841,7 +5841,7 @@
       </c>
       <c r="P120">
         <f ca="1"/>
-        <v>745</v>
+        <v>616</v>
       </c>
     </row>
     <row r="121" spans="2:16" x14ac:dyDescent="0.2">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="P121">
         <f ca="1"/>
-        <v>64</v>
+        <v>297</v>
       </c>
     </row>
     <row r="122" spans="2:16" x14ac:dyDescent="0.2">
@@ -5935,7 +5935,7 @@
       </c>
       <c r="P122">
         <f ca="1"/>
-        <v>35</v>
+        <v>695</v>
       </c>
     </row>
     <row r="123" spans="2:16" x14ac:dyDescent="0.2">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="P123">
         <f ca="1"/>
-        <v>898</v>
+        <v>198</v>
       </c>
     </row>
     <row r="124" spans="2:16" x14ac:dyDescent="0.2">
@@ -6029,7 +6029,7 @@
       </c>
       <c r="P124">
         <f ca="1"/>
-        <v>834</v>
+        <v>212</v>
       </c>
     </row>
     <row r="125" spans="2:16" x14ac:dyDescent="0.2">
@@ -6076,7 +6076,7 @@
       </c>
       <c r="P125">
         <f ca="1"/>
-        <v>652</v>
+        <v>805</v>
       </c>
     </row>
     <row r="126" spans="2:16" x14ac:dyDescent="0.2">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="P126">
         <f ca="1"/>
-        <v>272</v>
+        <v>552</v>
       </c>
     </row>
     <row r="127" spans="2:16" x14ac:dyDescent="0.2">
@@ -6170,7 +6170,7 @@
       </c>
       <c r="P127">
         <f ca="1"/>
-        <v>191</v>
+        <v>553</v>
       </c>
     </row>
     <row r="128" spans="2:16" x14ac:dyDescent="0.2">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="P128">
         <f ca="1"/>
-        <v>865</v>
+        <v>84</v>
       </c>
     </row>
     <row r="129" spans="2:16" x14ac:dyDescent="0.2">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="P129">
         <f ca="1"/>
-        <v>297</v>
+        <v>487</v>
       </c>
     </row>
     <row r="130" spans="2:16" x14ac:dyDescent="0.2">
@@ -6311,7 +6311,7 @@
       </c>
       <c r="P130">
         <f ca="1"/>
-        <v>241</v>
+        <v>257</v>
       </c>
     </row>
     <row r="131" spans="2:16" x14ac:dyDescent="0.2">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="P131">
         <f ca="1"/>
-        <v>887</v>
+        <v>155</v>
       </c>
     </row>
     <row r="132" spans="2:16" x14ac:dyDescent="0.2">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="P132">
         <f ca="1"/>
-        <v>299</v>
+        <v>750</v>
       </c>
     </row>
     <row r="133" spans="2:16" x14ac:dyDescent="0.2">
@@ -6452,7 +6452,7 @@
       </c>
       <c r="P133">
         <f ca="1"/>
-        <v>778</v>
+        <v>111</v>
       </c>
     </row>
     <row r="134" spans="2:16" x14ac:dyDescent="0.2">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="P134">
         <f ca="1"/>
-        <v>337</v>
+        <v>789</v>
       </c>
     </row>
     <row r="135" spans="2:16" x14ac:dyDescent="0.2">
@@ -6546,7 +6546,7 @@
       </c>
       <c r="P135">
         <f ca="1"/>
-        <v>807</v>
+        <v>654</v>
       </c>
     </row>
     <row r="136" spans="2:16" x14ac:dyDescent="0.2">
@@ -6593,7 +6593,7 @@
       </c>
       <c r="P136">
         <f ca="1"/>
-        <v>221</v>
+        <v>638</v>
       </c>
     </row>
     <row r="137" spans="2:16" x14ac:dyDescent="0.2">
@@ -6640,7 +6640,7 @@
       </c>
       <c r="P137">
         <f ca="1"/>
-        <v>591</v>
+        <v>790</v>
       </c>
     </row>
     <row r="138" spans="2:16" x14ac:dyDescent="0.2">
@@ -6676,7 +6676,7 @@
       </c>
       <c r="L138">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>0.32375238386361777</v>
       </c>
       <c r="M138" t="s">
         <v>15</v>
@@ -6687,7 +6687,7 @@
       </c>
       <c r="P138">
         <f ca="1"/>
-        <v>528</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="2:16" x14ac:dyDescent="0.2">
@@ -6722,7 +6722,7 @@
         <v>1</v>
       </c>
       <c r="L139">
-        <f t="shared" ref="L139:L202" ca="1" si="4">IF(COUNTIF(O$10:O$39, P139)&gt;0, RAND()*0.5, 0)</f>
+        <f t="shared" ref="L139:L202" ca="1" si="4">IF(COUNTIF(O$10:O$69, P139)&gt;0, RAND()*0.5, 0)</f>
         <v>0</v>
       </c>
       <c r="M139" t="s">
@@ -6734,7 +6734,7 @@
       </c>
       <c r="P139">
         <f ca="1"/>
-        <v>879</v>
+        <v>136</v>
       </c>
     </row>
     <row r="140" spans="2:16" x14ac:dyDescent="0.2">
@@ -6781,7 +6781,7 @@
       </c>
       <c r="P140">
         <f ca="1"/>
-        <v>382</v>
+        <v>135</v>
       </c>
     </row>
     <row r="141" spans="2:16" x14ac:dyDescent="0.2">
@@ -6828,7 +6828,7 @@
       </c>
       <c r="P141">
         <f ca="1"/>
-        <v>246</v>
+        <v>747</v>
       </c>
     </row>
     <row r="142" spans="2:16" x14ac:dyDescent="0.2">
@@ -6875,7 +6875,7 @@
       </c>
       <c r="P142">
         <f ca="1"/>
-        <v>563</v>
+        <v>281</v>
       </c>
     </row>
     <row r="143" spans="2:16" x14ac:dyDescent="0.2">
@@ -6922,7 +6922,7 @@
       </c>
       <c r="P143">
         <f ca="1"/>
-        <v>351</v>
+        <v>590</v>
       </c>
     </row>
     <row r="144" spans="2:16" x14ac:dyDescent="0.2">
@@ -6969,7 +6969,7 @@
       </c>
       <c r="P144">
         <f ca="1"/>
-        <v>635</v>
+        <v>566</v>
       </c>
     </row>
     <row r="145" spans="2:16" x14ac:dyDescent="0.2">
@@ -7016,7 +7016,7 @@
       </c>
       <c r="P145">
         <f ca="1"/>
-        <v>472</v>
+        <v>673</v>
       </c>
     </row>
     <row r="146" spans="2:16" x14ac:dyDescent="0.2">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="P146">
         <f ca="1"/>
-        <v>550</v>
+        <v>424</v>
       </c>
     </row>
     <row r="147" spans="2:16" x14ac:dyDescent="0.2">
@@ -7110,7 +7110,7 @@
       </c>
       <c r="P147">
         <f ca="1"/>
-        <v>476</v>
+        <v>757</v>
       </c>
     </row>
     <row r="148" spans="2:16" x14ac:dyDescent="0.2">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="P148">
         <f ca="1"/>
-        <v>798</v>
+        <v>577</v>
       </c>
     </row>
     <row r="149" spans="2:16" x14ac:dyDescent="0.2">
@@ -7204,7 +7204,7 @@
       </c>
       <c r="P149">
         <f ca="1"/>
-        <v>118</v>
+        <v>235</v>
       </c>
     </row>
     <row r="150" spans="2:16" x14ac:dyDescent="0.2">
@@ -7251,7 +7251,7 @@
       </c>
       <c r="P150">
         <f ca="1"/>
-        <v>518</v>
+        <v>565</v>
       </c>
     </row>
     <row r="151" spans="2:16" x14ac:dyDescent="0.2">
@@ -7298,7 +7298,7 @@
       </c>
       <c r="P151">
         <f ca="1"/>
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="152" spans="2:16" x14ac:dyDescent="0.2">
@@ -7345,7 +7345,7 @@
       </c>
       <c r="P152">
         <f ca="1"/>
-        <v>390</v>
+        <v>599</v>
       </c>
     </row>
     <row r="153" spans="2:16" x14ac:dyDescent="0.2">
@@ -7392,7 +7392,7 @@
       </c>
       <c r="P153">
         <f ca="1"/>
-        <v>764</v>
+        <v>274</v>
       </c>
     </row>
     <row r="154" spans="2:16" x14ac:dyDescent="0.2">
@@ -7439,7 +7439,7 @@
       </c>
       <c r="P154">
         <f ca="1"/>
-        <v>914</v>
+        <v>468</v>
       </c>
     </row>
     <row r="155" spans="2:16" x14ac:dyDescent="0.2">
@@ -7486,7 +7486,7 @@
       </c>
       <c r="P155">
         <f ca="1"/>
-        <v>266</v>
+        <v>913</v>
       </c>
     </row>
     <row r="156" spans="2:16" x14ac:dyDescent="0.2">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="L156">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>0.21881928440774517</v>
       </c>
       <c r="M156" t="s">
         <v>15</v>
@@ -7533,7 +7533,7 @@
       </c>
       <c r="P156">
         <f ca="1"/>
-        <v>852</v>
+        <v>33</v>
       </c>
     </row>
     <row r="157" spans="2:16" x14ac:dyDescent="0.2">
@@ -7580,7 +7580,7 @@
       </c>
       <c r="P157">
         <f ca="1"/>
-        <v>200</v>
+        <v>231</v>
       </c>
     </row>
     <row r="158" spans="2:16" x14ac:dyDescent="0.2">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="L158">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>0.15453453947778051</v>
       </c>
       <c r="M158" t="s">
         <v>15</v>
@@ -7627,7 +7627,7 @@
       </c>
       <c r="P158">
         <f ca="1"/>
-        <v>869</v>
+        <v>57</v>
       </c>
     </row>
     <row r="159" spans="2:16" x14ac:dyDescent="0.2">
@@ -7663,7 +7663,7 @@
       </c>
       <c r="L159">
         <f t="shared" ca="1" si="4"/>
-        <v>0.46640696219424738</v>
+        <v>0</v>
       </c>
       <c r="M159" t="s">
         <v>15</v>
@@ -7674,7 +7674,7 @@
       </c>
       <c r="P159">
         <f ca="1"/>
-        <v>1</v>
+        <v>911</v>
       </c>
     </row>
     <row r="160" spans="2:16" x14ac:dyDescent="0.2">
@@ -7721,7 +7721,7 @@
       </c>
       <c r="P160">
         <f ca="1"/>
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="161" spans="2:16" x14ac:dyDescent="0.2">
@@ -7757,7 +7757,7 @@
       </c>
       <c r="L161">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>0.17424404466739374</v>
       </c>
       <c r="M161" t="s">
         <v>15</v>
@@ -7768,7 +7768,7 @@
       </c>
       <c r="P161">
         <f ca="1"/>
-        <v>859</v>
+        <v>23</v>
       </c>
     </row>
     <row r="162" spans="2:16" x14ac:dyDescent="0.2">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="P162">
         <f ca="1"/>
-        <v>902</v>
+        <v>112</v>
       </c>
     </row>
     <row r="163" spans="2:16" x14ac:dyDescent="0.2">
@@ -7862,7 +7862,7 @@
       </c>
       <c r="P163">
         <f ca="1"/>
-        <v>239</v>
+        <v>343</v>
       </c>
     </row>
     <row r="164" spans="2:16" x14ac:dyDescent="0.2">
@@ -7909,7 +7909,7 @@
       </c>
       <c r="P164">
         <f ca="1"/>
-        <v>873</v>
+        <v>853</v>
       </c>
     </row>
     <row r="165" spans="2:16" x14ac:dyDescent="0.2">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="P165">
         <f ca="1"/>
-        <v>285</v>
+        <v>848</v>
       </c>
     </row>
     <row r="166" spans="2:16" x14ac:dyDescent="0.2">
@@ -8003,7 +8003,7 @@
       </c>
       <c r="P166">
         <f ca="1"/>
-        <v>556</v>
+        <v>405</v>
       </c>
     </row>
     <row r="167" spans="2:16" x14ac:dyDescent="0.2">
@@ -8050,7 +8050,7 @@
       </c>
       <c r="P167">
         <f ca="1"/>
-        <v>166</v>
+        <v>284</v>
       </c>
     </row>
     <row r="168" spans="2:16" x14ac:dyDescent="0.2">
@@ -8097,7 +8097,7 @@
       </c>
       <c r="P168">
         <f ca="1"/>
-        <v>215</v>
+        <v>87</v>
       </c>
     </row>
     <row r="169" spans="2:16" x14ac:dyDescent="0.2">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="L169">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>0.2855434293812974</v>
       </c>
       <c r="M169" t="s">
         <v>15</v>
@@ -8144,7 +8144,7 @@
       </c>
       <c r="P169">
         <f ca="1"/>
-        <v>896</v>
+        <v>60</v>
       </c>
     </row>
     <row r="170" spans="2:16" x14ac:dyDescent="0.2">
@@ -8191,7 +8191,7 @@
       </c>
       <c r="P170">
         <f ca="1"/>
-        <v>782</v>
+        <v>374</v>
       </c>
     </row>
     <row r="171" spans="2:16" x14ac:dyDescent="0.2">
@@ -8238,7 +8238,7 @@
       </c>
       <c r="P171">
         <f ca="1"/>
-        <v>43</v>
+        <v>674</v>
       </c>
     </row>
     <row r="172" spans="2:16" x14ac:dyDescent="0.2">
@@ -8274,7 +8274,7 @@
       </c>
       <c r="L172">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>0.35088153354797352</v>
       </c>
       <c r="M172" t="s">
         <v>15</v>
@@ -8285,7 +8285,7 @@
       </c>
       <c r="P172">
         <f ca="1"/>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="173" spans="2:16" x14ac:dyDescent="0.2">
@@ -8321,7 +8321,7 @@
       </c>
       <c r="L173">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>0.3516053030032002</v>
       </c>
       <c r="M173" t="s">
         <v>15</v>
@@ -8332,7 +8332,7 @@
       </c>
       <c r="P173">
         <f ca="1"/>
-        <v>318</v>
+        <v>20</v>
       </c>
     </row>
     <row r="174" spans="2:16" x14ac:dyDescent="0.2">
@@ -8379,7 +8379,7 @@
       </c>
       <c r="P174">
         <f ca="1"/>
-        <v>619</v>
+        <v>536</v>
       </c>
     </row>
     <row r="175" spans="2:16" x14ac:dyDescent="0.2">
@@ -8426,7 +8426,7 @@
       </c>
       <c r="P175">
         <f ca="1"/>
-        <v>340</v>
+        <v>603</v>
       </c>
     </row>
     <row r="176" spans="2:16" x14ac:dyDescent="0.2">
@@ -8473,7 +8473,7 @@
       </c>
       <c r="P176">
         <f ca="1"/>
-        <v>454</v>
+        <v>176</v>
       </c>
     </row>
     <row r="177" spans="2:16" x14ac:dyDescent="0.2">
@@ -8520,7 +8520,7 @@
       </c>
       <c r="P177">
         <f ca="1"/>
-        <v>776</v>
+        <v>382</v>
       </c>
     </row>
     <row r="178" spans="2:16" x14ac:dyDescent="0.2">
@@ -8567,7 +8567,7 @@
       </c>
       <c r="P178">
         <f ca="1"/>
-        <v>256</v>
+        <v>684</v>
       </c>
     </row>
     <row r="179" spans="2:16" x14ac:dyDescent="0.2">
@@ -8614,7 +8614,7 @@
       </c>
       <c r="P179">
         <f ca="1"/>
-        <v>576</v>
+        <v>118</v>
       </c>
     </row>
     <row r="180" spans="2:16" x14ac:dyDescent="0.2">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="P180">
         <f ca="1"/>
-        <v>808</v>
+        <v>64</v>
       </c>
     </row>
     <row r="181" spans="2:16" x14ac:dyDescent="0.2">
@@ -8708,7 +8708,7 @@
       </c>
       <c r="P181">
         <f ca="1"/>
-        <v>77</v>
+        <v>608</v>
       </c>
     </row>
     <row r="182" spans="2:16" x14ac:dyDescent="0.2">
@@ -8755,7 +8755,7 @@
       </c>
       <c r="P182">
         <f ca="1"/>
-        <v>667</v>
+        <v>140</v>
       </c>
     </row>
     <row r="183" spans="2:16" x14ac:dyDescent="0.2">
@@ -8802,7 +8802,7 @@
       </c>
       <c r="P183">
         <f ca="1"/>
-        <v>608</v>
+        <v>381</v>
       </c>
     </row>
     <row r="184" spans="2:16" x14ac:dyDescent="0.2">
@@ -8849,7 +8849,7 @@
       </c>
       <c r="P184">
         <f ca="1"/>
-        <v>876</v>
+        <v>457</v>
       </c>
     </row>
     <row r="185" spans="2:16" x14ac:dyDescent="0.2">
@@ -8896,7 +8896,7 @@
       </c>
       <c r="P185">
         <f ca="1"/>
-        <v>363</v>
+        <v>679</v>
       </c>
     </row>
     <row r="186" spans="2:16" x14ac:dyDescent="0.2">
@@ -8943,7 +8943,7 @@
       </c>
       <c r="P186">
         <f ca="1"/>
-        <v>406</v>
+        <v>83</v>
       </c>
     </row>
     <row r="187" spans="2:16" x14ac:dyDescent="0.2">
@@ -8990,7 +8990,7 @@
       </c>
       <c r="P187">
         <f ca="1"/>
-        <v>276</v>
+        <v>108</v>
       </c>
     </row>
     <row r="188" spans="2:16" x14ac:dyDescent="0.2">
@@ -9037,7 +9037,7 @@
       </c>
       <c r="P188">
         <f ca="1"/>
-        <v>71</v>
+        <v>428</v>
       </c>
     </row>
     <row r="189" spans="2:16" x14ac:dyDescent="0.2">
@@ -9084,7 +9084,7 @@
       </c>
       <c r="P189">
         <f ca="1"/>
-        <v>260</v>
+        <v>538</v>
       </c>
     </row>
     <row r="190" spans="2:16" x14ac:dyDescent="0.2">
@@ -9131,7 +9131,7 @@
       </c>
       <c r="P190">
         <f ca="1"/>
-        <v>422</v>
+        <v>822</v>
       </c>
     </row>
     <row r="191" spans="2:16" x14ac:dyDescent="0.2">
@@ -9178,7 +9178,7 @@
       </c>
       <c r="P191">
         <f ca="1"/>
-        <v>501</v>
+        <v>319</v>
       </c>
     </row>
     <row r="192" spans="2:16" x14ac:dyDescent="0.2">
@@ -9225,7 +9225,7 @@
       </c>
       <c r="P192">
         <f ca="1"/>
-        <v>545</v>
+        <v>627</v>
       </c>
     </row>
     <row r="193" spans="2:16" x14ac:dyDescent="0.2">
@@ -9261,7 +9261,7 @@
       </c>
       <c r="L193">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>0.21503353771132588</v>
       </c>
       <c r="M193" t="s">
         <v>15</v>
@@ -9272,7 +9272,7 @@
       </c>
       <c r="P193">
         <f ca="1"/>
-        <v>505</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194" spans="2:16" x14ac:dyDescent="0.2">
@@ -9319,7 +9319,7 @@
       </c>
       <c r="P194">
         <f ca="1"/>
-        <v>658</v>
+        <v>562</v>
       </c>
     </row>
     <row r="195" spans="2:16" x14ac:dyDescent="0.2">
@@ -9366,7 +9366,7 @@
       </c>
       <c r="P195">
         <f ca="1"/>
-        <v>112</v>
+        <v>486</v>
       </c>
     </row>
     <row r="196" spans="2:16" x14ac:dyDescent="0.2">
@@ -9413,7 +9413,7 @@
       </c>
       <c r="P196">
         <f ca="1"/>
-        <v>247</v>
+        <v>601</v>
       </c>
     </row>
     <row r="197" spans="2:16" x14ac:dyDescent="0.2">
@@ -9460,7 +9460,7 @@
       </c>
       <c r="P197">
         <f ca="1"/>
-        <v>766</v>
+        <v>247</v>
       </c>
     </row>
     <row r="198" spans="2:16" x14ac:dyDescent="0.2">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="P198">
         <f ca="1"/>
-        <v>579</v>
+        <v>545</v>
       </c>
     </row>
     <row r="199" spans="2:16" x14ac:dyDescent="0.2">
@@ -9554,7 +9554,7 @@
       </c>
       <c r="P199">
         <f ca="1"/>
-        <v>168</v>
+        <v>626</v>
       </c>
     </row>
     <row r="200" spans="2:16" x14ac:dyDescent="0.2">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="P200">
         <f ca="1"/>
-        <v>468</v>
+        <v>703</v>
       </c>
     </row>
     <row r="201" spans="2:16" x14ac:dyDescent="0.2">
@@ -9637,7 +9637,7 @@
       </c>
       <c r="L201">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>0.11856401439178216</v>
       </c>
       <c r="M201" t="s">
         <v>15</v>
@@ -9648,7 +9648,7 @@
       </c>
       <c r="P201">
         <f ca="1"/>
-        <v>192</v>
+        <v>18</v>
       </c>
     </row>
     <row r="202" spans="2:16" x14ac:dyDescent="0.2">
@@ -9695,7 +9695,7 @@
       </c>
       <c r="P202">
         <f ca="1"/>
-        <v>319</v>
+        <v>580</v>
       </c>
     </row>
     <row r="203" spans="2:16" x14ac:dyDescent="0.2">
@@ -9730,7 +9730,7 @@
         <v>1</v>
       </c>
       <c r="L203">
-        <f t="shared" ref="L203:L266" ca="1" si="6">IF(COUNTIF(O$10:O$39, P203)&gt;0, RAND()*0.5, 0)</f>
+        <f t="shared" ref="L203:L266" ca="1" si="6">IF(COUNTIF(O$10:O$69, P203)&gt;0, RAND()*0.5, 0)</f>
         <v>0</v>
       </c>
       <c r="M203" t="s">
@@ -9742,7 +9742,7 @@
       </c>
       <c r="P203">
         <f ca="1"/>
-        <v>506</v>
+        <v>435</v>
       </c>
     </row>
     <row r="204" spans="2:16" x14ac:dyDescent="0.2">
@@ -9789,7 +9789,7 @@
       </c>
       <c r="P204">
         <f ca="1"/>
-        <v>761</v>
+        <v>121</v>
       </c>
     </row>
     <row r="205" spans="2:16" x14ac:dyDescent="0.2">
@@ -9836,7 +9836,7 @@
       </c>
       <c r="P205">
         <f ca="1"/>
-        <v>880</v>
+        <v>762</v>
       </c>
     </row>
     <row r="206" spans="2:16" x14ac:dyDescent="0.2">
@@ -9883,7 +9883,7 @@
       </c>
       <c r="P206">
         <f ca="1"/>
-        <v>657</v>
+        <v>285</v>
       </c>
     </row>
     <row r="207" spans="2:16" x14ac:dyDescent="0.2">
@@ -9930,7 +9930,7 @@
       </c>
       <c r="P207">
         <f ca="1"/>
-        <v>496</v>
+        <v>167</v>
       </c>
     </row>
     <row r="208" spans="2:16" x14ac:dyDescent="0.2">
@@ -9977,7 +9977,7 @@
       </c>
       <c r="P208">
         <f ca="1"/>
-        <v>292</v>
+        <v>137</v>
       </c>
     </row>
     <row r="209" spans="2:16" x14ac:dyDescent="0.2">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="P209">
         <f ca="1"/>
-        <v>248</v>
+        <v>746</v>
       </c>
     </row>
     <row r="210" spans="2:16" x14ac:dyDescent="0.2">
@@ -10071,7 +10071,7 @@
       </c>
       <c r="P210">
         <f ca="1"/>
-        <v>73</v>
+        <v>569</v>
       </c>
     </row>
     <row r="211" spans="2:16" x14ac:dyDescent="0.2">
@@ -10118,7 +10118,7 @@
       </c>
       <c r="P211">
         <f ca="1"/>
-        <v>452</v>
+        <v>897</v>
       </c>
     </row>
     <row r="212" spans="2:16" x14ac:dyDescent="0.2">
@@ -10165,7 +10165,7 @@
       </c>
       <c r="P212">
         <f ca="1"/>
-        <v>72</v>
+        <v>259</v>
       </c>
     </row>
     <row r="213" spans="2:16" x14ac:dyDescent="0.2">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="P213">
         <f ca="1"/>
-        <v>392</v>
+        <v>823</v>
       </c>
     </row>
     <row r="214" spans="2:16" x14ac:dyDescent="0.2">
@@ -10259,7 +10259,7 @@
       </c>
       <c r="P214">
         <f ca="1"/>
-        <v>343</v>
+        <v>263</v>
       </c>
     </row>
     <row r="215" spans="2:16" x14ac:dyDescent="0.2">
@@ -10295,7 +10295,7 @@
       </c>
       <c r="L215">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>0.1296679273236665</v>
       </c>
       <c r="M215" t="s">
         <v>15</v>
@@ -10306,7 +10306,7 @@
       </c>
       <c r="P215">
         <f ca="1"/>
-        <v>157</v>
+        <v>4</v>
       </c>
     </row>
     <row r="216" spans="2:16" x14ac:dyDescent="0.2">
@@ -10353,7 +10353,7 @@
       </c>
       <c r="P216">
         <f ca="1"/>
-        <v>517</v>
+        <v>160</v>
       </c>
     </row>
     <row r="217" spans="2:16" x14ac:dyDescent="0.2">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="L217">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>0.28492852789403028</v>
       </c>
       <c r="M217" t="s">
         <v>15</v>
@@ -10400,7 +10400,7 @@
       </c>
       <c r="P217">
         <f ca="1"/>
-        <v>763</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" spans="2:16" x14ac:dyDescent="0.2">
@@ -10447,7 +10447,7 @@
       </c>
       <c r="P218">
         <f ca="1"/>
-        <v>649</v>
+        <v>193</v>
       </c>
     </row>
     <row r="219" spans="2:16" x14ac:dyDescent="0.2">
@@ -10494,7 +10494,7 @@
       </c>
       <c r="P219">
         <f ca="1"/>
-        <v>114</v>
+        <v>262</v>
       </c>
     </row>
     <row r="220" spans="2:16" x14ac:dyDescent="0.2">
@@ -10541,7 +10541,7 @@
       </c>
       <c r="P220">
         <f ca="1"/>
-        <v>535</v>
+        <v>749</v>
       </c>
     </row>
     <row r="221" spans="2:16" x14ac:dyDescent="0.2">
@@ -10588,7 +10588,7 @@
       </c>
       <c r="P221">
         <f ca="1"/>
-        <v>438</v>
+        <v>162</v>
       </c>
     </row>
     <row r="222" spans="2:16" x14ac:dyDescent="0.2">
@@ -10635,7 +10635,7 @@
       </c>
       <c r="P222">
         <f ca="1"/>
-        <v>882</v>
+        <v>571</v>
       </c>
     </row>
     <row r="223" spans="2:16" x14ac:dyDescent="0.2">
@@ -10682,7 +10682,7 @@
       </c>
       <c r="P223">
         <f ca="1"/>
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="224" spans="2:16" x14ac:dyDescent="0.2">
@@ -10729,7 +10729,7 @@
       </c>
       <c r="P224">
         <f ca="1"/>
-        <v>298</v>
+        <v>364</v>
       </c>
     </row>
     <row r="225" spans="2:16" x14ac:dyDescent="0.2">
@@ -10776,7 +10776,7 @@
       </c>
       <c r="P225">
         <f ca="1"/>
-        <v>810</v>
+        <v>354</v>
       </c>
     </row>
     <row r="226" spans="2:16" x14ac:dyDescent="0.2">
@@ -10823,7 +10823,7 @@
       </c>
       <c r="P226">
         <f ca="1"/>
-        <v>243</v>
+        <v>556</v>
       </c>
     </row>
     <row r="227" spans="2:16" x14ac:dyDescent="0.2">
@@ -10870,7 +10870,7 @@
       </c>
       <c r="P227">
         <f ca="1"/>
-        <v>512</v>
+        <v>63</v>
       </c>
     </row>
     <row r="228" spans="2:16" x14ac:dyDescent="0.2">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="P228">
         <f ca="1"/>
-        <v>703</v>
+        <v>855</v>
       </c>
     </row>
     <row r="229" spans="2:16" x14ac:dyDescent="0.2">
@@ -10964,7 +10964,7 @@
       </c>
       <c r="P229">
         <f ca="1"/>
-        <v>577</v>
+        <v>760</v>
       </c>
     </row>
     <row r="230" spans="2:16" x14ac:dyDescent="0.2">
@@ -11011,7 +11011,7 @@
       </c>
       <c r="P230">
         <f ca="1"/>
-        <v>140</v>
+        <v>116</v>
       </c>
     </row>
     <row r="231" spans="2:16" x14ac:dyDescent="0.2">
@@ -11047,7 +11047,7 @@
       </c>
       <c r="L231">
         <f t="shared" ca="1" si="6"/>
-        <v>0.21137668399955573</v>
+        <v>0</v>
       </c>
       <c r="M231" t="s">
         <v>15</v>
@@ -11058,7 +11058,7 @@
       </c>
       <c r="P231">
         <f ca="1"/>
-        <v>23</v>
+        <v>759</v>
       </c>
     </row>
     <row r="232" spans="2:16" x14ac:dyDescent="0.2">
@@ -11105,7 +11105,7 @@
       </c>
       <c r="P232">
         <f ca="1"/>
-        <v>142</v>
+        <v>788</v>
       </c>
     </row>
     <row r="233" spans="2:16" x14ac:dyDescent="0.2">
@@ -11141,7 +11141,7 @@
       </c>
       <c r="L233">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>0.44490576382231228</v>
       </c>
       <c r="M233" t="s">
         <v>15</v>
@@ -11152,7 +11152,7 @@
       </c>
       <c r="P233">
         <f ca="1"/>
-        <v>83</v>
+        <v>38</v>
       </c>
     </row>
     <row r="234" spans="2:16" x14ac:dyDescent="0.2">
@@ -11199,7 +11199,7 @@
       </c>
       <c r="P234">
         <f ca="1"/>
-        <v>173</v>
+        <v>533</v>
       </c>
     </row>
     <row r="235" spans="2:16" x14ac:dyDescent="0.2">
@@ -11246,7 +11246,7 @@
       </c>
       <c r="P235">
         <f ca="1"/>
-        <v>487</v>
+        <v>180</v>
       </c>
     </row>
     <row r="236" spans="2:16" x14ac:dyDescent="0.2">
@@ -11293,7 +11293,7 @@
       </c>
       <c r="P236">
         <f ca="1"/>
-        <v>555</v>
+        <v>800</v>
       </c>
     </row>
     <row r="237" spans="2:16" x14ac:dyDescent="0.2">
@@ -11340,7 +11340,7 @@
       </c>
       <c r="P237">
         <f ca="1"/>
-        <v>98</v>
+        <v>909</v>
       </c>
     </row>
     <row r="238" spans="2:16" x14ac:dyDescent="0.2">
@@ -11387,7 +11387,7 @@
       </c>
       <c r="P238">
         <f ca="1"/>
-        <v>540</v>
+        <v>409</v>
       </c>
     </row>
     <row r="239" spans="2:16" x14ac:dyDescent="0.2">
@@ -11434,7 +11434,7 @@
       </c>
       <c r="P239">
         <f ca="1"/>
-        <v>162</v>
+        <v>335</v>
       </c>
     </row>
     <row r="240" spans="2:16" x14ac:dyDescent="0.2">
@@ -11481,7 +11481,7 @@
       </c>
       <c r="P240">
         <f ca="1"/>
-        <v>271</v>
+        <v>820</v>
       </c>
     </row>
     <row r="241" spans="2:16" x14ac:dyDescent="0.2">
@@ -11528,7 +11528,7 @@
       </c>
       <c r="P241">
         <f ca="1"/>
-        <v>587</v>
+        <v>595</v>
       </c>
     </row>
     <row r="242" spans="2:16" x14ac:dyDescent="0.2">
@@ -11575,7 +11575,7 @@
       </c>
       <c r="P242">
         <f ca="1"/>
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="243" spans="2:16" x14ac:dyDescent="0.2">
@@ -11622,7 +11622,7 @@
       </c>
       <c r="P243">
         <f ca="1"/>
-        <v>366</v>
+        <v>751</v>
       </c>
     </row>
     <row r="244" spans="2:16" x14ac:dyDescent="0.2">
@@ -11669,7 +11669,7 @@
       </c>
       <c r="P244">
         <f ca="1"/>
-        <v>554</v>
+        <v>423</v>
       </c>
     </row>
     <row r="245" spans="2:16" x14ac:dyDescent="0.2">
@@ -11716,7 +11716,7 @@
       </c>
       <c r="P245">
         <f ca="1"/>
-        <v>287</v>
+        <v>256</v>
       </c>
     </row>
     <row r="246" spans="2:16" x14ac:dyDescent="0.2">
@@ -11763,7 +11763,7 @@
       </c>
       <c r="P246">
         <f ca="1"/>
-        <v>809</v>
+        <v>527</v>
       </c>
     </row>
     <row r="247" spans="2:16" x14ac:dyDescent="0.2">
@@ -11810,7 +11810,7 @@
       </c>
       <c r="P247">
         <f ca="1"/>
-        <v>590</v>
+        <v>561</v>
       </c>
     </row>
     <row r="248" spans="2:16" x14ac:dyDescent="0.2">
@@ -11857,7 +11857,7 @@
       </c>
       <c r="P248">
         <f ca="1"/>
-        <v>404</v>
+        <v>81</v>
       </c>
     </row>
     <row r="249" spans="2:16" x14ac:dyDescent="0.2">
@@ -11904,7 +11904,7 @@
       </c>
       <c r="P249">
         <f ca="1"/>
-        <v>252</v>
+        <v>874</v>
       </c>
     </row>
     <row r="250" spans="2:16" x14ac:dyDescent="0.2">
@@ -11951,7 +11951,7 @@
       </c>
       <c r="P250">
         <f ca="1"/>
-        <v>223</v>
+        <v>456</v>
       </c>
     </row>
     <row r="251" spans="2:16" x14ac:dyDescent="0.2">
@@ -11987,7 +11987,7 @@
       </c>
       <c r="L251">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>0.31146690799377269</v>
       </c>
       <c r="M251" t="s">
         <v>15</v>
@@ -11998,7 +11998,7 @@
       </c>
       <c r="P251">
         <f ca="1"/>
-        <v>670</v>
+        <v>50</v>
       </c>
     </row>
     <row r="252" spans="2:16" x14ac:dyDescent="0.2">
@@ -12045,7 +12045,7 @@
       </c>
       <c r="P252">
         <f ca="1"/>
-        <v>614</v>
+        <v>407</v>
       </c>
     </row>
     <row r="253" spans="2:16" x14ac:dyDescent="0.2">
@@ -12092,7 +12092,7 @@
       </c>
       <c r="P253">
         <f ca="1"/>
-        <v>644</v>
+        <v>582</v>
       </c>
     </row>
     <row r="254" spans="2:16" x14ac:dyDescent="0.2">
@@ -12128,7 +12128,7 @@
       </c>
       <c r="L254">
         <f t="shared" ca="1" si="6"/>
-        <v>0.31582064474831811</v>
+        <v>0.11292414540306184</v>
       </c>
       <c r="M254" t="s">
         <v>15</v>
@@ -12139,7 +12139,7 @@
       </c>
       <c r="P254">
         <f ca="1"/>
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="255" spans="2:16" x14ac:dyDescent="0.2">
@@ -12186,7 +12186,7 @@
       </c>
       <c r="P255">
         <f ca="1"/>
-        <v>139</v>
+        <v>683</v>
       </c>
     </row>
     <row r="256" spans="2:16" x14ac:dyDescent="0.2">
@@ -12233,7 +12233,7 @@
       </c>
       <c r="P256">
         <f ca="1"/>
-        <v>699</v>
+        <v>467</v>
       </c>
     </row>
     <row r="257" spans="2:16" x14ac:dyDescent="0.2">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="P257">
         <f ca="1"/>
-        <v>647</v>
+        <v>636</v>
       </c>
     </row>
     <row r="258" spans="2:16" x14ac:dyDescent="0.2">
@@ -12327,7 +12327,7 @@
       </c>
       <c r="P258">
         <f ca="1"/>
-        <v>158</v>
+        <v>283</v>
       </c>
     </row>
     <row r="259" spans="2:16" x14ac:dyDescent="0.2">
@@ -12363,7 +12363,7 @@
       </c>
       <c r="L259">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>0.26065221049233261</v>
       </c>
       <c r="M259" t="s">
         <v>15</v>
@@ -12374,7 +12374,7 @@
       </c>
       <c r="P259">
         <f ca="1"/>
-        <v>508</v>
+        <v>58</v>
       </c>
     </row>
     <row r="260" spans="2:16" x14ac:dyDescent="0.2">
@@ -12421,7 +12421,7 @@
       </c>
       <c r="P260">
         <f ca="1"/>
-        <v>263</v>
+        <v>328</v>
       </c>
     </row>
     <row r="261" spans="2:16" x14ac:dyDescent="0.2">
@@ -12468,7 +12468,7 @@
       </c>
       <c r="P261">
         <f ca="1"/>
-        <v>601</v>
+        <v>125</v>
       </c>
     </row>
     <row r="262" spans="2:16" x14ac:dyDescent="0.2">
@@ -12515,7 +12515,7 @@
       </c>
       <c r="P262">
         <f ca="1"/>
-        <v>117</v>
+        <v>618</v>
       </c>
     </row>
     <row r="263" spans="2:16" x14ac:dyDescent="0.2">
@@ -12562,7 +12562,7 @@
       </c>
       <c r="P263">
         <f ca="1"/>
-        <v>743</v>
+        <v>417</v>
       </c>
     </row>
     <row r="264" spans="2:16" x14ac:dyDescent="0.2">
@@ -12609,7 +12609,7 @@
       </c>
       <c r="P264">
         <f ca="1"/>
-        <v>125</v>
+        <v>412</v>
       </c>
     </row>
     <row r="265" spans="2:16" x14ac:dyDescent="0.2">
@@ -12656,7 +12656,7 @@
       </c>
       <c r="P265">
         <f ca="1"/>
-        <v>376</v>
+        <v>694</v>
       </c>
     </row>
     <row r="266" spans="2:16" x14ac:dyDescent="0.2">
@@ -12703,7 +12703,7 @@
       </c>
       <c r="P266">
         <f ca="1"/>
-        <v>410</v>
+        <v>725</v>
       </c>
     </row>
     <row r="267" spans="2:16" x14ac:dyDescent="0.2">
@@ -12738,7 +12738,7 @@
         <v>1</v>
       </c>
       <c r="L267">
-        <f t="shared" ref="L267:L330" ca="1" si="8">IF(COUNTIF(O$10:O$39, P267)&gt;0, RAND()*0.5, 0)</f>
+        <f t="shared" ref="L267:L330" ca="1" si="8">IF(COUNTIF(O$10:O$69, P267)&gt;0, RAND()*0.5, 0)</f>
         <v>0</v>
       </c>
       <c r="M267" t="s">
@@ -12750,7 +12750,7 @@
       </c>
       <c r="P267">
         <f ca="1"/>
-        <v>56</v>
+        <v>826</v>
       </c>
     </row>
     <row r="268" spans="2:16" x14ac:dyDescent="0.2">
@@ -12797,7 +12797,7 @@
       </c>
       <c r="P268">
         <f ca="1"/>
-        <v>824</v>
+        <v>366</v>
       </c>
     </row>
     <row r="269" spans="2:16" x14ac:dyDescent="0.2">
@@ -12844,7 +12844,7 @@
       </c>
       <c r="P269">
         <f ca="1"/>
-        <v>330</v>
+        <v>520</v>
       </c>
     </row>
     <row r="270" spans="2:16" x14ac:dyDescent="0.2">
@@ -12891,7 +12891,7 @@
       </c>
       <c r="P270">
         <f ca="1"/>
-        <v>141</v>
+        <v>344</v>
       </c>
     </row>
     <row r="271" spans="2:16" x14ac:dyDescent="0.2">
@@ -12927,7 +12927,7 @@
       </c>
       <c r="L271">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>0.28823926297263497</v>
       </c>
       <c r="M271" t="s">
         <v>15</v>
@@ -12938,7 +12938,7 @@
       </c>
       <c r="P271">
         <f ca="1"/>
-        <v>578</v>
+        <v>44</v>
       </c>
     </row>
     <row r="272" spans="2:16" x14ac:dyDescent="0.2">
@@ -12985,7 +12985,7 @@
       </c>
       <c r="P272">
         <f ca="1"/>
-        <v>663</v>
+        <v>186</v>
       </c>
     </row>
     <row r="273" spans="2:16" x14ac:dyDescent="0.2">
@@ -13032,7 +13032,7 @@
       </c>
       <c r="P273">
         <f ca="1"/>
-        <v>449</v>
+        <v>623</v>
       </c>
     </row>
     <row r="274" spans="2:16" x14ac:dyDescent="0.2">
@@ -13079,7 +13079,7 @@
       </c>
       <c r="P274">
         <f ca="1"/>
-        <v>311</v>
+        <v>733</v>
       </c>
     </row>
     <row r="275" spans="2:16" x14ac:dyDescent="0.2">
@@ -13126,7 +13126,7 @@
       </c>
       <c r="P275">
         <f ca="1"/>
-        <v>94</v>
+        <v>372</v>
       </c>
     </row>
     <row r="276" spans="2:16" x14ac:dyDescent="0.2">
@@ -13173,7 +13173,7 @@
       </c>
       <c r="P276">
         <f ca="1"/>
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="277" spans="2:16" x14ac:dyDescent="0.2">
@@ -13220,7 +13220,7 @@
       </c>
       <c r="P277">
         <f ca="1"/>
-        <v>756</v>
+        <v>481</v>
       </c>
     </row>
     <row r="278" spans="2:16" x14ac:dyDescent="0.2">
@@ -13267,7 +13267,7 @@
       </c>
       <c r="P278">
         <f ca="1"/>
-        <v>207</v>
+        <v>719</v>
       </c>
     </row>
     <row r="279" spans="2:16" x14ac:dyDescent="0.2">
@@ -13314,7 +13314,7 @@
       </c>
       <c r="P279">
         <f ca="1"/>
-        <v>913</v>
+        <v>100</v>
       </c>
     </row>
     <row r="280" spans="2:16" x14ac:dyDescent="0.2">
@@ -13361,7 +13361,7 @@
       </c>
       <c r="P280">
         <f ca="1"/>
-        <v>771</v>
+        <v>700</v>
       </c>
     </row>
     <row r="281" spans="2:16" x14ac:dyDescent="0.2">
@@ -13397,7 +13397,7 @@
       </c>
       <c r="L281">
         <f t="shared" ca="1" si="8"/>
-        <v>4.6415626146204592E-2</v>
+        <v>0</v>
       </c>
       <c r="M281" t="s">
         <v>15</v>
@@ -13408,7 +13408,7 @@
       </c>
       <c r="P281">
         <f ca="1"/>
-        <v>28</v>
+        <v>493</v>
       </c>
     </row>
     <row r="282" spans="2:16" x14ac:dyDescent="0.2">
@@ -13455,7 +13455,7 @@
       </c>
       <c r="P282">
         <f ca="1"/>
-        <v>210</v>
+        <v>702</v>
       </c>
     </row>
     <row r="283" spans="2:16" x14ac:dyDescent="0.2">
@@ -13502,7 +13502,7 @@
       </c>
       <c r="P283">
         <f ca="1"/>
-        <v>804</v>
+        <v>647</v>
       </c>
     </row>
     <row r="284" spans="2:16" x14ac:dyDescent="0.2">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="P284">
         <f ca="1"/>
-        <v>561</v>
+        <v>74</v>
       </c>
     </row>
     <row r="285" spans="2:16" x14ac:dyDescent="0.2">
@@ -13596,7 +13596,7 @@
       </c>
       <c r="P285">
         <f ca="1"/>
-        <v>264</v>
+        <v>768</v>
       </c>
     </row>
     <row r="286" spans="2:16" x14ac:dyDescent="0.2">
@@ -13643,7 +13643,7 @@
       </c>
       <c r="P286">
         <f ca="1"/>
-        <v>638</v>
+        <v>529</v>
       </c>
     </row>
     <row r="287" spans="2:16" x14ac:dyDescent="0.2">
@@ -13690,7 +13690,7 @@
       </c>
       <c r="P287">
         <f ca="1"/>
-        <v>176</v>
+        <v>323</v>
       </c>
     </row>
     <row r="288" spans="2:16" x14ac:dyDescent="0.2">
@@ -13737,7 +13737,7 @@
       </c>
       <c r="P288">
         <f ca="1"/>
-        <v>154</v>
+        <v>389</v>
       </c>
     </row>
     <row r="289" spans="2:16" x14ac:dyDescent="0.2">
@@ -13784,7 +13784,7 @@
       </c>
       <c r="P289">
         <f ca="1"/>
-        <v>39</v>
+        <v>651</v>
       </c>
     </row>
     <row r="290" spans="2:16" x14ac:dyDescent="0.2">
@@ -13831,7 +13831,7 @@
       </c>
       <c r="P290">
         <f ca="1"/>
-        <v>328</v>
+        <v>830</v>
       </c>
     </row>
     <row r="291" spans="2:16" x14ac:dyDescent="0.2">
@@ -13867,7 +13867,7 @@
       </c>
       <c r="L291">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>0.19188150481398653</v>
       </c>
       <c r="M291" t="s">
         <v>15</v>
@@ -13878,7 +13878,7 @@
       </c>
       <c r="P291">
         <f ca="1"/>
-        <v>470</v>
+        <v>52</v>
       </c>
     </row>
     <row r="292" spans="2:16" x14ac:dyDescent="0.2">
@@ -13925,7 +13925,7 @@
       </c>
       <c r="P292">
         <f ca="1"/>
-        <v>835</v>
+        <v>748</v>
       </c>
     </row>
     <row r="293" spans="2:16" x14ac:dyDescent="0.2">
@@ -13972,7 +13972,7 @@
       </c>
       <c r="P293">
         <f ca="1"/>
-        <v>592</v>
+        <v>672</v>
       </c>
     </row>
     <row r="294" spans="2:16" x14ac:dyDescent="0.2">
@@ -14019,7 +14019,7 @@
       </c>
       <c r="P294">
         <f ca="1"/>
-        <v>153</v>
+        <v>214</v>
       </c>
     </row>
     <row r="295" spans="2:16" x14ac:dyDescent="0.2">
@@ -14066,7 +14066,7 @@
       </c>
       <c r="P295">
         <f ca="1"/>
-        <v>787</v>
+        <v>123</v>
       </c>
     </row>
     <row r="296" spans="2:16" x14ac:dyDescent="0.2">
@@ -14113,7 +14113,7 @@
       </c>
       <c r="P296">
         <f ca="1"/>
-        <v>791</v>
+        <v>772</v>
       </c>
     </row>
     <row r="297" spans="2:16" x14ac:dyDescent="0.2">
@@ -14160,7 +14160,7 @@
       </c>
       <c r="P297">
         <f ca="1"/>
-        <v>315</v>
+        <v>801</v>
       </c>
     </row>
     <row r="298" spans="2:16" x14ac:dyDescent="0.2">
@@ -14207,7 +14207,7 @@
       </c>
       <c r="P298">
         <f ca="1"/>
-        <v>415</v>
+        <v>91</v>
       </c>
     </row>
     <row r="299" spans="2:16" x14ac:dyDescent="0.2">
@@ -14254,7 +14254,7 @@
       </c>
       <c r="P299">
         <f ca="1"/>
-        <v>607</v>
+        <v>244</v>
       </c>
     </row>
     <row r="300" spans="2:16" x14ac:dyDescent="0.2">
@@ -14301,7 +14301,7 @@
       </c>
       <c r="P300">
         <f ca="1"/>
-        <v>106</v>
+        <v>546</v>
       </c>
     </row>
     <row r="301" spans="2:16" x14ac:dyDescent="0.2">
@@ -14348,7 +14348,7 @@
       </c>
       <c r="P301">
         <f ca="1"/>
-        <v>99</v>
+        <v>311</v>
       </c>
     </row>
     <row r="302" spans="2:16" x14ac:dyDescent="0.2">
@@ -14395,7 +14395,7 @@
       </c>
       <c r="P302">
         <f ca="1"/>
-        <v>407</v>
+        <v>811</v>
       </c>
     </row>
     <row r="303" spans="2:16" x14ac:dyDescent="0.2">
@@ -14431,7 +14431,7 @@
       </c>
       <c r="L303">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>0.27181980528148014</v>
       </c>
       <c r="M303" t="s">
         <v>15</v>
@@ -14442,7 +14442,7 @@
       </c>
       <c r="P303">
         <f ca="1"/>
-        <v>465</v>
+        <v>5</v>
       </c>
     </row>
     <row r="304" spans="2:16" x14ac:dyDescent="0.2">
@@ -14489,7 +14489,7 @@
       </c>
       <c r="P304">
         <f ca="1"/>
-        <v>232</v>
+        <v>420</v>
       </c>
     </row>
     <row r="305" spans="2:16" x14ac:dyDescent="0.2">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="P305">
         <f ca="1"/>
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="306" spans="2:16" x14ac:dyDescent="0.2">
@@ -14583,7 +14583,7 @@
       </c>
       <c r="P306">
         <f ca="1"/>
-        <v>251</v>
+        <v>110</v>
       </c>
     </row>
     <row r="307" spans="2:16" x14ac:dyDescent="0.2">
@@ -14630,7 +14630,7 @@
       </c>
       <c r="P307">
         <f ca="1"/>
-        <v>394</v>
+        <v>146</v>
       </c>
     </row>
     <row r="308" spans="2:16" x14ac:dyDescent="0.2">
@@ -14677,7 +14677,7 @@
       </c>
       <c r="P308">
         <f ca="1"/>
-        <v>169</v>
+        <v>282</v>
       </c>
     </row>
     <row r="309" spans="2:16" x14ac:dyDescent="0.2">
@@ -14724,7 +14724,7 @@
       </c>
       <c r="P309">
         <f ca="1"/>
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="310" spans="2:16" x14ac:dyDescent="0.2">
@@ -14771,7 +14771,7 @@
       </c>
       <c r="P310">
         <f ca="1"/>
-        <v>613</v>
+        <v>555</v>
       </c>
     </row>
     <row r="311" spans="2:16" x14ac:dyDescent="0.2">
@@ -14818,7 +14818,7 @@
       </c>
       <c r="P311">
         <f ca="1"/>
-        <v>219</v>
+        <v>584</v>
       </c>
     </row>
     <row r="312" spans="2:16" x14ac:dyDescent="0.2">
@@ -14865,7 +14865,7 @@
       </c>
       <c r="P312">
         <f ca="1"/>
-        <v>697</v>
+        <v>827</v>
       </c>
     </row>
     <row r="313" spans="2:16" x14ac:dyDescent="0.2">
@@ -14912,7 +14912,7 @@
       </c>
       <c r="P313">
         <f ca="1"/>
-        <v>84</v>
+        <v>255</v>
       </c>
     </row>
     <row r="314" spans="2:16" x14ac:dyDescent="0.2">
@@ -14959,7 +14959,7 @@
       </c>
       <c r="P314">
         <f ca="1"/>
-        <v>70</v>
+        <v>531</v>
       </c>
     </row>
     <row r="315" spans="2:16" x14ac:dyDescent="0.2">
@@ -14995,7 +14995,7 @@
       </c>
       <c r="L315">
         <f t="shared" ca="1" si="8"/>
-        <v>0.39721351964883322</v>
+        <v>0</v>
       </c>
       <c r="M315" t="s">
         <v>15</v>
@@ -15006,7 +15006,7 @@
       </c>
       <c r="P315">
         <f ca="1"/>
-        <v>24</v>
+        <v>496</v>
       </c>
     </row>
     <row r="316" spans="2:16" x14ac:dyDescent="0.2">
@@ -15053,7 +15053,7 @@
       </c>
       <c r="P316">
         <f ca="1"/>
-        <v>126</v>
+        <v>421</v>
       </c>
     </row>
     <row r="317" spans="2:16" x14ac:dyDescent="0.2">
@@ -15100,7 +15100,7 @@
       </c>
       <c r="P317">
         <f ca="1"/>
-        <v>34</v>
+        <v>819</v>
       </c>
     </row>
     <row r="318" spans="2:16" x14ac:dyDescent="0.2">
@@ -15147,7 +15147,7 @@
       </c>
       <c r="P318">
         <f ca="1"/>
-        <v>911</v>
+        <v>387</v>
       </c>
     </row>
     <row r="319" spans="2:16" x14ac:dyDescent="0.2">
@@ -15194,7 +15194,7 @@
       </c>
       <c r="P319">
         <f ca="1"/>
-        <v>313</v>
+        <v>234</v>
       </c>
     </row>
     <row r="320" spans="2:16" x14ac:dyDescent="0.2">
@@ -15241,7 +15241,7 @@
       </c>
       <c r="P320">
         <f ca="1"/>
-        <v>222</v>
+        <v>445</v>
       </c>
     </row>
     <row r="321" spans="2:16" x14ac:dyDescent="0.2">
@@ -15288,7 +15288,7 @@
       </c>
       <c r="P321">
         <f ca="1"/>
-        <v>643</v>
+        <v>446</v>
       </c>
     </row>
     <row r="322" spans="2:16" x14ac:dyDescent="0.2">
@@ -15335,7 +15335,7 @@
       </c>
       <c r="P322">
         <f ca="1"/>
-        <v>530</v>
+        <v>416</v>
       </c>
     </row>
     <row r="323" spans="2:16" x14ac:dyDescent="0.2">
@@ -15382,7 +15382,7 @@
       </c>
       <c r="P323">
         <f ca="1"/>
-        <v>217</v>
+        <v>781</v>
       </c>
     </row>
     <row r="324" spans="2:16" x14ac:dyDescent="0.2">
@@ -15429,7 +15429,7 @@
       </c>
       <c r="P324">
         <f ca="1"/>
-        <v>899</v>
+        <v>131</v>
       </c>
     </row>
     <row r="325" spans="2:16" x14ac:dyDescent="0.2">
@@ -15476,7 +15476,7 @@
       </c>
       <c r="P325">
         <f ca="1"/>
-        <v>686</v>
+        <v>471</v>
       </c>
     </row>
     <row r="326" spans="2:16" x14ac:dyDescent="0.2">
@@ -15523,7 +15523,7 @@
       </c>
       <c r="P326">
         <f ca="1"/>
-        <v>67</v>
+        <v>641</v>
       </c>
     </row>
     <row r="327" spans="2:16" x14ac:dyDescent="0.2">
@@ -15570,7 +15570,7 @@
       </c>
       <c r="P327">
         <f ca="1"/>
-        <v>826</v>
+        <v>158</v>
       </c>
     </row>
     <row r="328" spans="2:16" x14ac:dyDescent="0.2">
@@ -15606,7 +15606,7 @@
       </c>
       <c r="L328">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>0.33582202075121548</v>
       </c>
       <c r="M328" t="s">
         <v>15</v>
@@ -15617,7 +15617,7 @@
       </c>
       <c r="P328">
         <f ca="1"/>
-        <v>883</v>
+        <v>12</v>
       </c>
     </row>
     <row r="329" spans="2:16" x14ac:dyDescent="0.2">
@@ -15664,7 +15664,7 @@
       </c>
       <c r="P329">
         <f ca="1"/>
-        <v>900</v>
+        <v>767</v>
       </c>
     </row>
     <row r="330" spans="2:16" x14ac:dyDescent="0.2">
@@ -15711,7 +15711,7 @@
       </c>
       <c r="P330">
         <f ca="1"/>
-        <v>480</v>
+        <v>809</v>
       </c>
     </row>
     <row r="331" spans="2:16" x14ac:dyDescent="0.2">
@@ -15746,7 +15746,7 @@
         <v>1</v>
       </c>
       <c r="L331">
-        <f t="shared" ref="L331:L394" ca="1" si="10">IF(COUNTIF(O$10:O$39, P331)&gt;0, RAND()*0.5, 0)</f>
+        <f t="shared" ref="L331:L394" ca="1" si="10">IF(COUNTIF(O$10:O$69, P331)&gt;0, RAND()*0.5, 0)</f>
         <v>0</v>
       </c>
       <c r="M331" t="s">
@@ -15758,7 +15758,7 @@
       </c>
       <c r="P331">
         <f ca="1"/>
-        <v>293</v>
+        <v>659</v>
       </c>
     </row>
     <row r="332" spans="2:16" x14ac:dyDescent="0.2">
@@ -15805,7 +15805,7 @@
       </c>
       <c r="P332">
         <f ca="1"/>
-        <v>872</v>
+        <v>737</v>
       </c>
     </row>
     <row r="333" spans="2:16" x14ac:dyDescent="0.2">
@@ -15852,7 +15852,7 @@
       </c>
       <c r="P333">
         <f ca="1"/>
-        <v>747</v>
+        <v>722</v>
       </c>
     </row>
     <row r="334" spans="2:16" x14ac:dyDescent="0.2">
@@ -15899,7 +15899,7 @@
       </c>
       <c r="P334">
         <f ca="1"/>
-        <v>283</v>
+        <v>336</v>
       </c>
     </row>
     <row r="335" spans="2:16" x14ac:dyDescent="0.2">
@@ -15946,7 +15946,7 @@
       </c>
       <c r="P335">
         <f ca="1"/>
-        <v>172</v>
+        <v>732</v>
       </c>
     </row>
     <row r="336" spans="2:16" x14ac:dyDescent="0.2">
@@ -15993,7 +15993,7 @@
       </c>
       <c r="P336">
         <f ca="1"/>
-        <v>300</v>
+        <v>845</v>
       </c>
     </row>
     <row r="337" spans="2:16" x14ac:dyDescent="0.2">
@@ -16040,7 +16040,7 @@
       </c>
       <c r="P337">
         <f ca="1"/>
-        <v>641</v>
+        <v>295</v>
       </c>
     </row>
     <row r="338" spans="2:16" x14ac:dyDescent="0.2">
@@ -16087,7 +16087,7 @@
       </c>
       <c r="P338">
         <f ca="1"/>
-        <v>593</v>
+        <v>682</v>
       </c>
     </row>
     <row r="339" spans="2:16" x14ac:dyDescent="0.2">
@@ -16134,7 +16134,7 @@
       </c>
       <c r="P339">
         <f ca="1"/>
-        <v>844</v>
+        <v>892</v>
       </c>
     </row>
     <row r="340" spans="2:16" x14ac:dyDescent="0.2">
@@ -16181,7 +16181,7 @@
       </c>
       <c r="P340">
         <f ca="1"/>
-        <v>477</v>
+        <v>648</v>
       </c>
     </row>
     <row r="341" spans="2:16" x14ac:dyDescent="0.2">
@@ -16228,7 +16228,7 @@
       </c>
       <c r="P341">
         <f ca="1"/>
-        <v>660</v>
+        <v>631</v>
       </c>
     </row>
     <row r="342" spans="2:16" x14ac:dyDescent="0.2">
@@ -16275,7 +16275,7 @@
       </c>
       <c r="P342">
         <f ca="1"/>
-        <v>121</v>
+        <v>634</v>
       </c>
     </row>
     <row r="343" spans="2:16" x14ac:dyDescent="0.2">
@@ -16322,7 +16322,7 @@
       </c>
       <c r="P343">
         <f ca="1"/>
-        <v>187</v>
+        <v>148</v>
       </c>
     </row>
     <row r="344" spans="2:16" x14ac:dyDescent="0.2">
@@ -16369,7 +16369,7 @@
       </c>
       <c r="P344">
         <f ca="1"/>
-        <v>175</v>
+        <v>271</v>
       </c>
     </row>
     <row r="345" spans="2:16" x14ac:dyDescent="0.2">
@@ -16416,7 +16416,7 @@
       </c>
       <c r="P345">
         <f ca="1"/>
-        <v>606</v>
+        <v>232</v>
       </c>
     </row>
     <row r="346" spans="2:16" x14ac:dyDescent="0.2">
@@ -16463,7 +16463,7 @@
       </c>
       <c r="P346">
         <f ca="1"/>
-        <v>402</v>
+        <v>604</v>
       </c>
     </row>
     <row r="347" spans="2:16" x14ac:dyDescent="0.2">
@@ -16510,7 +16510,7 @@
       </c>
       <c r="P347">
         <f ca="1"/>
-        <v>346</v>
+        <v>469</v>
       </c>
     </row>
     <row r="348" spans="2:16" x14ac:dyDescent="0.2">
@@ -16557,7 +16557,7 @@
       </c>
       <c r="P348">
         <f ca="1"/>
-        <v>359</v>
+        <v>102</v>
       </c>
     </row>
     <row r="349" spans="2:16" x14ac:dyDescent="0.2">
@@ -16604,7 +16604,7 @@
       </c>
       <c r="P349">
         <f ca="1"/>
-        <v>739</v>
+        <v>395</v>
       </c>
     </row>
     <row r="350" spans="2:16" x14ac:dyDescent="0.2">
@@ -16651,7 +16651,7 @@
       </c>
       <c r="P350">
         <f ca="1"/>
-        <v>486</v>
+        <v>66</v>
       </c>
     </row>
     <row r="351" spans="2:16" x14ac:dyDescent="0.2">
@@ -16698,7 +16698,7 @@
       </c>
       <c r="P351">
         <f ca="1"/>
-        <v>851</v>
+        <v>574</v>
       </c>
     </row>
     <row r="352" spans="2:16" x14ac:dyDescent="0.2">
@@ -16745,7 +16745,7 @@
       </c>
       <c r="P352">
         <f ca="1"/>
-        <v>651</v>
+        <v>183</v>
       </c>
     </row>
     <row r="353" spans="2:16" x14ac:dyDescent="0.2">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="P353">
         <f ca="1"/>
-        <v>289</v>
+        <v>215</v>
       </c>
     </row>
     <row r="354" spans="2:16" x14ac:dyDescent="0.2">
@@ -16839,7 +16839,7 @@
       </c>
       <c r="P354">
         <f ca="1"/>
-        <v>131</v>
+        <v>716</v>
       </c>
     </row>
     <row r="355" spans="2:16" x14ac:dyDescent="0.2">
@@ -16886,7 +16886,7 @@
       </c>
       <c r="P355">
         <f ca="1"/>
-        <v>656</v>
+        <v>528</v>
       </c>
     </row>
     <row r="356" spans="2:16" x14ac:dyDescent="0.2">
@@ -16922,7 +16922,7 @@
       </c>
       <c r="L356">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>0.46767805870569268</v>
       </c>
       <c r="M356" t="s">
         <v>15</v>
@@ -16933,7 +16933,7 @@
       </c>
       <c r="P356">
         <f ca="1"/>
-        <v>567</v>
+        <v>55</v>
       </c>
     </row>
     <row r="357" spans="2:16" x14ac:dyDescent="0.2">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="P357">
         <f ca="1"/>
-        <v>877</v>
+        <v>89</v>
       </c>
     </row>
     <row r="358" spans="2:16" x14ac:dyDescent="0.2">
@@ -17027,7 +17027,7 @@
       </c>
       <c r="P358">
         <f ca="1"/>
-        <v>358</v>
+        <v>836</v>
       </c>
     </row>
     <row r="359" spans="2:16" x14ac:dyDescent="0.2">
@@ -17074,7 +17074,7 @@
       </c>
       <c r="P359">
         <f ca="1"/>
-        <v>696</v>
+        <v>391</v>
       </c>
     </row>
     <row r="360" spans="2:16" x14ac:dyDescent="0.2">
@@ -17121,7 +17121,7 @@
       </c>
       <c r="P360">
         <f ca="1"/>
-        <v>802</v>
+        <v>332</v>
       </c>
     </row>
     <row r="361" spans="2:16" x14ac:dyDescent="0.2">
@@ -17168,7 +17168,7 @@
       </c>
       <c r="P361">
         <f ca="1"/>
-        <v>818</v>
+        <v>419</v>
       </c>
     </row>
     <row r="362" spans="2:16" x14ac:dyDescent="0.2">
@@ -17215,7 +17215,7 @@
       </c>
       <c r="P362">
         <f ca="1"/>
-        <v>553</v>
+        <v>816</v>
       </c>
     </row>
     <row r="363" spans="2:16" x14ac:dyDescent="0.2">
@@ -17262,7 +17262,7 @@
       </c>
       <c r="P363">
         <f ca="1"/>
-        <v>904</v>
+        <v>568</v>
       </c>
     </row>
     <row r="364" spans="2:16" x14ac:dyDescent="0.2">
@@ -17309,7 +17309,7 @@
       </c>
       <c r="P364">
         <f ca="1"/>
-        <v>706</v>
+        <v>306</v>
       </c>
     </row>
     <row r="365" spans="2:16" x14ac:dyDescent="0.2">
@@ -17345,7 +17345,7 @@
       </c>
       <c r="L365">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>0.23022708972890465</v>
       </c>
       <c r="M365" t="s">
         <v>15</v>
@@ -17356,7 +17356,7 @@
       </c>
       <c r="P365">
         <f ca="1"/>
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="366" spans="2:16" x14ac:dyDescent="0.2">
@@ -17403,7 +17403,7 @@
       </c>
       <c r="P366">
         <f ca="1"/>
-        <v>630</v>
+        <v>398</v>
       </c>
     </row>
     <row r="367" spans="2:16" x14ac:dyDescent="0.2">
@@ -17450,7 +17450,7 @@
       </c>
       <c r="P367">
         <f ca="1"/>
-        <v>674</v>
+        <v>458</v>
       </c>
     </row>
     <row r="368" spans="2:16" x14ac:dyDescent="0.2">
@@ -17486,7 +17486,7 @@
       </c>
       <c r="L368">
         <f t="shared" ca="1" si="10"/>
-        <v>3.1301435647863252E-2</v>
+        <v>0.2807310905326833</v>
       </c>
       <c r="M368" t="s">
         <v>15</v>
@@ -17497,7 +17497,7 @@
       </c>
       <c r="P368">
         <f ca="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="369" spans="2:16" x14ac:dyDescent="0.2">
@@ -17544,7 +17544,7 @@
       </c>
       <c r="P369">
         <f ca="1"/>
-        <v>742</v>
+        <v>782</v>
       </c>
     </row>
     <row r="370" spans="2:16" x14ac:dyDescent="0.2">
@@ -17591,7 +17591,7 @@
       </c>
       <c r="P370">
         <f ca="1"/>
-        <v>456</v>
+        <v>227</v>
       </c>
     </row>
     <row r="371" spans="2:16" x14ac:dyDescent="0.2">
@@ -17627,7 +17627,7 @@
       </c>
       <c r="L371">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>0.36702358571281662</v>
       </c>
       <c r="M371" t="s">
         <v>15</v>
@@ -17638,7 +17638,7 @@
       </c>
       <c r="P371">
         <f ca="1"/>
-        <v>622</v>
+        <v>6</v>
       </c>
     </row>
     <row r="372" spans="2:16" x14ac:dyDescent="0.2">
@@ -17674,7 +17674,7 @@
       </c>
       <c r="L372">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>3.8495788784713436E-2</v>
       </c>
       <c r="M372" t="s">
         <v>15</v>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="P372">
         <f ca="1"/>
-        <v>861</v>
+        <v>32</v>
       </c>
     </row>
     <row r="373" spans="2:16" x14ac:dyDescent="0.2">
@@ -17732,7 +17732,7 @@
       </c>
       <c r="P373">
         <f ca="1"/>
-        <v>694</v>
+        <v>564</v>
       </c>
     </row>
     <row r="374" spans="2:16" x14ac:dyDescent="0.2">
@@ -17779,7 +17779,7 @@
       </c>
       <c r="P374">
         <f ca="1"/>
-        <v>323</v>
+        <v>526</v>
       </c>
     </row>
     <row r="375" spans="2:16" x14ac:dyDescent="0.2">
@@ -17826,7 +17826,7 @@
       </c>
       <c r="P375">
         <f ca="1"/>
-        <v>746</v>
+        <v>363</v>
       </c>
     </row>
     <row r="376" spans="2:16" x14ac:dyDescent="0.2">
@@ -17873,7 +17873,7 @@
       </c>
       <c r="P376">
         <f ca="1"/>
-        <v>377</v>
+        <v>854</v>
       </c>
     </row>
     <row r="377" spans="2:16" x14ac:dyDescent="0.2">
@@ -17920,7 +17920,7 @@
       </c>
       <c r="P377">
         <f ca="1"/>
-        <v>81</v>
+        <v>203</v>
       </c>
     </row>
     <row r="378" spans="2:16" x14ac:dyDescent="0.2">
@@ -17967,7 +17967,7 @@
       </c>
       <c r="P378">
         <f ca="1"/>
-        <v>322</v>
+        <v>480</v>
       </c>
     </row>
     <row r="379" spans="2:16" x14ac:dyDescent="0.2">
@@ -18014,7 +18014,7 @@
       </c>
       <c r="P379">
         <f ca="1"/>
-        <v>612</v>
+        <v>560</v>
       </c>
     </row>
     <row r="380" spans="2:16" x14ac:dyDescent="0.2">
@@ -18061,7 +18061,7 @@
       </c>
       <c r="P380">
         <f ca="1"/>
-        <v>514</v>
+        <v>497</v>
       </c>
     </row>
     <row r="381" spans="2:16" x14ac:dyDescent="0.2">
@@ -18108,7 +18108,7 @@
       </c>
       <c r="P381">
         <f ca="1"/>
-        <v>416</v>
+        <v>267</v>
       </c>
     </row>
     <row r="382" spans="2:16" x14ac:dyDescent="0.2">
@@ -18155,7 +18155,7 @@
       </c>
       <c r="P382">
         <f ca="1"/>
-        <v>408</v>
+        <v>386</v>
       </c>
     </row>
     <row r="383" spans="2:16" x14ac:dyDescent="0.2">
@@ -18202,7 +18202,7 @@
       </c>
       <c r="P383">
         <f ca="1"/>
-        <v>152</v>
+        <v>706</v>
       </c>
     </row>
     <row r="384" spans="2:16" x14ac:dyDescent="0.2">
@@ -18249,7 +18249,7 @@
       </c>
       <c r="P384">
         <f ca="1"/>
-        <v>412</v>
+        <v>712</v>
       </c>
     </row>
     <row r="385" spans="2:16" x14ac:dyDescent="0.2">
@@ -18296,7 +18296,7 @@
       </c>
       <c r="P385">
         <f ca="1"/>
-        <v>655</v>
+        <v>756</v>
       </c>
     </row>
     <row r="386" spans="2:16" x14ac:dyDescent="0.2">
@@ -18343,7 +18343,7 @@
       </c>
       <c r="P386">
         <f ca="1"/>
-        <v>206</v>
+        <v>321</v>
       </c>
     </row>
     <row r="387" spans="2:16" x14ac:dyDescent="0.2">
@@ -18390,7 +18390,7 @@
       </c>
       <c r="P387">
         <f ca="1"/>
-        <v>443</v>
+        <v>832</v>
       </c>
     </row>
     <row r="388" spans="2:16" x14ac:dyDescent="0.2">
@@ -18437,7 +18437,7 @@
       </c>
       <c r="P388">
         <f ca="1"/>
-        <v>361</v>
+        <v>189</v>
       </c>
     </row>
     <row r="389" spans="2:16" x14ac:dyDescent="0.2">
@@ -18484,7 +18484,7 @@
       </c>
       <c r="P389">
         <f ca="1"/>
-        <v>755</v>
+        <v>597</v>
       </c>
     </row>
     <row r="390" spans="2:16" x14ac:dyDescent="0.2">
@@ -18531,7 +18531,7 @@
       </c>
       <c r="P390">
         <f ca="1"/>
-        <v>167</v>
+        <v>448</v>
       </c>
     </row>
     <row r="391" spans="2:16" x14ac:dyDescent="0.2">
@@ -18578,7 +18578,7 @@
       </c>
       <c r="P391">
         <f ca="1"/>
-        <v>849</v>
+        <v>882</v>
       </c>
     </row>
     <row r="392" spans="2:16" x14ac:dyDescent="0.2">
@@ -18625,7 +18625,7 @@
       </c>
       <c r="P392">
         <f ca="1"/>
-        <v>789</v>
+        <v>572</v>
       </c>
     </row>
     <row r="393" spans="2:16" x14ac:dyDescent="0.2">
@@ -18672,7 +18672,7 @@
       </c>
       <c r="P393">
         <f ca="1"/>
-        <v>754</v>
+        <v>858</v>
       </c>
     </row>
     <row r="394" spans="2:16" x14ac:dyDescent="0.2">
@@ -18719,7 +18719,7 @@
       </c>
       <c r="P394">
         <f ca="1"/>
-        <v>682</v>
+        <v>299</v>
       </c>
     </row>
     <row r="395" spans="2:16" x14ac:dyDescent="0.2">
@@ -18754,7 +18754,7 @@
         <v>1</v>
       </c>
       <c r="L395">
-        <f t="shared" ref="L395:L458" ca="1" si="12">IF(COUNTIF(O$10:O$39, P395)&gt;0, RAND()*0.5, 0)</f>
+        <f t="shared" ref="L395:L458" ca="1" si="12">IF(COUNTIF(O$10:O$69, P395)&gt;0, RAND()*0.5, 0)</f>
         <v>0</v>
       </c>
       <c r="M395" t="s">
@@ -18766,7 +18766,7 @@
       </c>
       <c r="P395">
         <f ca="1"/>
-        <v>843</v>
+        <v>883</v>
       </c>
     </row>
     <row r="396" spans="2:16" x14ac:dyDescent="0.2">
@@ -18813,7 +18813,7 @@
       </c>
       <c r="P396">
         <f ca="1"/>
-        <v>245</v>
+        <v>687</v>
       </c>
     </row>
     <row r="397" spans="2:16" x14ac:dyDescent="0.2">
@@ -18860,7 +18860,7 @@
       </c>
       <c r="P397">
         <f ca="1"/>
-        <v>676</v>
+        <v>593</v>
       </c>
     </row>
     <row r="398" spans="2:16" x14ac:dyDescent="0.2">
@@ -18907,7 +18907,7 @@
       </c>
       <c r="P398">
         <f ca="1"/>
-        <v>788</v>
+        <v>818</v>
       </c>
     </row>
     <row r="399" spans="2:16" x14ac:dyDescent="0.2">
@@ -18954,7 +18954,7 @@
       </c>
       <c r="P399">
         <f ca="1"/>
-        <v>38</v>
+        <v>886</v>
       </c>
     </row>
     <row r="400" spans="2:16" x14ac:dyDescent="0.2">
@@ -19001,7 +19001,7 @@
       </c>
       <c r="P400">
         <f ca="1"/>
-        <v>134</v>
+        <v>753</v>
       </c>
     </row>
     <row r="401" spans="2:16" x14ac:dyDescent="0.2">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="P401">
         <f ca="1"/>
-        <v>58</v>
+        <v>204</v>
       </c>
     </row>
     <row r="402" spans="2:16" x14ac:dyDescent="0.2">
@@ -19084,7 +19084,7 @@
       </c>
       <c r="L402">
         <f t="shared" ca="1" si="12"/>
-        <v>0.2886559903249542</v>
+        <v>0</v>
       </c>
       <c r="M402" t="s">
         <v>15</v>
@@ -19095,7 +19095,7 @@
       </c>
       <c r="P402">
         <f ca="1"/>
-        <v>10</v>
+        <v>388</v>
       </c>
     </row>
     <row r="403" spans="2:16" x14ac:dyDescent="0.2">
@@ -19142,7 +19142,7 @@
       </c>
       <c r="P403">
         <f ca="1"/>
-        <v>54</v>
+        <v>279</v>
       </c>
     </row>
     <row r="404" spans="2:16" x14ac:dyDescent="0.2">
@@ -19189,7 +19189,7 @@
       </c>
       <c r="P404">
         <f ca="1"/>
-        <v>519</v>
+        <v>258</v>
       </c>
     </row>
     <row r="405" spans="2:16" x14ac:dyDescent="0.2">
@@ -19236,7 +19236,7 @@
       </c>
       <c r="P405">
         <f ca="1"/>
-        <v>273</v>
+        <v>581</v>
       </c>
     </row>
     <row r="406" spans="2:16" x14ac:dyDescent="0.2">
@@ -19283,7 +19283,7 @@
       </c>
       <c r="P406">
         <f ca="1"/>
-        <v>780</v>
+        <v>264</v>
       </c>
     </row>
     <row r="407" spans="2:16" x14ac:dyDescent="0.2">
@@ -19330,7 +19330,7 @@
       </c>
       <c r="P407">
         <f ca="1"/>
-        <v>429</v>
+        <v>470</v>
       </c>
     </row>
     <row r="408" spans="2:16" x14ac:dyDescent="0.2">
@@ -19366,7 +19366,7 @@
       </c>
       <c r="L408">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>0.14435858460833961</v>
       </c>
       <c r="M408" t="s">
         <v>15</v>
@@ -19377,7 +19377,7 @@
       </c>
       <c r="P408">
         <f ca="1"/>
-        <v>664</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="2:16" x14ac:dyDescent="0.2">
@@ -19424,7 +19424,7 @@
       </c>
       <c r="P409">
         <f ca="1"/>
-        <v>759</v>
+        <v>692</v>
       </c>
     </row>
     <row r="410" spans="2:16" x14ac:dyDescent="0.2">
@@ -19471,7 +19471,7 @@
       </c>
       <c r="P410">
         <f ca="1"/>
-        <v>405</v>
+        <v>453</v>
       </c>
     </row>
     <row r="411" spans="2:16" x14ac:dyDescent="0.2">
@@ -19518,7 +19518,7 @@
       </c>
       <c r="P411">
         <f ca="1"/>
-        <v>532</v>
+        <v>894</v>
       </c>
     </row>
     <row r="412" spans="2:16" x14ac:dyDescent="0.2">
@@ -19565,7 +19565,7 @@
       </c>
       <c r="P412">
         <f ca="1"/>
-        <v>492</v>
+        <v>888</v>
       </c>
     </row>
     <row r="413" spans="2:16" x14ac:dyDescent="0.2">
@@ -19612,7 +19612,7 @@
       </c>
       <c r="P413">
         <f ca="1"/>
-        <v>728</v>
+        <v>839</v>
       </c>
     </row>
     <row r="414" spans="2:16" x14ac:dyDescent="0.2">
@@ -19659,7 +19659,7 @@
       </c>
       <c r="P414">
         <f ca="1"/>
-        <v>149</v>
+        <v>794</v>
       </c>
     </row>
     <row r="415" spans="2:16" x14ac:dyDescent="0.2">
@@ -19706,7 +19706,7 @@
       </c>
       <c r="P415">
         <f ca="1"/>
-        <v>548</v>
+        <v>222</v>
       </c>
     </row>
     <row r="416" spans="2:16" x14ac:dyDescent="0.2">
@@ -19753,7 +19753,7 @@
       </c>
       <c r="P416">
         <f ca="1"/>
-        <v>148</v>
+        <v>643</v>
       </c>
     </row>
     <row r="417" spans="2:16" x14ac:dyDescent="0.2">
@@ -19800,7 +19800,7 @@
       </c>
       <c r="P417">
         <f ca="1"/>
-        <v>860</v>
+        <v>693</v>
       </c>
     </row>
     <row r="418" spans="2:16" x14ac:dyDescent="0.2">
@@ -19847,7 +19847,7 @@
       </c>
       <c r="P418">
         <f ca="1"/>
-        <v>229</v>
+        <v>588</v>
       </c>
     </row>
     <row r="419" spans="2:16" x14ac:dyDescent="0.2">
@@ -19894,7 +19894,7 @@
       </c>
       <c r="P419">
         <f ca="1"/>
-        <v>338</v>
+        <v>863</v>
       </c>
     </row>
     <row r="420" spans="2:16" x14ac:dyDescent="0.2">
@@ -19941,7 +19941,7 @@
       </c>
       <c r="P420">
         <f ca="1"/>
-        <v>720</v>
+        <v>439</v>
       </c>
     </row>
     <row r="421" spans="2:16" x14ac:dyDescent="0.2">
@@ -19988,7 +19988,7 @@
       </c>
       <c r="P421">
         <f ca="1"/>
-        <v>584</v>
+        <v>835</v>
       </c>
     </row>
     <row r="422" spans="2:16" x14ac:dyDescent="0.2">
@@ -20035,7 +20035,7 @@
       </c>
       <c r="P422">
         <f ca="1"/>
-        <v>823</v>
+        <v>369</v>
       </c>
     </row>
     <row r="423" spans="2:16" x14ac:dyDescent="0.2">
@@ -20082,7 +20082,7 @@
       </c>
       <c r="P423">
         <f ca="1"/>
-        <v>838</v>
+        <v>349</v>
       </c>
     </row>
     <row r="424" spans="2:16" x14ac:dyDescent="0.2">
@@ -20129,7 +20129,7 @@
       </c>
       <c r="P424">
         <f ca="1"/>
-        <v>186</v>
+        <v>165</v>
       </c>
     </row>
     <row r="425" spans="2:16" x14ac:dyDescent="0.2">
@@ -20176,7 +20176,7 @@
       </c>
       <c r="P425">
         <f ca="1"/>
-        <v>636</v>
+        <v>738</v>
       </c>
     </row>
     <row r="426" spans="2:16" x14ac:dyDescent="0.2">
@@ -20223,7 +20223,7 @@
       </c>
       <c r="P426">
         <f ca="1"/>
-        <v>624</v>
+        <v>743</v>
       </c>
     </row>
     <row r="427" spans="2:16" x14ac:dyDescent="0.2">
@@ -20270,7 +20270,7 @@
       </c>
       <c r="P427">
         <f ca="1"/>
-        <v>421</v>
+        <v>861</v>
       </c>
     </row>
     <row r="428" spans="2:16" x14ac:dyDescent="0.2">
@@ -20317,7 +20317,7 @@
       </c>
       <c r="P428">
         <f ca="1"/>
-        <v>504</v>
+        <v>739</v>
       </c>
     </row>
     <row r="429" spans="2:16" x14ac:dyDescent="0.2">
@@ -20364,7 +20364,7 @@
       </c>
       <c r="P429">
         <f ca="1"/>
-        <v>625</v>
+        <v>878</v>
       </c>
     </row>
     <row r="430" spans="2:16" x14ac:dyDescent="0.2">
@@ -20411,7 +20411,7 @@
       </c>
       <c r="P430">
         <f ca="1"/>
-        <v>96</v>
+        <v>508</v>
       </c>
     </row>
     <row r="431" spans="2:16" x14ac:dyDescent="0.2">
@@ -20458,7 +20458,7 @@
       </c>
       <c r="P431">
         <f ca="1"/>
-        <v>666</v>
+        <v>680</v>
       </c>
     </row>
     <row r="432" spans="2:16" x14ac:dyDescent="0.2">
@@ -20505,7 +20505,7 @@
       </c>
       <c r="P432">
         <f ca="1"/>
-        <v>183</v>
+        <v>465</v>
       </c>
     </row>
     <row r="433" spans="2:16" x14ac:dyDescent="0.2">
@@ -20552,7 +20552,7 @@
       </c>
       <c r="P433">
         <f ca="1"/>
-        <v>57</v>
+        <v>658</v>
       </c>
     </row>
     <row r="434" spans="2:16" x14ac:dyDescent="0.2">
@@ -20599,7 +20599,7 @@
       </c>
       <c r="P434">
         <f ca="1"/>
-        <v>178</v>
+        <v>865</v>
       </c>
     </row>
     <row r="435" spans="2:16" x14ac:dyDescent="0.2">
@@ -20646,7 +20646,7 @@
       </c>
       <c r="P435">
         <f ca="1"/>
-        <v>427</v>
+        <v>711</v>
       </c>
     </row>
     <row r="436" spans="2:16" x14ac:dyDescent="0.2">
@@ -20693,7 +20693,7 @@
       </c>
       <c r="P436">
         <f ca="1"/>
-        <v>515</v>
+        <v>591</v>
       </c>
     </row>
     <row r="437" spans="2:16" x14ac:dyDescent="0.2">
@@ -20740,7 +20740,7 @@
       </c>
       <c r="P437">
         <f ca="1"/>
-        <v>380</v>
+        <v>783</v>
       </c>
     </row>
     <row r="438" spans="2:16" x14ac:dyDescent="0.2">
@@ -20787,7 +20787,7 @@
       </c>
       <c r="P438">
         <f ca="1"/>
-        <v>371</v>
+        <v>273</v>
       </c>
     </row>
     <row r="439" spans="2:16" x14ac:dyDescent="0.2">
@@ -20834,7 +20834,7 @@
       </c>
       <c r="P439">
         <f ca="1"/>
-        <v>762</v>
+        <v>243</v>
       </c>
     </row>
     <row r="440" spans="2:16" x14ac:dyDescent="0.2">
@@ -20881,7 +20881,7 @@
       </c>
       <c r="P440">
         <f ca="1"/>
-        <v>800</v>
+        <v>721</v>
       </c>
     </row>
     <row r="441" spans="2:16" x14ac:dyDescent="0.2">
@@ -20928,7 +20928,7 @@
       </c>
       <c r="P441">
         <f ca="1"/>
-        <v>721</v>
+        <v>871</v>
       </c>
     </row>
     <row r="442" spans="2:16" x14ac:dyDescent="0.2">
@@ -20975,7 +20975,7 @@
       </c>
       <c r="P442">
         <f ca="1"/>
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="443" spans="2:16" x14ac:dyDescent="0.2">
@@ -21011,7 +21011,7 @@
       </c>
       <c r="L443">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>9.9289930843460827E-3</v>
       </c>
       <c r="M443" t="s">
         <v>15</v>
@@ -21022,7 +21022,7 @@
       </c>
       <c r="P443">
         <f ca="1"/>
-        <v>867</v>
+        <v>27</v>
       </c>
     </row>
     <row r="444" spans="2:16" x14ac:dyDescent="0.2">
@@ -21069,7 +21069,7 @@
       </c>
       <c r="P444">
         <f ca="1"/>
-        <v>40</v>
+        <v>784</v>
       </c>
     </row>
     <row r="445" spans="2:16" x14ac:dyDescent="0.2">
@@ -21116,7 +21116,7 @@
       </c>
       <c r="P445">
         <f ca="1"/>
-        <v>270</v>
+        <v>115</v>
       </c>
     </row>
     <row r="446" spans="2:16" x14ac:dyDescent="0.2">
@@ -21163,7 +21163,7 @@
       </c>
       <c r="P446">
         <f ca="1"/>
-        <v>110</v>
+        <v>466</v>
       </c>
     </row>
     <row r="447" spans="2:16" x14ac:dyDescent="0.2">
@@ -21210,7 +21210,7 @@
       </c>
       <c r="P447">
         <f ca="1"/>
-        <v>481</v>
+        <v>191</v>
       </c>
     </row>
     <row r="448" spans="2:16" x14ac:dyDescent="0.2">
@@ -21257,7 +21257,7 @@
       </c>
       <c r="P448">
         <f ca="1"/>
-        <v>840</v>
+        <v>640</v>
       </c>
     </row>
     <row r="449" spans="2:16" x14ac:dyDescent="0.2">
@@ -21304,7 +21304,7 @@
       </c>
       <c r="P449">
         <f ca="1"/>
-        <v>205</v>
+        <v>101</v>
       </c>
     </row>
     <row r="450" spans="2:16" x14ac:dyDescent="0.2">
@@ -21351,7 +21351,7 @@
       </c>
       <c r="P450">
         <f ca="1"/>
-        <v>773</v>
+        <v>802</v>
       </c>
     </row>
     <row r="451" spans="2:16" x14ac:dyDescent="0.2">
@@ -21398,7 +21398,7 @@
       </c>
       <c r="P451">
         <f ca="1"/>
-        <v>41</v>
+        <v>149</v>
       </c>
     </row>
     <row r="452" spans="2:16" x14ac:dyDescent="0.2">
@@ -21445,7 +21445,7 @@
       </c>
       <c r="P452">
         <f ca="1"/>
-        <v>277</v>
+        <v>224</v>
       </c>
     </row>
     <row r="453" spans="2:16" x14ac:dyDescent="0.2">
@@ -21492,7 +21492,7 @@
       </c>
       <c r="P453">
         <f ca="1"/>
-        <v>856</v>
+        <v>872</v>
       </c>
     </row>
     <row r="454" spans="2:16" x14ac:dyDescent="0.2">
@@ -21539,7 +21539,7 @@
       </c>
       <c r="P454">
         <f ca="1"/>
-        <v>44</v>
+        <v>415</v>
       </c>
     </row>
     <row r="455" spans="2:16" x14ac:dyDescent="0.2">
@@ -21586,7 +21586,7 @@
       </c>
       <c r="P455">
         <f ca="1"/>
-        <v>128</v>
+        <v>333</v>
       </c>
     </row>
     <row r="456" spans="2:16" x14ac:dyDescent="0.2">
@@ -21633,7 +21633,7 @@
       </c>
       <c r="P456">
         <f ca="1"/>
-        <v>294</v>
+        <v>200</v>
       </c>
     </row>
     <row r="457" spans="2:16" x14ac:dyDescent="0.2">
@@ -21680,7 +21680,7 @@
       </c>
       <c r="P457">
         <f ca="1"/>
-        <v>753</v>
+        <v>864</v>
       </c>
     </row>
     <row r="458" spans="2:16" x14ac:dyDescent="0.2">
@@ -21727,7 +21727,7 @@
       </c>
       <c r="P458">
         <f ca="1"/>
-        <v>411</v>
+        <v>744</v>
       </c>
     </row>
     <row r="459" spans="2:16" x14ac:dyDescent="0.2">
@@ -21762,7 +21762,7 @@
         <v>1</v>
       </c>
       <c r="L459">
-        <f t="shared" ref="L459:L522" ca="1" si="14">IF(COUNTIF(O$10:O$39, P459)&gt;0, RAND()*0.5, 0)</f>
+        <f t="shared" ref="L459:L522" ca="1" si="14">IF(COUNTIF(O$10:O$69, P459)&gt;0, RAND()*0.5, 0)</f>
         <v>0</v>
       </c>
       <c r="M459" t="s">
@@ -21774,7 +21774,7 @@
       </c>
       <c r="P459">
         <f ca="1"/>
-        <v>857</v>
+        <v>90</v>
       </c>
     </row>
     <row r="460" spans="2:16" x14ac:dyDescent="0.2">
@@ -21821,7 +21821,7 @@
       </c>
       <c r="P460">
         <f ca="1"/>
-        <v>507</v>
+        <v>910</v>
       </c>
     </row>
     <row r="461" spans="2:16" x14ac:dyDescent="0.2">
@@ -21857,7 +21857,7 @@
       </c>
       <c r="L461">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>9.2900891104538752E-2</v>
       </c>
       <c r="M461" t="s">
         <v>15</v>
@@ -21868,7 +21868,7 @@
       </c>
       <c r="P461">
         <f ca="1"/>
-        <v>534</v>
+        <v>48</v>
       </c>
     </row>
     <row r="462" spans="2:16" x14ac:dyDescent="0.2">
@@ -21915,7 +21915,7 @@
       </c>
       <c r="P462">
         <f ca="1"/>
-        <v>783</v>
+        <v>639</v>
       </c>
     </row>
     <row r="463" spans="2:16" x14ac:dyDescent="0.2">
@@ -21962,7 +21962,7 @@
       </c>
       <c r="P463">
         <f ca="1"/>
-        <v>388</v>
+        <v>598</v>
       </c>
     </row>
     <row r="464" spans="2:16" x14ac:dyDescent="0.2">
@@ -22009,7 +22009,7 @@
       </c>
       <c r="P464">
         <f ca="1"/>
-        <v>796</v>
+        <v>170</v>
       </c>
     </row>
     <row r="465" spans="2:16" x14ac:dyDescent="0.2">
@@ -22056,7 +22056,7 @@
       </c>
       <c r="P465">
         <f ca="1"/>
-        <v>475</v>
+        <v>254</v>
       </c>
     </row>
     <row r="466" spans="2:16" x14ac:dyDescent="0.2">
@@ -22103,7 +22103,7 @@
       </c>
       <c r="P466">
         <f ca="1"/>
-        <v>60</v>
+        <v>843</v>
       </c>
     </row>
     <row r="467" spans="2:16" x14ac:dyDescent="0.2">
@@ -22150,7 +22150,7 @@
       </c>
       <c r="P467">
         <f ca="1"/>
-        <v>101</v>
+        <v>532</v>
       </c>
     </row>
     <row r="468" spans="2:16" x14ac:dyDescent="0.2">
@@ -22197,7 +22197,7 @@
       </c>
       <c r="P468">
         <f ca="1"/>
-        <v>595</v>
+        <v>393</v>
       </c>
     </row>
     <row r="469" spans="2:16" x14ac:dyDescent="0.2">
@@ -22244,7 +22244,7 @@
       </c>
       <c r="P469">
         <f ca="1"/>
-        <v>864</v>
+        <v>741</v>
       </c>
     </row>
     <row r="470" spans="2:16" x14ac:dyDescent="0.2">
@@ -22291,7 +22291,7 @@
       </c>
       <c r="P470">
         <f ca="1"/>
-        <v>370</v>
+        <v>778</v>
       </c>
     </row>
     <row r="471" spans="2:16" x14ac:dyDescent="0.2">
@@ -22338,7 +22338,7 @@
       </c>
       <c r="P471">
         <f ca="1"/>
-        <v>198</v>
+        <v>625</v>
       </c>
     </row>
     <row r="472" spans="2:16" x14ac:dyDescent="0.2">
@@ -22374,7 +22374,7 @@
       </c>
       <c r="L472">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>0.20507294816799687</v>
       </c>
       <c r="M472" t="s">
         <v>15</v>
@@ -22385,7 +22385,7 @@
       </c>
       <c r="P472">
         <f ca="1"/>
-        <v>220</v>
+        <v>10</v>
       </c>
     </row>
     <row r="473" spans="2:16" x14ac:dyDescent="0.2">
@@ -22421,7 +22421,7 @@
       </c>
       <c r="L473">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>0.36531097720055461</v>
       </c>
       <c r="M473" t="s">
         <v>15</v>
@@ -22432,7 +22432,7 @@
       </c>
       <c r="P473">
         <f ca="1"/>
-        <v>250</v>
+        <v>39</v>
       </c>
     </row>
     <row r="474" spans="2:16" x14ac:dyDescent="0.2">
@@ -22479,7 +22479,7 @@
       </c>
       <c r="P474">
         <f ca="1"/>
-        <v>383</v>
+        <v>723</v>
       </c>
     </row>
     <row r="475" spans="2:16" x14ac:dyDescent="0.2">
@@ -22526,7 +22526,7 @@
       </c>
       <c r="P475">
         <f ca="1"/>
-        <v>875</v>
+        <v>880</v>
       </c>
     </row>
     <row r="476" spans="2:16" x14ac:dyDescent="0.2">
@@ -22573,7 +22573,7 @@
       </c>
       <c r="P476">
         <f ca="1"/>
-        <v>79</v>
+        <v>483</v>
       </c>
     </row>
     <row r="477" spans="2:16" x14ac:dyDescent="0.2">
@@ -22620,7 +22620,7 @@
       </c>
       <c r="P477">
         <f ca="1"/>
-        <v>653</v>
+        <v>236</v>
       </c>
     </row>
     <row r="478" spans="2:16" x14ac:dyDescent="0.2">
@@ -22667,7 +22667,7 @@
       </c>
       <c r="P478">
         <f ca="1"/>
-        <v>305</v>
+        <v>418</v>
       </c>
     </row>
     <row r="479" spans="2:16" x14ac:dyDescent="0.2">
@@ -22714,7 +22714,7 @@
       </c>
       <c r="P479">
         <f ca="1"/>
-        <v>107</v>
+        <v>592</v>
       </c>
     </row>
     <row r="480" spans="2:16" x14ac:dyDescent="0.2">
@@ -22761,7 +22761,7 @@
       </c>
       <c r="P480">
         <f ca="1"/>
-        <v>701</v>
+        <v>79</v>
       </c>
     </row>
     <row r="481" spans="2:16" x14ac:dyDescent="0.2">
@@ -22808,7 +22808,7 @@
       </c>
       <c r="P481">
         <f ca="1"/>
-        <v>156</v>
+        <v>575</v>
       </c>
     </row>
     <row r="482" spans="2:16" x14ac:dyDescent="0.2">
@@ -22855,7 +22855,7 @@
       </c>
       <c r="P482">
         <f ca="1"/>
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="483" spans="2:16" x14ac:dyDescent="0.2">
@@ -22902,7 +22902,7 @@
       </c>
       <c r="P483">
         <f ca="1"/>
-        <v>430</v>
+        <v>202</v>
       </c>
     </row>
     <row r="484" spans="2:16" x14ac:dyDescent="0.2">
@@ -22949,7 +22949,7 @@
       </c>
       <c r="P484">
         <f ca="1"/>
-        <v>130</v>
+        <v>605</v>
       </c>
     </row>
     <row r="485" spans="2:16" x14ac:dyDescent="0.2">
@@ -22996,7 +22996,7 @@
       </c>
       <c r="P485">
         <f ca="1"/>
-        <v>521</v>
+        <v>482</v>
       </c>
     </row>
     <row r="486" spans="2:16" x14ac:dyDescent="0.2">
@@ -23043,7 +23043,7 @@
       </c>
       <c r="P486">
         <f ca="1"/>
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="487" spans="2:16" x14ac:dyDescent="0.2">
@@ -23090,7 +23090,7 @@
       </c>
       <c r="P487">
         <f ca="1"/>
-        <v>115</v>
+        <v>138</v>
       </c>
     </row>
     <row r="488" spans="2:16" x14ac:dyDescent="0.2">
@@ -23137,7 +23137,7 @@
       </c>
       <c r="P488">
         <f ca="1"/>
-        <v>303</v>
+        <v>890</v>
       </c>
     </row>
     <row r="489" spans="2:16" x14ac:dyDescent="0.2">
@@ -23184,7 +23184,7 @@
       </c>
       <c r="P489">
         <f ca="1"/>
-        <v>707</v>
+        <v>107</v>
       </c>
     </row>
     <row r="490" spans="2:16" x14ac:dyDescent="0.2">
@@ -23231,7 +23231,7 @@
       </c>
       <c r="P490">
         <f ca="1"/>
-        <v>629</v>
+        <v>645</v>
       </c>
     </row>
     <row r="491" spans="2:16" x14ac:dyDescent="0.2">
@@ -23278,7 +23278,7 @@
       </c>
       <c r="P491">
         <f ca="1"/>
-        <v>393</v>
+        <v>717</v>
       </c>
     </row>
     <row r="492" spans="2:16" x14ac:dyDescent="0.2">
@@ -23314,7 +23314,7 @@
       </c>
       <c r="L492">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>7.1423777234135288E-3</v>
       </c>
       <c r="M492" t="s">
         <v>15</v>
@@ -23325,7 +23325,7 @@
       </c>
       <c r="P492">
         <f ca="1"/>
-        <v>905</v>
+        <v>22</v>
       </c>
     </row>
     <row r="493" spans="2:16" x14ac:dyDescent="0.2">
@@ -23372,7 +23372,7 @@
       </c>
       <c r="P493">
         <f ca="1"/>
-        <v>689</v>
+        <v>907</v>
       </c>
     </row>
     <row r="494" spans="2:16" x14ac:dyDescent="0.2">
@@ -23419,7 +23419,7 @@
       </c>
       <c r="P494">
         <f ca="1"/>
-        <v>903</v>
+        <v>217</v>
       </c>
     </row>
     <row r="495" spans="2:16" x14ac:dyDescent="0.2">
@@ -23466,7 +23466,7 @@
       </c>
       <c r="P495">
         <f ca="1"/>
-        <v>700</v>
+        <v>675</v>
       </c>
     </row>
     <row r="496" spans="2:16" x14ac:dyDescent="0.2">
@@ -23513,7 +23513,7 @@
       </c>
       <c r="P496">
         <f ca="1"/>
-        <v>197</v>
+        <v>477</v>
       </c>
     </row>
     <row r="497" spans="2:16" x14ac:dyDescent="0.2">
@@ -23549,7 +23549,7 @@
       </c>
       <c r="L497">
         <f t="shared" ca="1" si="14"/>
-        <v>0.4594650870159922</v>
+        <v>0</v>
       </c>
       <c r="M497" t="s">
         <v>15</v>
@@ -23560,7 +23560,7 @@
       </c>
       <c r="P497">
         <f ca="1"/>
-        <v>26</v>
+        <v>776</v>
       </c>
     </row>
     <row r="498" spans="2:16" x14ac:dyDescent="0.2">
@@ -23607,7 +23607,7 @@
       </c>
       <c r="P498">
         <f ca="1"/>
-        <v>884</v>
+        <v>666</v>
       </c>
     </row>
     <row r="499" spans="2:16" x14ac:dyDescent="0.2">
@@ -23643,7 +23643,7 @@
       </c>
       <c r="L499">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>0.29823818477303538</v>
       </c>
       <c r="M499" t="s">
         <v>15</v>
@@ -23654,7 +23654,7 @@
       </c>
       <c r="P499">
         <f ca="1"/>
-        <v>237</v>
+        <v>35</v>
       </c>
     </row>
     <row r="500" spans="2:16" x14ac:dyDescent="0.2">
@@ -23701,7 +23701,7 @@
       </c>
       <c r="P500">
         <f ca="1"/>
-        <v>533</v>
+        <v>885</v>
       </c>
     </row>
     <row r="501" spans="2:16" x14ac:dyDescent="0.2">
@@ -23748,7 +23748,7 @@
       </c>
       <c r="P501">
         <f ca="1"/>
-        <v>213</v>
+        <v>856</v>
       </c>
     </row>
     <row r="502" spans="2:16" x14ac:dyDescent="0.2">
@@ -23795,7 +23795,7 @@
       </c>
       <c r="P502">
         <f ca="1"/>
-        <v>453</v>
+        <v>859</v>
       </c>
     </row>
     <row r="503" spans="2:16" x14ac:dyDescent="0.2">
@@ -23842,7 +23842,7 @@
       </c>
       <c r="P503">
         <f ca="1"/>
-        <v>588</v>
+        <v>293</v>
       </c>
     </row>
     <row r="504" spans="2:16" x14ac:dyDescent="0.2">
@@ -23889,7 +23889,7 @@
       </c>
       <c r="P504">
         <f ca="1"/>
-        <v>893</v>
+        <v>322</v>
       </c>
     </row>
     <row r="505" spans="2:16" x14ac:dyDescent="0.2">
@@ -23936,7 +23936,7 @@
       </c>
       <c r="P505">
         <f ca="1"/>
-        <v>308</v>
+        <v>655</v>
       </c>
     </row>
     <row r="506" spans="2:16" x14ac:dyDescent="0.2">
@@ -23983,7 +23983,7 @@
       </c>
       <c r="P506">
         <f ca="1"/>
-        <v>180</v>
+        <v>476</v>
       </c>
     </row>
     <row r="507" spans="2:16" x14ac:dyDescent="0.2">
@@ -24030,7 +24030,7 @@
       </c>
       <c r="P507">
         <f ca="1"/>
-        <v>673</v>
+        <v>450</v>
       </c>
     </row>
     <row r="508" spans="2:16" x14ac:dyDescent="0.2">
@@ -24077,7 +24077,7 @@
       </c>
       <c r="P508">
         <f ca="1"/>
-        <v>586</v>
+        <v>619</v>
       </c>
     </row>
     <row r="509" spans="2:16" x14ac:dyDescent="0.2">
@@ -24124,7 +24124,7 @@
       </c>
       <c r="P509">
         <f ca="1"/>
-        <v>858</v>
+        <v>201</v>
       </c>
     </row>
     <row r="510" spans="2:16" x14ac:dyDescent="0.2">
@@ -24171,7 +24171,7 @@
       </c>
       <c r="P510">
         <f ca="1"/>
-        <v>63</v>
+        <v>540</v>
       </c>
     </row>
     <row r="511" spans="2:16" x14ac:dyDescent="0.2">
@@ -24218,7 +24218,7 @@
       </c>
       <c r="P511">
         <f ca="1"/>
-        <v>398</v>
+        <v>380</v>
       </c>
     </row>
     <row r="512" spans="2:16" x14ac:dyDescent="0.2">
@@ -24265,7 +24265,7 @@
       </c>
       <c r="P512">
         <f ca="1"/>
-        <v>897</v>
+        <v>425</v>
       </c>
     </row>
     <row r="513" spans="2:16" x14ac:dyDescent="0.2">
@@ -24312,7 +24312,7 @@
       </c>
       <c r="P513">
         <f ca="1"/>
-        <v>45</v>
+        <v>539</v>
       </c>
     </row>
     <row r="514" spans="2:16" x14ac:dyDescent="0.2">
@@ -24359,7 +24359,7 @@
       </c>
       <c r="P514">
         <f ca="1"/>
-        <v>639</v>
+        <v>163</v>
       </c>
     </row>
     <row r="515" spans="2:16" x14ac:dyDescent="0.2">
@@ -24406,7 +24406,7 @@
       </c>
       <c r="P515">
         <f ca="1"/>
-        <v>573</v>
+        <v>899</v>
       </c>
     </row>
     <row r="516" spans="2:16" x14ac:dyDescent="0.2">
@@ -24453,7 +24453,7 @@
       </c>
       <c r="P516">
         <f ca="1"/>
-        <v>82</v>
+        <v>578</v>
       </c>
     </row>
     <row r="517" spans="2:16" x14ac:dyDescent="0.2">
@@ -24500,7 +24500,7 @@
       </c>
       <c r="P517">
         <f ca="1"/>
-        <v>499</v>
+        <v>670</v>
       </c>
     </row>
     <row r="518" spans="2:16" x14ac:dyDescent="0.2">
@@ -24547,7 +24547,7 @@
       </c>
       <c r="P518">
         <f ca="1"/>
-        <v>460</v>
+        <v>265</v>
       </c>
     </row>
     <row r="519" spans="2:16" x14ac:dyDescent="0.2">
@@ -24594,7 +24594,7 @@
       </c>
       <c r="P519">
         <f ca="1"/>
-        <v>805</v>
+        <v>139</v>
       </c>
     </row>
     <row r="520" spans="2:16" x14ac:dyDescent="0.2">
@@ -24641,7 +24641,7 @@
       </c>
       <c r="P520">
         <f ca="1"/>
-        <v>49</v>
+        <v>633</v>
       </c>
     </row>
     <row r="521" spans="2:16" x14ac:dyDescent="0.2">
@@ -24688,7 +24688,7 @@
       </c>
       <c r="P521">
         <f ca="1"/>
-        <v>493</v>
+        <v>729</v>
       </c>
     </row>
     <row r="522" spans="2:16" x14ac:dyDescent="0.2">
@@ -24735,7 +24735,7 @@
       </c>
       <c r="P522">
         <f ca="1"/>
-        <v>678</v>
+        <v>516</v>
       </c>
     </row>
     <row r="523" spans="2:16" x14ac:dyDescent="0.2">
@@ -24770,7 +24770,7 @@
         <v>1</v>
       </c>
       <c r="L523">
-        <f t="shared" ref="L523:L586" ca="1" si="16">IF(COUNTIF(O$10:O$39, P523)&gt;0, RAND()*0.5, 0)</f>
+        <f t="shared" ref="L523:L586" ca="1" si="16">IF(COUNTIF(O$10:O$69, P523)&gt;0, RAND()*0.5, 0)</f>
         <v>0</v>
       </c>
       <c r="M523" t="s">
@@ -24782,7 +24782,7 @@
       </c>
       <c r="P523">
         <f ca="1"/>
-        <v>854</v>
+        <v>530</v>
       </c>
     </row>
     <row r="524" spans="2:16" x14ac:dyDescent="0.2">
@@ -24829,7 +24829,7 @@
       </c>
       <c r="P524">
         <f ca="1"/>
-        <v>161</v>
+        <v>696</v>
       </c>
     </row>
     <row r="525" spans="2:16" x14ac:dyDescent="0.2">
@@ -24876,7 +24876,7 @@
       </c>
       <c r="P525">
         <f ca="1"/>
-        <v>815</v>
+        <v>624</v>
       </c>
     </row>
     <row r="526" spans="2:16" x14ac:dyDescent="0.2">
@@ -24923,7 +24923,7 @@
       </c>
       <c r="P526">
         <f ca="1"/>
-        <v>527</v>
+        <v>242</v>
       </c>
     </row>
     <row r="527" spans="2:16" x14ac:dyDescent="0.2">
@@ -24970,7 +24970,7 @@
       </c>
       <c r="P527">
         <f ca="1"/>
-        <v>692</v>
+        <v>451</v>
       </c>
     </row>
     <row r="528" spans="2:16" x14ac:dyDescent="0.2">
@@ -25017,7 +25017,7 @@
       </c>
       <c r="P528">
         <f ca="1"/>
-        <v>719</v>
+        <v>755</v>
       </c>
     </row>
     <row r="529" spans="2:16" x14ac:dyDescent="0.2">
@@ -25064,7 +25064,7 @@
       </c>
       <c r="P529">
         <f ca="1"/>
-        <v>881</v>
+        <v>491</v>
       </c>
     </row>
     <row r="530" spans="2:16" x14ac:dyDescent="0.2">
@@ -25111,7 +25111,7 @@
       </c>
       <c r="P530">
         <f ca="1"/>
-        <v>466</v>
+        <v>543</v>
       </c>
     </row>
     <row r="531" spans="2:16" x14ac:dyDescent="0.2">
@@ -25158,7 +25158,7 @@
       </c>
       <c r="P531">
         <f ca="1"/>
-        <v>185</v>
+        <v>413</v>
       </c>
     </row>
     <row r="532" spans="2:16" x14ac:dyDescent="0.2">
@@ -25205,7 +25205,7 @@
       </c>
       <c r="P532">
         <f ca="1"/>
-        <v>389</v>
+        <v>664</v>
       </c>
     </row>
     <row r="533" spans="2:16" x14ac:dyDescent="0.2">
@@ -25252,7 +25252,7 @@
       </c>
       <c r="P533">
         <f ca="1"/>
-        <v>418</v>
+        <v>862</v>
       </c>
     </row>
     <row r="534" spans="2:16" x14ac:dyDescent="0.2">
@@ -25299,7 +25299,7 @@
       </c>
       <c r="P534">
         <f ca="1"/>
-        <v>268</v>
+        <v>764</v>
       </c>
     </row>
     <row r="535" spans="2:16" x14ac:dyDescent="0.2">
@@ -25346,7 +25346,7 @@
       </c>
       <c r="P535">
         <f ca="1"/>
-        <v>821</v>
+        <v>850</v>
       </c>
     </row>
     <row r="536" spans="2:16" x14ac:dyDescent="0.2">
@@ -25393,7 +25393,7 @@
       </c>
       <c r="P536">
         <f ca="1"/>
-        <v>494</v>
+        <v>840</v>
       </c>
     </row>
     <row r="537" spans="2:16" x14ac:dyDescent="0.2">
@@ -25440,7 +25440,7 @@
       </c>
       <c r="P537">
         <f ca="1"/>
-        <v>93</v>
+        <v>375</v>
       </c>
     </row>
     <row r="538" spans="2:16" x14ac:dyDescent="0.2">
@@ -25487,7 +25487,7 @@
       </c>
       <c r="P538">
         <f ca="1"/>
-        <v>296</v>
+        <v>462</v>
       </c>
     </row>
     <row r="539" spans="2:16" x14ac:dyDescent="0.2">
@@ -25534,7 +25534,7 @@
       </c>
       <c r="P539">
         <f ca="1"/>
-        <v>654</v>
+        <v>459</v>
       </c>
     </row>
     <row r="540" spans="2:16" x14ac:dyDescent="0.2">
@@ -25581,7 +25581,7 @@
       </c>
       <c r="P540">
         <f ca="1"/>
-        <v>687</v>
+        <v>697</v>
       </c>
     </row>
     <row r="541" spans="2:16" x14ac:dyDescent="0.2">
@@ -25628,7 +25628,7 @@
       </c>
       <c r="P541">
         <f ca="1"/>
-        <v>479</v>
+        <v>607</v>
       </c>
     </row>
     <row r="542" spans="2:16" x14ac:dyDescent="0.2">
@@ -25675,7 +25675,7 @@
       </c>
       <c r="P542">
         <f ca="1"/>
-        <v>471</v>
+        <v>73</v>
       </c>
     </row>
     <row r="543" spans="2:16" x14ac:dyDescent="0.2">
@@ -25722,7 +25722,7 @@
       </c>
       <c r="P543">
         <f ca="1"/>
-        <v>794</v>
+        <v>803</v>
       </c>
     </row>
     <row r="544" spans="2:16" x14ac:dyDescent="0.2">
@@ -25769,7 +25769,7 @@
       </c>
       <c r="P544">
         <f ca="1"/>
-        <v>278</v>
+        <v>649</v>
       </c>
     </row>
     <row r="545" spans="2:16" x14ac:dyDescent="0.2">
@@ -25816,7 +25816,7 @@
       </c>
       <c r="P545">
         <f ca="1"/>
-        <v>324</v>
+        <v>879</v>
       </c>
     </row>
     <row r="546" spans="2:16" x14ac:dyDescent="0.2">
@@ -25863,7 +25863,7 @@
       </c>
       <c r="P546">
         <f ca="1"/>
-        <v>503</v>
+        <v>740</v>
       </c>
     </row>
     <row r="547" spans="2:16" x14ac:dyDescent="0.2">
@@ -25910,7 +25910,7 @@
       </c>
       <c r="P547">
         <f ca="1"/>
-        <v>426</v>
+        <v>763</v>
       </c>
     </row>
     <row r="548" spans="2:16" x14ac:dyDescent="0.2">
@@ -25957,7 +25957,7 @@
       </c>
       <c r="P548">
         <f ca="1"/>
-        <v>871</v>
+        <v>567</v>
       </c>
     </row>
     <row r="549" spans="2:16" x14ac:dyDescent="0.2">
@@ -26004,7 +26004,7 @@
       </c>
       <c r="P549">
         <f ca="1"/>
-        <v>484</v>
+        <v>511</v>
       </c>
     </row>
     <row r="550" spans="2:16" x14ac:dyDescent="0.2">
@@ -26051,7 +26051,7 @@
       </c>
       <c r="P550">
         <f ca="1"/>
-        <v>424</v>
+        <v>329</v>
       </c>
     </row>
     <row r="551" spans="2:16" x14ac:dyDescent="0.2">
@@ -26098,7 +26098,7 @@
       </c>
       <c r="P551">
         <f ca="1"/>
-        <v>413</v>
+        <v>379</v>
       </c>
     </row>
     <row r="552" spans="2:16" x14ac:dyDescent="0.2">
@@ -26145,7 +26145,7 @@
       </c>
       <c r="P552">
         <f ca="1"/>
-        <v>734</v>
+        <v>720</v>
       </c>
     </row>
     <row r="553" spans="2:16" x14ac:dyDescent="0.2">
@@ -26181,7 +26181,7 @@
       </c>
       <c r="L553">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>0.27090241176306401</v>
       </c>
       <c r="M553" t="s">
         <v>15</v>
@@ -26192,7 +26192,7 @@
       </c>
       <c r="P553">
         <f ca="1"/>
-        <v>617</v>
+        <v>25</v>
       </c>
     </row>
     <row r="554" spans="2:16" x14ac:dyDescent="0.2">
@@ -26239,7 +26239,7 @@
       </c>
       <c r="P554">
         <f ca="1"/>
-        <v>853</v>
+        <v>815</v>
       </c>
     </row>
     <row r="555" spans="2:16" x14ac:dyDescent="0.2">
@@ -26286,7 +26286,7 @@
       </c>
       <c r="P555">
         <f ca="1"/>
-        <v>373</v>
+        <v>727</v>
       </c>
     </row>
     <row r="556" spans="2:16" x14ac:dyDescent="0.2">
@@ -26333,7 +26333,7 @@
       </c>
       <c r="P556">
         <f ca="1"/>
-        <v>136</v>
+        <v>360</v>
       </c>
     </row>
     <row r="557" spans="2:16" x14ac:dyDescent="0.2">
@@ -26380,7 +26380,7 @@
       </c>
       <c r="P557">
         <f ca="1"/>
-        <v>369</v>
+        <v>278</v>
       </c>
     </row>
     <row r="558" spans="2:16" x14ac:dyDescent="0.2">
@@ -26416,7 +26416,7 @@
       </c>
       <c r="L558">
         <f t="shared" ca="1" si="16"/>
-        <v>0.44404474959854218</v>
+        <v>0</v>
       </c>
       <c r="M558" t="s">
         <v>15</v>
@@ -26427,7 +26427,7 @@
       </c>
       <c r="P558">
         <f ca="1"/>
-        <v>13</v>
+        <v>860</v>
       </c>
     </row>
     <row r="559" spans="2:16" x14ac:dyDescent="0.2">
@@ -26474,7 +26474,7 @@
       </c>
       <c r="P559">
         <f ca="1"/>
-        <v>749</v>
+        <v>172</v>
       </c>
     </row>
     <row r="560" spans="2:16" x14ac:dyDescent="0.2">
@@ -26521,7 +26521,7 @@
       </c>
       <c r="P560">
         <f ca="1"/>
-        <v>137</v>
+        <v>309</v>
       </c>
     </row>
     <row r="561" spans="2:16" x14ac:dyDescent="0.2">
@@ -26557,7 +26557,7 @@
       </c>
       <c r="L561">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>3.0293787866845223E-3</v>
       </c>
       <c r="M561" t="s">
         <v>15</v>
@@ -26568,7 +26568,7 @@
       </c>
       <c r="P561">
         <f ca="1"/>
-        <v>640</v>
+        <v>17</v>
       </c>
     </row>
     <row r="562" spans="2:16" x14ac:dyDescent="0.2">
@@ -26615,7 +26615,7 @@
       </c>
       <c r="P562">
         <f ca="1"/>
-        <v>159</v>
+        <v>484</v>
       </c>
     </row>
     <row r="563" spans="2:16" x14ac:dyDescent="0.2">
@@ -26662,7 +26662,7 @@
       </c>
       <c r="P563">
         <f ca="1"/>
-        <v>631</v>
+        <v>71</v>
       </c>
     </row>
     <row r="564" spans="2:16" x14ac:dyDescent="0.2">
@@ -26698,7 +26698,7 @@
       </c>
       <c r="L564">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>0.31370365403352551</v>
       </c>
       <c r="M564" t="s">
         <v>15</v>
@@ -26709,7 +26709,7 @@
       </c>
       <c r="P564">
         <f ca="1"/>
-        <v>836</v>
+        <v>43</v>
       </c>
     </row>
     <row r="565" spans="2:16" x14ac:dyDescent="0.2">
@@ -26756,7 +26756,7 @@
       </c>
       <c r="P565">
         <f ca="1"/>
-        <v>442</v>
+        <v>351</v>
       </c>
     </row>
     <row r="566" spans="2:16" x14ac:dyDescent="0.2">
@@ -26803,7 +26803,7 @@
       </c>
       <c r="P566">
         <f ca="1"/>
-        <v>491</v>
+        <v>378</v>
       </c>
     </row>
     <row r="567" spans="2:16" x14ac:dyDescent="0.2">
@@ -26850,7 +26850,7 @@
       </c>
       <c r="P567">
         <f ca="1"/>
-        <v>143</v>
+        <v>338</v>
       </c>
     </row>
     <row r="568" spans="2:16" x14ac:dyDescent="0.2">
@@ -26897,7 +26897,7 @@
       </c>
       <c r="P568">
         <f ca="1"/>
-        <v>195</v>
+        <v>869</v>
       </c>
     </row>
     <row r="569" spans="2:16" x14ac:dyDescent="0.2">
@@ -26944,7 +26944,7 @@
       </c>
       <c r="P569">
         <f ca="1"/>
-        <v>688</v>
+        <v>310</v>
       </c>
     </row>
     <row r="570" spans="2:16" x14ac:dyDescent="0.2">
@@ -26991,7 +26991,7 @@
       </c>
       <c r="P570">
         <f ca="1"/>
-        <v>675</v>
+        <v>515</v>
       </c>
     </row>
     <row r="571" spans="2:16" x14ac:dyDescent="0.2">
@@ -27038,7 +27038,7 @@
       </c>
       <c r="P571">
         <f ca="1"/>
-        <v>209</v>
+        <v>813</v>
       </c>
     </row>
     <row r="572" spans="2:16" x14ac:dyDescent="0.2">
@@ -27085,7 +27085,7 @@
       </c>
       <c r="P572">
         <f ca="1"/>
-        <v>575</v>
+        <v>752</v>
       </c>
     </row>
     <row r="573" spans="2:16" x14ac:dyDescent="0.2">
@@ -27132,7 +27132,7 @@
       </c>
       <c r="P573">
         <f ca="1"/>
-        <v>543</v>
+        <v>331</v>
       </c>
     </row>
     <row r="574" spans="2:16" x14ac:dyDescent="0.2">
@@ -27179,7 +27179,7 @@
       </c>
       <c r="P574">
         <f ca="1"/>
-        <v>786</v>
+        <v>251</v>
       </c>
     </row>
     <row r="575" spans="2:16" x14ac:dyDescent="0.2">
@@ -27226,7 +27226,7 @@
       </c>
       <c r="P575">
         <f ca="1"/>
-        <v>51</v>
+        <v>206</v>
       </c>
     </row>
     <row r="576" spans="2:16" x14ac:dyDescent="0.2">
@@ -27273,7 +27273,7 @@
       </c>
       <c r="P576">
         <f ca="1"/>
-        <v>275</v>
+        <v>494</v>
       </c>
     </row>
     <row r="577" spans="2:16" x14ac:dyDescent="0.2">
@@ -27320,7 +27320,7 @@
       </c>
       <c r="P577">
         <f ca="1"/>
-        <v>551</v>
+        <v>761</v>
       </c>
     </row>
     <row r="578" spans="2:16" x14ac:dyDescent="0.2">
@@ -27367,7 +27367,7 @@
       </c>
       <c r="P578">
         <f ca="1"/>
-        <v>725</v>
+        <v>403</v>
       </c>
     </row>
     <row r="579" spans="2:16" x14ac:dyDescent="0.2">
@@ -27414,7 +27414,7 @@
       </c>
       <c r="P579">
         <f ca="1"/>
-        <v>165</v>
+        <v>454</v>
       </c>
     </row>
     <row r="580" spans="2:16" x14ac:dyDescent="0.2">
@@ -27461,7 +27461,7 @@
       </c>
       <c r="P580">
         <f ca="1"/>
-        <v>367</v>
+        <v>442</v>
       </c>
     </row>
     <row r="581" spans="2:16" x14ac:dyDescent="0.2">
@@ -27508,7 +27508,7 @@
       </c>
       <c r="P581">
         <f ca="1"/>
-        <v>88</v>
+        <v>821</v>
       </c>
     </row>
     <row r="582" spans="2:16" x14ac:dyDescent="0.2">
@@ -27555,7 +27555,7 @@
       </c>
       <c r="P582">
         <f ca="1"/>
-        <v>732</v>
+        <v>505</v>
       </c>
     </row>
     <row r="583" spans="2:16" x14ac:dyDescent="0.2">
@@ -27602,7 +27602,7 @@
       </c>
       <c r="P583">
         <f ca="1"/>
-        <v>352</v>
+        <v>615</v>
       </c>
     </row>
     <row r="584" spans="2:16" x14ac:dyDescent="0.2">
@@ -27649,7 +27649,7 @@
       </c>
       <c r="P584">
         <f ca="1"/>
-        <v>816</v>
+        <v>844</v>
       </c>
     </row>
     <row r="585" spans="2:16" x14ac:dyDescent="0.2">
@@ -27696,7 +27696,7 @@
       </c>
       <c r="P585">
         <f ca="1"/>
-        <v>432</v>
+        <v>754</v>
       </c>
     </row>
     <row r="586" spans="2:16" x14ac:dyDescent="0.2">
@@ -27743,7 +27743,7 @@
       </c>
       <c r="P586">
         <f ca="1"/>
-        <v>396</v>
+        <v>690</v>
       </c>
     </row>
     <row r="587" spans="2:16" x14ac:dyDescent="0.2">
@@ -27778,7 +27778,7 @@
         <v>1</v>
       </c>
       <c r="L587">
-        <f t="shared" ref="L587:L650" ca="1" si="18">IF(COUNTIF(O$10:O$39, P587)&gt;0, RAND()*0.5, 0)</f>
+        <f t="shared" ref="L587:L650" ca="1" si="18">IF(COUNTIF(O$10:O$69, P587)&gt;0, RAND()*0.5, 0)</f>
         <v>0</v>
       </c>
       <c r="M587" t="s">
@@ -27790,7 +27790,7 @@
       </c>
       <c r="P587">
         <f ca="1"/>
-        <v>520</v>
+        <v>669</v>
       </c>
     </row>
     <row r="588" spans="2:16" x14ac:dyDescent="0.2">
@@ -27837,7 +27837,7 @@
       </c>
       <c r="P588">
         <f ca="1"/>
-        <v>457</v>
+        <v>154</v>
       </c>
     </row>
     <row r="589" spans="2:16" x14ac:dyDescent="0.2">
@@ -27884,7 +27884,7 @@
       </c>
       <c r="P589">
         <f ca="1"/>
-        <v>282</v>
+        <v>613</v>
       </c>
     </row>
     <row r="590" spans="2:16" x14ac:dyDescent="0.2">
@@ -27931,7 +27931,7 @@
       </c>
       <c r="P590">
         <f ca="1"/>
-        <v>458</v>
+        <v>348</v>
       </c>
     </row>
     <row r="591" spans="2:16" x14ac:dyDescent="0.2">
@@ -27978,7 +27978,7 @@
       </c>
       <c r="P591">
         <f ca="1"/>
-        <v>451</v>
+        <v>361</v>
       </c>
     </row>
     <row r="592" spans="2:16" x14ac:dyDescent="0.2">
@@ -28025,7 +28025,7 @@
       </c>
       <c r="P592">
         <f ca="1"/>
-        <v>135</v>
+        <v>709</v>
       </c>
     </row>
     <row r="593" spans="2:16" x14ac:dyDescent="0.2">
@@ -28072,7 +28072,7 @@
       </c>
       <c r="P593">
         <f ca="1"/>
-        <v>327</v>
+        <v>220</v>
       </c>
     </row>
     <row r="594" spans="2:16" x14ac:dyDescent="0.2">
@@ -28119,7 +28119,7 @@
       </c>
       <c r="P594">
         <f ca="1"/>
-        <v>546</v>
+        <v>93</v>
       </c>
     </row>
     <row r="595" spans="2:16" x14ac:dyDescent="0.2">
@@ -28166,7 +28166,7 @@
       </c>
       <c r="P595">
         <f ca="1"/>
-        <v>464</v>
+        <v>713</v>
       </c>
     </row>
     <row r="596" spans="2:16" x14ac:dyDescent="0.2">
@@ -28213,7 +28213,7 @@
       </c>
       <c r="P596">
         <f ca="1"/>
-        <v>403</v>
+        <v>433</v>
       </c>
     </row>
     <row r="597" spans="2:16" x14ac:dyDescent="0.2">
@@ -28260,7 +28260,7 @@
       </c>
       <c r="P597">
         <f ca="1"/>
-        <v>616</v>
+        <v>392</v>
       </c>
     </row>
     <row r="598" spans="2:16" x14ac:dyDescent="0.2">
@@ -28307,7 +28307,7 @@
       </c>
       <c r="P598">
         <f ca="1"/>
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="599" spans="2:16" x14ac:dyDescent="0.2">
@@ -28354,7 +28354,7 @@
       </c>
       <c r="P599">
         <f ca="1"/>
-        <v>525</v>
+        <v>276</v>
       </c>
     </row>
     <row r="600" spans="2:16" x14ac:dyDescent="0.2">
@@ -28401,7 +28401,7 @@
       </c>
       <c r="P600">
         <f ca="1"/>
-        <v>485</v>
+        <v>463</v>
       </c>
     </row>
     <row r="601" spans="2:16" x14ac:dyDescent="0.2">
@@ -28448,7 +28448,7 @@
       </c>
       <c r="P601">
         <f ca="1"/>
-        <v>811</v>
+        <v>124</v>
       </c>
     </row>
     <row r="602" spans="2:16" x14ac:dyDescent="0.2">
@@ -28484,7 +28484,7 @@
       </c>
       <c r="L602">
         <f t="shared" ca="1" si="18"/>
-        <v>0.17776431213790367</v>
+        <v>0</v>
       </c>
       <c r="M602" t="s">
         <v>15</v>
@@ -28495,7 +28495,7 @@
       </c>
       <c r="P602">
         <f ca="1"/>
-        <v>19</v>
+        <v>404</v>
       </c>
     </row>
     <row r="603" spans="2:16" x14ac:dyDescent="0.2">
@@ -28531,7 +28531,7 @@
       </c>
       <c r="L603">
         <f t="shared" ca="1" si="18"/>
-        <v>4.3970749806424791E-2</v>
+        <v>0</v>
       </c>
       <c r="M603" t="s">
         <v>15</v>
@@ -28542,7 +28542,7 @@
       </c>
       <c r="P603">
         <f ca="1"/>
-        <v>2</v>
+        <v>621</v>
       </c>
     </row>
     <row r="604" spans="2:16" x14ac:dyDescent="0.2">
@@ -28589,7 +28589,7 @@
       </c>
       <c r="P604">
         <f ca="1"/>
-        <v>354</v>
+        <v>637</v>
       </c>
     </row>
     <row r="605" spans="2:16" x14ac:dyDescent="0.2">
@@ -28636,7 +28636,7 @@
       </c>
       <c r="P605">
         <f ca="1"/>
-        <v>342</v>
+        <v>192</v>
       </c>
     </row>
     <row r="606" spans="2:16" x14ac:dyDescent="0.2">
@@ -28683,7 +28683,7 @@
       </c>
       <c r="P606">
         <f ca="1"/>
-        <v>80</v>
+        <v>314</v>
       </c>
     </row>
     <row r="607" spans="2:16" x14ac:dyDescent="0.2">
@@ -28730,7 +28730,7 @@
       </c>
       <c r="P607">
         <f ca="1"/>
-        <v>890</v>
+        <v>914</v>
       </c>
     </row>
     <row r="608" spans="2:16" x14ac:dyDescent="0.2">
@@ -28777,7 +28777,7 @@
       </c>
       <c r="P608">
         <f ca="1"/>
-        <v>868</v>
+        <v>384</v>
       </c>
     </row>
     <row r="609" spans="2:16" x14ac:dyDescent="0.2">
@@ -28824,7 +28824,7 @@
       </c>
       <c r="P609">
         <f ca="1"/>
-        <v>155</v>
+        <v>95</v>
       </c>
     </row>
     <row r="610" spans="2:16" x14ac:dyDescent="0.2">
@@ -28871,7 +28871,7 @@
       </c>
       <c r="P610">
         <f ca="1"/>
-        <v>234</v>
+        <v>114</v>
       </c>
     </row>
     <row r="611" spans="2:16" x14ac:dyDescent="0.2">
@@ -28918,7 +28918,7 @@
       </c>
       <c r="P611">
         <f ca="1"/>
-        <v>199</v>
+        <v>324</v>
       </c>
     </row>
     <row r="612" spans="2:16" x14ac:dyDescent="0.2">
@@ -28965,7 +28965,7 @@
       </c>
       <c r="P612">
         <f ca="1"/>
-        <v>455</v>
+        <v>846</v>
       </c>
     </row>
     <row r="613" spans="2:16" x14ac:dyDescent="0.2">
@@ -29001,7 +29001,7 @@
       </c>
       <c r="L613">
         <f t="shared" ca="1" si="18"/>
-        <v>0</v>
+        <v>0.37749194915898082</v>
       </c>
       <c r="M613" t="s">
         <v>15</v>
@@ -29012,7 +29012,7 @@
       </c>
       <c r="P613">
         <f ca="1"/>
-        <v>336</v>
+        <v>26</v>
       </c>
     </row>
     <row r="614" spans="2:16" x14ac:dyDescent="0.2">
@@ -29059,7 +29059,7 @@
       </c>
       <c r="P614">
         <f ca="1"/>
-        <v>302</v>
+        <v>831</v>
       </c>
     </row>
     <row r="615" spans="2:16" x14ac:dyDescent="0.2">
@@ -29106,7 +29106,7 @@
       </c>
       <c r="P615">
         <f ca="1"/>
-        <v>611</v>
+        <v>452</v>
       </c>
     </row>
     <row r="616" spans="2:16" x14ac:dyDescent="0.2">
@@ -29153,7 +29153,7 @@
       </c>
       <c r="P616">
         <f ca="1"/>
-        <v>744</v>
+        <v>681</v>
       </c>
     </row>
     <row r="617" spans="2:16" x14ac:dyDescent="0.2">
@@ -29200,7 +29200,7 @@
       </c>
       <c r="P617">
         <f ca="1"/>
-        <v>565</v>
+        <v>240</v>
       </c>
     </row>
     <row r="618" spans="2:16" x14ac:dyDescent="0.2">
@@ -29247,7 +29247,7 @@
       </c>
       <c r="P618">
         <f ca="1"/>
-        <v>511</v>
+        <v>277</v>
       </c>
     </row>
     <row r="619" spans="2:16" x14ac:dyDescent="0.2">
@@ -29294,7 +29294,7 @@
       </c>
       <c r="P619">
         <f ca="1"/>
-        <v>806</v>
+        <v>132</v>
       </c>
     </row>
     <row r="620" spans="2:16" x14ac:dyDescent="0.2">
@@ -29341,7 +29341,7 @@
       </c>
       <c r="P620">
         <f ca="1"/>
-        <v>150</v>
+        <v>586</v>
       </c>
     </row>
     <row r="621" spans="2:16" x14ac:dyDescent="0.2">
@@ -29388,7 +29388,7 @@
       </c>
       <c r="P621">
         <f ca="1"/>
-        <v>842</v>
+        <v>678</v>
       </c>
     </row>
     <row r="622" spans="2:16" x14ac:dyDescent="0.2">
@@ -29435,7 +29435,7 @@
       </c>
       <c r="P622">
         <f ca="1"/>
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="623" spans="2:16" x14ac:dyDescent="0.2">
@@ -29482,7 +29482,7 @@
       </c>
       <c r="P623">
         <f ca="1"/>
-        <v>48</v>
+        <v>837</v>
       </c>
     </row>
     <row r="624" spans="2:16" x14ac:dyDescent="0.2">
@@ -29529,7 +29529,7 @@
       </c>
       <c r="P624">
         <f ca="1"/>
-        <v>829</v>
+        <v>779</v>
       </c>
     </row>
     <row r="625" spans="2:16" x14ac:dyDescent="0.2">
@@ -29576,7 +29576,7 @@
       </c>
       <c r="P625">
         <f ca="1"/>
-        <v>295</v>
+        <v>353</v>
       </c>
     </row>
     <row r="626" spans="2:16" x14ac:dyDescent="0.2">
@@ -29612,7 +29612,7 @@
       </c>
       <c r="L626">
         <f t="shared" ca="1" si="18"/>
-        <v>0</v>
+        <v>0.39400574740333527</v>
       </c>
       <c r="M626" t="s">
         <v>15</v>
@@ -29623,7 +29623,7 @@
       </c>
       <c r="P626">
         <f ca="1"/>
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="627" spans="2:16" x14ac:dyDescent="0.2">
@@ -29670,7 +29670,7 @@
       </c>
       <c r="P627">
         <f ca="1"/>
-        <v>262</v>
+        <v>157</v>
       </c>
     </row>
     <row r="628" spans="2:16" x14ac:dyDescent="0.2">
@@ -29717,7 +29717,7 @@
       </c>
       <c r="P628">
         <f ca="1"/>
-        <v>379</v>
+        <v>313</v>
       </c>
     </row>
     <row r="629" spans="2:16" x14ac:dyDescent="0.2">
@@ -29764,7 +29764,7 @@
       </c>
       <c r="P629">
         <f ca="1"/>
-        <v>731</v>
+        <v>629</v>
       </c>
     </row>
     <row r="630" spans="2:16" x14ac:dyDescent="0.2">
@@ -29800,7 +29800,7 @@
       </c>
       <c r="L630">
         <f t="shared" ca="1" si="18"/>
-        <v>0</v>
+        <v>3.1382802979431634E-2</v>
       </c>
       <c r="M630" t="s">
         <v>15</v>
@@ -29811,7 +29811,7 @@
       </c>
       <c r="P630">
         <f ca="1"/>
-        <v>741</v>
+        <v>28</v>
       </c>
     </row>
     <row r="631" spans="2:16" x14ac:dyDescent="0.2">
@@ -29858,7 +29858,7 @@
       </c>
       <c r="P631">
         <f ca="1"/>
-        <v>711</v>
+        <v>82</v>
       </c>
     </row>
     <row r="632" spans="2:16" x14ac:dyDescent="0.2">
@@ -29905,7 +29905,7 @@
       </c>
       <c r="P632">
         <f ca="1"/>
-        <v>211</v>
+        <v>427</v>
       </c>
     </row>
     <row r="633" spans="2:16" x14ac:dyDescent="0.2">
@@ -29952,7 +29952,7 @@
       </c>
       <c r="P633">
         <f ca="1"/>
-        <v>364</v>
+        <v>829</v>
       </c>
     </row>
     <row r="634" spans="2:16" x14ac:dyDescent="0.2">
@@ -29999,7 +29999,7 @@
       </c>
       <c r="P634">
         <f ca="1"/>
-        <v>331</v>
+        <v>808</v>
       </c>
     </row>
     <row r="635" spans="2:16" x14ac:dyDescent="0.2">
@@ -30046,7 +30046,7 @@
       </c>
       <c r="P635">
         <f ca="1"/>
-        <v>620</v>
+        <v>701</v>
       </c>
     </row>
     <row r="636" spans="2:16" x14ac:dyDescent="0.2">
@@ -30093,7 +30093,7 @@
       </c>
       <c r="P636">
         <f ca="1"/>
-        <v>233</v>
+        <v>69</v>
       </c>
     </row>
     <row r="637" spans="2:16" x14ac:dyDescent="0.2">
@@ -30140,7 +30140,7 @@
       </c>
       <c r="P637">
         <f ca="1"/>
-        <v>680</v>
+        <v>440</v>
       </c>
     </row>
     <row r="638" spans="2:16" x14ac:dyDescent="0.2">
@@ -30187,7 +30187,7 @@
       </c>
       <c r="P638">
         <f ca="1"/>
-        <v>669</v>
+        <v>65</v>
       </c>
     </row>
     <row r="639" spans="2:16" x14ac:dyDescent="0.2">
@@ -30223,7 +30223,7 @@
       </c>
       <c r="L639">
         <f t="shared" ca="1" si="18"/>
-        <v>0.42286705933343477</v>
+        <v>0</v>
       </c>
       <c r="M639" t="s">
         <v>15</v>
@@ -30234,7 +30234,7 @@
       </c>
       <c r="P639">
         <f ca="1"/>
-        <v>16</v>
+        <v>796</v>
       </c>
     </row>
     <row r="640" spans="2:16" x14ac:dyDescent="0.2">
@@ -30281,7 +30281,7 @@
       </c>
       <c r="P640">
         <f ca="1"/>
-        <v>310</v>
+        <v>870</v>
       </c>
     </row>
     <row r="641" spans="2:16" x14ac:dyDescent="0.2">
@@ -30317,7 +30317,7 @@
       </c>
       <c r="L641">
         <f t="shared" ca="1" si="18"/>
-        <v>0.21423505498401835</v>
+        <v>0</v>
       </c>
       <c r="M641" t="s">
         <v>15</v>
@@ -30328,7 +30328,7 @@
       </c>
       <c r="P641">
         <f ca="1"/>
-        <v>18</v>
+        <v>460</v>
       </c>
     </row>
     <row r="642" spans="2:16" x14ac:dyDescent="0.2">
@@ -30375,7 +30375,7 @@
       </c>
       <c r="P642">
         <f ca="1"/>
-        <v>733</v>
+        <v>401</v>
       </c>
     </row>
     <row r="643" spans="2:16" x14ac:dyDescent="0.2">
@@ -30422,7 +30422,7 @@
       </c>
       <c r="P643">
         <f ca="1"/>
-        <v>62</v>
+        <v>610</v>
       </c>
     </row>
     <row r="644" spans="2:16" x14ac:dyDescent="0.2">
@@ -30469,7 +30469,7 @@
       </c>
       <c r="P644">
         <f ca="1"/>
-        <v>889</v>
+        <v>485</v>
       </c>
     </row>
     <row r="645" spans="2:16" x14ac:dyDescent="0.2">
@@ -30516,7 +30516,7 @@
       </c>
       <c r="P645">
         <f ca="1"/>
-        <v>845</v>
+        <v>196</v>
       </c>
     </row>
     <row r="646" spans="2:16" x14ac:dyDescent="0.2">
@@ -30563,7 +30563,7 @@
       </c>
       <c r="P646">
         <f ca="1"/>
-        <v>646</v>
+        <v>498</v>
       </c>
     </row>
     <row r="647" spans="2:16" x14ac:dyDescent="0.2">
@@ -30610,7 +30610,7 @@
       </c>
       <c r="P647">
         <f ca="1"/>
-        <v>386</v>
+        <v>851</v>
       </c>
     </row>
     <row r="648" spans="2:16" x14ac:dyDescent="0.2">
@@ -30657,7 +30657,7 @@
       </c>
       <c r="P648">
         <f ca="1"/>
-        <v>626</v>
+        <v>735</v>
       </c>
     </row>
     <row r="649" spans="2:16" x14ac:dyDescent="0.2">
@@ -30704,7 +30704,7 @@
       </c>
       <c r="P649">
         <f ca="1"/>
-        <v>538</v>
+        <v>558</v>
       </c>
     </row>
     <row r="650" spans="2:16" x14ac:dyDescent="0.2">
@@ -30751,7 +30751,7 @@
       </c>
       <c r="P650">
         <f ca="1"/>
-        <v>735</v>
+        <v>817</v>
       </c>
     </row>
     <row r="651" spans="2:16" x14ac:dyDescent="0.2">
@@ -30786,7 +30786,7 @@
         <v>1</v>
       </c>
       <c r="L651">
-        <f t="shared" ref="L651:L714" ca="1" si="20">IF(COUNTIF(O$10:O$39, P651)&gt;0, RAND()*0.5, 0)</f>
+        <f t="shared" ref="L651:L714" ca="1" si="20">IF(COUNTIF(O$10:O$69, P651)&gt;0, RAND()*0.5, 0)</f>
         <v>0</v>
       </c>
       <c r="M651" t="s">
@@ -30798,7 +30798,7 @@
       </c>
       <c r="P651">
         <f ca="1"/>
-        <v>582</v>
+        <v>656</v>
       </c>
     </row>
     <row r="652" spans="2:16" x14ac:dyDescent="0.2">
@@ -30845,7 +30845,7 @@
       </c>
       <c r="P652">
         <f ca="1"/>
-        <v>400</v>
+        <v>691</v>
       </c>
     </row>
     <row r="653" spans="2:16" x14ac:dyDescent="0.2">
@@ -30892,7 +30892,7 @@
       </c>
       <c r="P653">
         <f ca="1"/>
-        <v>632</v>
+        <v>109</v>
       </c>
     </row>
     <row r="654" spans="2:16" x14ac:dyDescent="0.2">
@@ -30939,7 +30939,7 @@
       </c>
       <c r="P654">
         <f ca="1"/>
-        <v>309</v>
+        <v>270</v>
       </c>
     </row>
     <row r="655" spans="2:16" x14ac:dyDescent="0.2">
@@ -30986,7 +30986,7 @@
       </c>
       <c r="P655">
         <f ca="1"/>
-        <v>901</v>
+        <v>238</v>
       </c>
     </row>
     <row r="656" spans="2:16" x14ac:dyDescent="0.2">
@@ -31033,7 +31033,7 @@
       </c>
       <c r="P656">
         <f ca="1"/>
-        <v>580</v>
+        <v>326</v>
       </c>
     </row>
     <row r="657" spans="2:16" x14ac:dyDescent="0.2">
@@ -31080,7 +31080,7 @@
       </c>
       <c r="P657">
         <f ca="1"/>
-        <v>147</v>
+        <v>600</v>
       </c>
     </row>
     <row r="658" spans="2:16" x14ac:dyDescent="0.2">
@@ -31127,7 +31127,7 @@
       </c>
       <c r="P658">
         <f ca="1"/>
-        <v>722</v>
+        <v>211</v>
       </c>
     </row>
     <row r="659" spans="2:16" x14ac:dyDescent="0.2">
@@ -31174,7 +31174,7 @@
       </c>
       <c r="P659">
         <f ca="1"/>
-        <v>463</v>
+        <v>849</v>
       </c>
     </row>
     <row r="660" spans="2:16" x14ac:dyDescent="0.2">
@@ -31221,7 +31221,7 @@
       </c>
       <c r="P660">
         <f ca="1"/>
-        <v>602</v>
+        <v>230</v>
       </c>
     </row>
     <row r="661" spans="2:16" x14ac:dyDescent="0.2">
@@ -31268,7 +31268,7 @@
       </c>
       <c r="P661">
         <f ca="1"/>
-        <v>253</v>
+        <v>726</v>
       </c>
     </row>
     <row r="662" spans="2:16" x14ac:dyDescent="0.2">
@@ -31315,7 +31315,7 @@
       </c>
       <c r="P662">
         <f ca="1"/>
-        <v>581</v>
+        <v>352</v>
       </c>
     </row>
     <row r="663" spans="2:16" x14ac:dyDescent="0.2">
@@ -31362,7 +31362,7 @@
       </c>
       <c r="P663">
         <f ca="1"/>
-        <v>748</v>
+        <v>876</v>
       </c>
     </row>
     <row r="664" spans="2:16" x14ac:dyDescent="0.2">
@@ -31409,7 +31409,7 @@
       </c>
       <c r="P664">
         <f ca="1"/>
-        <v>770</v>
+        <v>799</v>
       </c>
     </row>
     <row r="665" spans="2:16" x14ac:dyDescent="0.2">
@@ -31456,7 +31456,7 @@
       </c>
       <c r="P665">
         <f ca="1"/>
-        <v>757</v>
+        <v>715</v>
       </c>
     </row>
     <row r="666" spans="2:16" x14ac:dyDescent="0.2">
@@ -31503,7 +31503,7 @@
       </c>
       <c r="P666">
         <f ca="1"/>
-        <v>100</v>
+        <v>792</v>
       </c>
     </row>
     <row r="667" spans="2:16" x14ac:dyDescent="0.2">
@@ -31550,7 +31550,7 @@
       </c>
       <c r="P667">
         <f ca="1"/>
-        <v>827</v>
+        <v>523</v>
       </c>
     </row>
     <row r="668" spans="2:16" x14ac:dyDescent="0.2">
@@ -31597,7 +31597,7 @@
       </c>
       <c r="P668">
         <f ca="1"/>
-        <v>116</v>
+        <v>793</v>
       </c>
     </row>
     <row r="669" spans="2:16" x14ac:dyDescent="0.2">
@@ -31644,7 +31644,7 @@
       </c>
       <c r="P669">
         <f ca="1"/>
-        <v>723</v>
+        <v>478</v>
       </c>
     </row>
     <row r="670" spans="2:16" x14ac:dyDescent="0.2">
@@ -31691,7 +31691,7 @@
       </c>
       <c r="P670">
         <f ca="1"/>
-        <v>433</v>
+        <v>304</v>
       </c>
     </row>
     <row r="671" spans="2:16" x14ac:dyDescent="0.2">
@@ -31738,7 +31738,7 @@
       </c>
       <c r="P671">
         <f ca="1"/>
-        <v>231</v>
+        <v>359</v>
       </c>
     </row>
     <row r="672" spans="2:16" x14ac:dyDescent="0.2">
@@ -31785,7 +31785,7 @@
       </c>
       <c r="P672">
         <f ca="1"/>
-        <v>59</v>
+        <v>614</v>
       </c>
     </row>
     <row r="673" spans="2:16" x14ac:dyDescent="0.2">
@@ -31832,7 +31832,7 @@
       </c>
       <c r="P673">
         <f ca="1"/>
-        <v>242</v>
+        <v>857</v>
       </c>
     </row>
     <row r="674" spans="2:16" x14ac:dyDescent="0.2">
@@ -31879,7 +31879,7 @@
       </c>
       <c r="P674">
         <f ca="1"/>
-        <v>109</v>
+        <v>838</v>
       </c>
     </row>
     <row r="675" spans="2:16" x14ac:dyDescent="0.2">
@@ -31926,7 +31926,7 @@
       </c>
       <c r="P675">
         <f ca="1"/>
-        <v>839</v>
+        <v>61</v>
       </c>
     </row>
     <row r="676" spans="2:16" x14ac:dyDescent="0.2">
@@ -31973,7 +31973,7 @@
       </c>
       <c r="P676">
         <f ca="1"/>
-        <v>312</v>
+        <v>161</v>
       </c>
     </row>
     <row r="677" spans="2:16" x14ac:dyDescent="0.2">
@@ -32020,7 +32020,7 @@
       </c>
       <c r="P677">
         <f ca="1"/>
-        <v>467</v>
+        <v>173</v>
       </c>
     </row>
     <row r="678" spans="2:16" x14ac:dyDescent="0.2">
@@ -32067,7 +32067,7 @@
       </c>
       <c r="P678">
         <f ca="1"/>
-        <v>500</v>
+        <v>426</v>
       </c>
     </row>
     <row r="679" spans="2:16" x14ac:dyDescent="0.2">
@@ -32114,7 +32114,7 @@
       </c>
       <c r="P679">
         <f ca="1"/>
-        <v>269</v>
+        <v>221</v>
       </c>
     </row>
     <row r="680" spans="2:16" x14ac:dyDescent="0.2">
@@ -32161,7 +32161,7 @@
       </c>
       <c r="P680">
         <f ca="1"/>
-        <v>372</v>
+        <v>126</v>
       </c>
     </row>
     <row r="681" spans="2:16" x14ac:dyDescent="0.2">
@@ -32208,7 +32208,7 @@
       </c>
       <c r="P681">
         <f ca="1"/>
-        <v>709</v>
+        <v>824</v>
       </c>
     </row>
     <row r="682" spans="2:16" x14ac:dyDescent="0.2">
@@ -32255,7 +32255,7 @@
       </c>
       <c r="P682">
         <f ca="1"/>
-        <v>255</v>
+        <v>411</v>
       </c>
     </row>
     <row r="683" spans="2:16" x14ac:dyDescent="0.2">
@@ -32291,7 +32291,7 @@
       </c>
       <c r="L683">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>0.30590847251714182</v>
       </c>
       <c r="M683" t="s">
         <v>15</v>
@@ -32302,7 +32302,7 @@
       </c>
       <c r="P683">
         <f ca="1"/>
-        <v>113</v>
+        <v>7</v>
       </c>
     </row>
     <row r="684" spans="2:16" x14ac:dyDescent="0.2">
@@ -32349,7 +32349,7 @@
       </c>
       <c r="P684">
         <f ca="1"/>
-        <v>661</v>
+        <v>67</v>
       </c>
     </row>
     <row r="685" spans="2:16" x14ac:dyDescent="0.2">
@@ -32385,7 +32385,7 @@
       </c>
       <c r="L685">
         <f t="shared" ca="1" si="20"/>
-        <v>0.36941791707808458</v>
+        <v>0</v>
       </c>
       <c r="M685" t="s">
         <v>15</v>
@@ -32396,7 +32396,7 @@
       </c>
       <c r="P685">
         <f ca="1"/>
-        <v>27</v>
+        <v>495</v>
       </c>
     </row>
     <row r="686" spans="2:16" x14ac:dyDescent="0.2">
@@ -32443,7 +32443,7 @@
       </c>
       <c r="P686">
         <f ca="1"/>
-        <v>103</v>
+        <v>630</v>
       </c>
     </row>
     <row r="687" spans="2:16" x14ac:dyDescent="0.2">
@@ -32490,7 +32490,7 @@
       </c>
       <c r="P687">
         <f ca="1"/>
-        <v>332</v>
+        <v>150</v>
       </c>
     </row>
     <row r="688" spans="2:16" x14ac:dyDescent="0.2">
@@ -32537,7 +32537,7 @@
       </c>
       <c r="P688">
         <f ca="1"/>
-        <v>598</v>
+        <v>373</v>
       </c>
     </row>
     <row r="689" spans="2:16" x14ac:dyDescent="0.2">
@@ -32584,7 +32584,7 @@
       </c>
       <c r="P689">
         <f ca="1"/>
-        <v>95</v>
+        <v>455</v>
       </c>
     </row>
     <row r="690" spans="2:16" x14ac:dyDescent="0.2">
@@ -32631,7 +32631,7 @@
       </c>
       <c r="P690">
         <f ca="1"/>
-        <v>171</v>
+        <v>579</v>
       </c>
     </row>
     <row r="691" spans="2:16" x14ac:dyDescent="0.2">
@@ -32678,7 +32678,7 @@
       </c>
       <c r="P691">
         <f ca="1"/>
-        <v>419</v>
+        <v>301</v>
       </c>
     </row>
     <row r="692" spans="2:16" x14ac:dyDescent="0.2">
@@ -32725,7 +32725,7 @@
       </c>
       <c r="P692">
         <f ca="1"/>
-        <v>89</v>
+        <v>507</v>
       </c>
     </row>
     <row r="693" spans="2:16" x14ac:dyDescent="0.2">
@@ -32772,7 +32772,7 @@
       </c>
       <c r="P693">
         <f ca="1"/>
-        <v>160</v>
+        <v>698</v>
       </c>
     </row>
     <row r="694" spans="2:16" x14ac:dyDescent="0.2">
@@ -32808,7 +32808,7 @@
       </c>
       <c r="L694">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>0.22313657918498037</v>
       </c>
       <c r="M694" t="s">
         <v>15</v>
@@ -32819,7 +32819,7 @@
       </c>
       <c r="P694">
         <f ca="1"/>
-        <v>785</v>
+        <v>11</v>
       </c>
     </row>
     <row r="695" spans="2:16" x14ac:dyDescent="0.2">
@@ -32866,7 +32866,7 @@
       </c>
       <c r="P695">
         <f ca="1"/>
-        <v>623</v>
+        <v>400</v>
       </c>
     </row>
     <row r="696" spans="2:16" x14ac:dyDescent="0.2">
@@ -32913,7 +32913,7 @@
       </c>
       <c r="P696">
         <f ca="1"/>
-        <v>539</v>
+        <v>774</v>
       </c>
     </row>
     <row r="697" spans="2:16" x14ac:dyDescent="0.2">
@@ -32960,7 +32960,7 @@
       </c>
       <c r="P697">
         <f ca="1"/>
-        <v>123</v>
+        <v>268</v>
       </c>
     </row>
     <row r="698" spans="2:16" x14ac:dyDescent="0.2">
@@ -33007,7 +33007,7 @@
       </c>
       <c r="P698">
         <f ca="1"/>
-        <v>642</v>
+        <v>355</v>
       </c>
     </row>
     <row r="699" spans="2:16" x14ac:dyDescent="0.2">
@@ -33054,7 +33054,7 @@
       </c>
       <c r="P699">
         <f ca="1"/>
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="700" spans="2:16" x14ac:dyDescent="0.2">
@@ -33101,7 +33101,7 @@
       </c>
       <c r="P700">
         <f ca="1"/>
-        <v>97</v>
+        <v>632</v>
       </c>
     </row>
     <row r="701" spans="2:16" x14ac:dyDescent="0.2">
@@ -33148,7 +33148,7 @@
       </c>
       <c r="P701">
         <f ca="1"/>
-        <v>537</v>
+        <v>241</v>
       </c>
     </row>
     <row r="702" spans="2:16" x14ac:dyDescent="0.2">
@@ -33195,7 +33195,7 @@
       </c>
       <c r="P702">
         <f ca="1"/>
-        <v>566</v>
+        <v>365</v>
       </c>
     </row>
     <row r="703" spans="2:16" x14ac:dyDescent="0.2">
@@ -33242,7 +33242,7 @@
       </c>
       <c r="P703">
         <f ca="1"/>
-        <v>510</v>
+        <v>889</v>
       </c>
     </row>
     <row r="704" spans="2:16" x14ac:dyDescent="0.2">
@@ -33289,7 +33289,7 @@
       </c>
       <c r="P704">
         <f ca="1"/>
-        <v>779</v>
+        <v>509</v>
       </c>
     </row>
     <row r="705" spans="2:16" x14ac:dyDescent="0.2">
@@ -33336,7 +33336,7 @@
       </c>
       <c r="P705">
         <f ca="1"/>
-        <v>281</v>
+        <v>541</v>
       </c>
     </row>
     <row r="706" spans="2:16" x14ac:dyDescent="0.2">
@@ -33383,7 +33383,7 @@
       </c>
       <c r="P706">
         <f ca="1"/>
-        <v>381</v>
+        <v>686</v>
       </c>
     </row>
     <row r="707" spans="2:16" x14ac:dyDescent="0.2">
@@ -33430,7 +33430,7 @@
       </c>
       <c r="P707">
         <f ca="1"/>
-        <v>258</v>
+        <v>887</v>
       </c>
     </row>
     <row r="708" spans="2:16" x14ac:dyDescent="0.2">
@@ -33477,7 +33477,7 @@
       </c>
       <c r="P708">
         <f ca="1"/>
-        <v>560</v>
+        <v>228</v>
       </c>
     </row>
     <row r="709" spans="2:16" x14ac:dyDescent="0.2">
@@ -33524,7 +33524,7 @@
       </c>
       <c r="P709">
         <f ca="1"/>
-        <v>146</v>
+        <v>438</v>
       </c>
     </row>
     <row r="710" spans="2:16" x14ac:dyDescent="0.2">
@@ -33571,7 +33571,7 @@
       </c>
       <c r="P710">
         <f ca="1"/>
-        <v>306</v>
+        <v>133</v>
       </c>
     </row>
     <row r="711" spans="2:16" x14ac:dyDescent="0.2">
@@ -33618,7 +33618,7 @@
       </c>
       <c r="P711">
         <f ca="1"/>
-        <v>344</v>
+        <v>430</v>
       </c>
     </row>
     <row r="712" spans="2:16" x14ac:dyDescent="0.2">
@@ -33654,7 +33654,7 @@
       </c>
       <c r="L712">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>8.4956219327261662E-2</v>
       </c>
       <c r="M712" t="s">
         <v>15</v>
@@ -33665,7 +33665,7 @@
       </c>
       <c r="P712">
         <f ca="1"/>
-        <v>594</v>
+        <v>15</v>
       </c>
     </row>
     <row r="713" spans="2:16" x14ac:dyDescent="0.2">
@@ -33701,7 +33701,7 @@
       </c>
       <c r="L713">
         <f t="shared" ca="1" si="20"/>
-        <v>4.8269984913693276E-2</v>
+        <v>0</v>
       </c>
       <c r="M713" t="s">
         <v>15</v>
@@ -33712,7 +33712,7 @@
       </c>
       <c r="P713">
         <f ca="1"/>
-        <v>12</v>
+        <v>377</v>
       </c>
     </row>
     <row r="714" spans="2:16" x14ac:dyDescent="0.2">
@@ -33759,7 +33759,7 @@
       </c>
       <c r="P714">
         <f ca="1"/>
-        <v>124</v>
+        <v>537</v>
       </c>
     </row>
     <row r="715" spans="2:16" x14ac:dyDescent="0.2">
@@ -33794,8 +33794,8 @@
         <v>1</v>
       </c>
       <c r="L715">
-        <f t="shared" ref="L715:L778" ca="1" si="22">IF(COUNTIF(O$10:O$39, P715)&gt;0, RAND()*0.5, 0)</f>
-        <v>0</v>
+        <f t="shared" ref="L715:L778" ca="1" si="22">IF(COUNTIF(O$10:O$69, P715)&gt;0, RAND()*0.5, 0)</f>
+        <v>0.20163066970474486</v>
       </c>
       <c r="M715" t="s">
         <v>15</v>
@@ -33806,7 +33806,7 @@
       </c>
       <c r="P715">
         <f ca="1"/>
-        <v>683</v>
+        <v>36</v>
       </c>
     </row>
     <row r="716" spans="2:16" x14ac:dyDescent="0.2">
@@ -33842,7 +33842,7 @@
       </c>
       <c r="L716">
         <f t="shared" ca="1" si="22"/>
-        <v>0</v>
+        <v>0.39011415899435792</v>
       </c>
       <c r="M716" t="s">
         <v>15</v>
@@ -33853,7 +33853,7 @@
       </c>
       <c r="P716">
         <f ca="1"/>
-        <v>891</v>
+        <v>9</v>
       </c>
     </row>
     <row r="717" spans="2:16" x14ac:dyDescent="0.2">
@@ -33900,7 +33900,7 @@
       </c>
       <c r="P717">
         <f ca="1"/>
-        <v>132</v>
+        <v>798</v>
       </c>
     </row>
     <row r="718" spans="2:16" x14ac:dyDescent="0.2">
@@ -33947,7 +33947,7 @@
       </c>
       <c r="P718">
         <f ca="1"/>
-        <v>713</v>
+        <v>134</v>
       </c>
     </row>
     <row r="719" spans="2:16" x14ac:dyDescent="0.2">
@@ -33994,7 +33994,7 @@
       </c>
       <c r="P719">
         <f ca="1"/>
-        <v>526</v>
+        <v>339</v>
       </c>
     </row>
     <row r="720" spans="2:16" x14ac:dyDescent="0.2">
@@ -34041,7 +34041,7 @@
       </c>
       <c r="P720">
         <f ca="1"/>
-        <v>895</v>
+        <v>85</v>
       </c>
     </row>
     <row r="721" spans="2:16" x14ac:dyDescent="0.2">
@@ -34088,7 +34088,7 @@
       </c>
       <c r="P721">
         <f ca="1"/>
-        <v>177</v>
+        <v>397</v>
       </c>
     </row>
     <row r="722" spans="2:16" x14ac:dyDescent="0.2">
@@ -34135,7 +34135,7 @@
       </c>
       <c r="P722">
         <f ca="1"/>
-        <v>524</v>
+        <v>573</v>
       </c>
     </row>
     <row r="723" spans="2:16" x14ac:dyDescent="0.2">
@@ -34182,7 +34182,7 @@
       </c>
       <c r="P723">
         <f ca="1"/>
-        <v>244</v>
+        <v>291</v>
       </c>
     </row>
     <row r="724" spans="2:16" x14ac:dyDescent="0.2">
@@ -34229,7 +34229,7 @@
       </c>
       <c r="P724">
         <f ca="1"/>
-        <v>736</v>
+        <v>266</v>
       </c>
     </row>
     <row r="725" spans="2:16" x14ac:dyDescent="0.2">
@@ -34276,7 +34276,7 @@
       </c>
       <c r="P725">
         <f ca="1"/>
-        <v>695</v>
+        <v>127</v>
       </c>
     </row>
     <row r="726" spans="2:16" x14ac:dyDescent="0.2">
@@ -34323,7 +34323,7 @@
       </c>
       <c r="P726">
         <f ca="1"/>
-        <v>374</v>
+        <v>307</v>
       </c>
     </row>
     <row r="727" spans="2:16" x14ac:dyDescent="0.2">
@@ -34370,7 +34370,7 @@
       </c>
       <c r="P727">
         <f ca="1"/>
-        <v>886</v>
+        <v>178</v>
       </c>
     </row>
     <row r="728" spans="2:16" x14ac:dyDescent="0.2">
@@ -34406,7 +34406,7 @@
       </c>
       <c r="L728">
         <f t="shared" ca="1" si="22"/>
-        <v>0</v>
+        <v>0.36051484691903191</v>
       </c>
       <c r="M728" t="s">
         <v>15</v>
@@ -34417,7 +34417,7 @@
       </c>
       <c r="P728">
         <f ca="1"/>
-        <v>362</v>
+        <v>8</v>
       </c>
     </row>
     <row r="729" spans="2:16" x14ac:dyDescent="0.2">
@@ -34464,7 +34464,7 @@
       </c>
       <c r="P729">
         <f ca="1"/>
-        <v>105</v>
+        <v>563</v>
       </c>
     </row>
     <row r="730" spans="2:16" x14ac:dyDescent="0.2">
@@ -34511,7 +34511,7 @@
       </c>
       <c r="P730">
         <f ca="1"/>
-        <v>104</v>
+        <v>248</v>
       </c>
     </row>
     <row r="731" spans="2:16" x14ac:dyDescent="0.2">
@@ -34558,7 +34558,7 @@
       </c>
       <c r="P731">
         <f ca="1"/>
-        <v>91</v>
+        <v>653</v>
       </c>
     </row>
     <row r="732" spans="2:16" x14ac:dyDescent="0.2">
@@ -34605,7 +34605,7 @@
       </c>
       <c r="P732">
         <f ca="1"/>
-        <v>724</v>
+        <v>144</v>
       </c>
     </row>
     <row r="733" spans="2:16" x14ac:dyDescent="0.2">
@@ -34652,7 +34652,7 @@
       </c>
       <c r="P733">
         <f ca="1"/>
-        <v>444</v>
+        <v>105</v>
       </c>
     </row>
     <row r="734" spans="2:16" x14ac:dyDescent="0.2">
@@ -34699,7 +34699,7 @@
       </c>
       <c r="P734">
         <f ca="1"/>
-        <v>681</v>
+        <v>179</v>
       </c>
     </row>
     <row r="735" spans="2:16" x14ac:dyDescent="0.2">
@@ -34746,7 +34746,7 @@
       </c>
       <c r="P735">
         <f ca="1"/>
-        <v>347</v>
+        <v>76</v>
       </c>
     </row>
     <row r="736" spans="2:16" x14ac:dyDescent="0.2">
@@ -34793,7 +34793,7 @@
       </c>
       <c r="P736">
         <f ca="1"/>
-        <v>772</v>
+        <v>177</v>
       </c>
     </row>
     <row r="737" spans="2:16" x14ac:dyDescent="0.2">
@@ -34840,7 +34840,7 @@
       </c>
       <c r="P737">
         <f ca="1"/>
-        <v>544</v>
+        <v>399</v>
       </c>
     </row>
     <row r="738" spans="2:16" x14ac:dyDescent="0.2">
@@ -34887,7 +34887,7 @@
       </c>
       <c r="P738">
         <f ca="1"/>
-        <v>547</v>
+        <v>671</v>
       </c>
     </row>
     <row r="739" spans="2:16" x14ac:dyDescent="0.2">
@@ -34934,7 +34934,7 @@
       </c>
       <c r="P739">
         <f ca="1"/>
-        <v>478</v>
+        <v>367</v>
       </c>
     </row>
     <row r="740" spans="2:16" x14ac:dyDescent="0.2">
@@ -34981,7 +34981,7 @@
       </c>
       <c r="P740">
         <f ca="1"/>
-        <v>350</v>
+        <v>422</v>
       </c>
     </row>
     <row r="741" spans="2:16" x14ac:dyDescent="0.2">
@@ -35017,7 +35017,7 @@
       </c>
       <c r="L741">
         <f t="shared" ca="1" si="22"/>
-        <v>0</v>
+        <v>0.254811412967832</v>
       </c>
       <c r="M741" t="s">
         <v>15</v>
@@ -35028,7 +35028,7 @@
       </c>
       <c r="P741">
         <f ca="1"/>
-        <v>216</v>
+        <v>53</v>
       </c>
     </row>
     <row r="742" spans="2:16" x14ac:dyDescent="0.2">
@@ -35064,7 +35064,7 @@
       </c>
       <c r="L742">
         <f t="shared" ca="1" si="22"/>
-        <v>0.45833348843547045</v>
+        <v>3.4334165253947557E-2</v>
       </c>
       <c r="M742" t="s">
         <v>15</v>
@@ -35075,7 +35075,7 @@
       </c>
       <c r="P742">
         <f ca="1"/>
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="743" spans="2:16" x14ac:dyDescent="0.2">
@@ -35122,7 +35122,7 @@
       </c>
       <c r="P743">
         <f ca="1"/>
-        <v>184</v>
+        <v>617</v>
       </c>
     </row>
     <row r="744" spans="2:16" x14ac:dyDescent="0.2">
@@ -35169,7 +35169,7 @@
       </c>
       <c r="P744">
         <f ca="1"/>
-        <v>714</v>
+        <v>518</v>
       </c>
     </row>
     <row r="745" spans="2:16" x14ac:dyDescent="0.2">
@@ -35216,7 +35216,7 @@
       </c>
       <c r="P745">
         <f ca="1"/>
-        <v>690</v>
+        <v>867</v>
       </c>
     </row>
     <row r="746" spans="2:16" x14ac:dyDescent="0.2">
@@ -35263,7 +35263,7 @@
       </c>
       <c r="P746">
         <f ca="1"/>
-        <v>729</v>
+        <v>237</v>
       </c>
     </row>
     <row r="747" spans="2:16" x14ac:dyDescent="0.2">
@@ -35310,7 +35310,7 @@
       </c>
       <c r="P747">
         <f ca="1"/>
-        <v>568</v>
+        <v>777</v>
       </c>
     </row>
     <row r="748" spans="2:16" x14ac:dyDescent="0.2">
@@ -35357,7 +35357,7 @@
       </c>
       <c r="P748">
         <f ca="1"/>
-        <v>596</v>
+        <v>318</v>
       </c>
     </row>
     <row r="749" spans="2:16" x14ac:dyDescent="0.2">
@@ -35404,7 +35404,7 @@
       </c>
       <c r="P749">
         <f ca="1"/>
-        <v>831</v>
+        <v>611</v>
       </c>
     </row>
     <row r="750" spans="2:16" x14ac:dyDescent="0.2">
@@ -35451,7 +35451,7 @@
       </c>
       <c r="P750">
         <f ca="1"/>
-        <v>151</v>
+        <v>810</v>
       </c>
     </row>
     <row r="751" spans="2:16" x14ac:dyDescent="0.2">
@@ -35498,7 +35498,7 @@
       </c>
       <c r="P751">
         <f ca="1"/>
-        <v>715</v>
+        <v>370</v>
       </c>
     </row>
     <row r="752" spans="2:16" x14ac:dyDescent="0.2">
@@ -35545,7 +35545,7 @@
       </c>
       <c r="P752">
         <f ca="1"/>
-        <v>569</v>
+        <v>141</v>
       </c>
     </row>
     <row r="753" spans="2:16" x14ac:dyDescent="0.2">
@@ -35581,7 +35581,7 @@
       </c>
       <c r="L753">
         <f t="shared" ca="1" si="22"/>
-        <v>0.10237136392713769</v>
+        <v>0</v>
       </c>
       <c r="M753" t="s">
         <v>15</v>
@@ -35592,7 +35592,7 @@
       </c>
       <c r="P753">
         <f ca="1"/>
-        <v>11</v>
+        <v>152</v>
       </c>
     </row>
     <row r="754" spans="2:16" x14ac:dyDescent="0.2">
@@ -35639,7 +35639,7 @@
       </c>
       <c r="P754">
         <f ca="1"/>
-        <v>257</v>
+        <v>305</v>
       </c>
     </row>
     <row r="755" spans="2:16" x14ac:dyDescent="0.2">
@@ -35686,7 +35686,7 @@
       </c>
       <c r="P755">
         <f ca="1"/>
-        <v>645</v>
+        <v>346</v>
       </c>
     </row>
     <row r="756" spans="2:16" x14ac:dyDescent="0.2">
@@ -35733,7 +35733,7 @@
       </c>
       <c r="P756">
         <f ca="1"/>
-        <v>718</v>
+        <v>504</v>
       </c>
     </row>
     <row r="757" spans="2:16" x14ac:dyDescent="0.2">
@@ -35780,7 +35780,7 @@
       </c>
       <c r="P757">
         <f ca="1"/>
-        <v>111</v>
+        <v>503</v>
       </c>
     </row>
     <row r="758" spans="2:16" x14ac:dyDescent="0.2">
@@ -35827,7 +35827,7 @@
       </c>
       <c r="P758">
         <f ca="1"/>
-        <v>790</v>
+        <v>773</v>
       </c>
     </row>
     <row r="759" spans="2:16" x14ac:dyDescent="0.2">
@@ -35874,7 +35874,7 @@
       </c>
       <c r="P759">
         <f ca="1"/>
-        <v>513</v>
+        <v>122</v>
       </c>
     </row>
     <row r="760" spans="2:16" x14ac:dyDescent="0.2">
@@ -35921,7 +35921,7 @@
       </c>
       <c r="P760">
         <f ca="1"/>
-        <v>108</v>
+        <v>159</v>
       </c>
     </row>
     <row r="761" spans="2:16" x14ac:dyDescent="0.2">
@@ -35968,7 +35968,7 @@
       </c>
       <c r="P761">
         <f ca="1"/>
-        <v>182</v>
+        <v>320</v>
       </c>
     </row>
     <row r="762" spans="2:16" x14ac:dyDescent="0.2">
@@ -36015,7 +36015,7 @@
       </c>
       <c r="P762">
         <f ca="1"/>
-        <v>648</v>
+        <v>665</v>
       </c>
     </row>
     <row r="763" spans="2:16" x14ac:dyDescent="0.2">
@@ -36062,7 +36062,7 @@
       </c>
       <c r="P763">
         <f ca="1"/>
-        <v>307</v>
+        <v>522</v>
       </c>
     </row>
     <row r="764" spans="2:16" x14ac:dyDescent="0.2">
@@ -36109,7 +36109,7 @@
       </c>
       <c r="P764">
         <f ca="1"/>
-        <v>863</v>
+        <v>896</v>
       </c>
     </row>
     <row r="765" spans="2:16" x14ac:dyDescent="0.2">
@@ -36156,7 +36156,7 @@
       </c>
       <c r="P765">
         <f ca="1"/>
-        <v>874</v>
+        <v>223</v>
       </c>
     </row>
     <row r="766" spans="2:16" x14ac:dyDescent="0.2">
@@ -36203,7 +36203,7 @@
       </c>
       <c r="P766">
         <f ca="1"/>
-        <v>912</v>
+        <v>340</v>
       </c>
     </row>
     <row r="767" spans="2:16" x14ac:dyDescent="0.2">
@@ -36250,7 +36250,7 @@
       </c>
       <c r="P767">
         <f ca="1"/>
-        <v>423</v>
+        <v>699</v>
       </c>
     </row>
     <row r="768" spans="2:16" x14ac:dyDescent="0.2">
@@ -36297,7 +36297,7 @@
       </c>
       <c r="P768">
         <f ca="1"/>
-        <v>329</v>
+        <v>710</v>
       </c>
     </row>
     <row r="769" spans="2:16" x14ac:dyDescent="0.2">
@@ -36344,7 +36344,7 @@
       </c>
       <c r="P769">
         <f ca="1"/>
-        <v>446</v>
+        <v>662</v>
       </c>
     </row>
     <row r="770" spans="2:16" x14ac:dyDescent="0.2">
@@ -36380,7 +36380,7 @@
       </c>
       <c r="L770">
         <f t="shared" ca="1" si="22"/>
-        <v>0</v>
+        <v>0.25660553854715606</v>
       </c>
       <c r="M770" t="s">
         <v>15</v>
@@ -36391,7 +36391,7 @@
       </c>
       <c r="P770">
         <f ca="1"/>
-        <v>712</v>
+        <v>49</v>
       </c>
     </row>
     <row r="771" spans="2:16" x14ac:dyDescent="0.2">
@@ -36438,7 +36438,7 @@
       </c>
       <c r="P771">
         <f ca="1"/>
-        <v>52</v>
+        <v>78</v>
       </c>
     </row>
     <row r="772" spans="2:16" x14ac:dyDescent="0.2">
@@ -36485,7 +36485,7 @@
       </c>
       <c r="P772">
         <f ca="1"/>
-        <v>301</v>
+        <v>646</v>
       </c>
     </row>
     <row r="773" spans="2:16" x14ac:dyDescent="0.2">
@@ -36532,7 +36532,7 @@
       </c>
       <c r="P773">
         <f ca="1"/>
-        <v>225</v>
+        <v>814</v>
       </c>
     </row>
     <row r="774" spans="2:16" x14ac:dyDescent="0.2">
@@ -36579,7 +36579,7 @@
       </c>
       <c r="P774">
         <f ca="1"/>
-        <v>333</v>
+        <v>406</v>
       </c>
     </row>
     <row r="775" spans="2:16" x14ac:dyDescent="0.2">
@@ -36626,7 +36626,7 @@
       </c>
       <c r="P775">
         <f ca="1"/>
-        <v>910</v>
+        <v>461</v>
       </c>
     </row>
     <row r="776" spans="2:16" x14ac:dyDescent="0.2">
@@ -36673,7 +36673,7 @@
       </c>
       <c r="P776">
         <f ca="1"/>
-        <v>621</v>
+        <v>96</v>
       </c>
     </row>
     <row r="777" spans="2:16" x14ac:dyDescent="0.2">
@@ -36720,7 +36720,7 @@
       </c>
       <c r="P777">
         <f ca="1"/>
-        <v>870</v>
+        <v>280</v>
       </c>
     </row>
     <row r="778" spans="2:16" x14ac:dyDescent="0.2">
@@ -36767,7 +36767,7 @@
       </c>
       <c r="P778">
         <f ca="1"/>
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="779" spans="2:16" x14ac:dyDescent="0.2">
@@ -36802,7 +36802,7 @@
         <v>1</v>
       </c>
       <c r="L779">
-        <f t="shared" ref="L779:L842" ca="1" si="24">IF(COUNTIF(O$10:O$39, P779)&gt;0, RAND()*0.5, 0)</f>
+        <f t="shared" ref="L779:L842" ca="1" si="24">IF(COUNTIF(O$10:O$69, P779)&gt;0, RAND()*0.5, 0)</f>
         <v>0</v>
       </c>
       <c r="M779" t="s">
@@ -36814,7 +36814,7 @@
       </c>
       <c r="P779">
         <f ca="1"/>
-        <v>68</v>
+        <v>153</v>
       </c>
     </row>
     <row r="780" spans="2:16" x14ac:dyDescent="0.2">
@@ -36861,7 +36861,7 @@
       </c>
       <c r="P780">
         <f ca="1"/>
-        <v>259</v>
+        <v>689</v>
       </c>
     </row>
     <row r="781" spans="2:16" x14ac:dyDescent="0.2">
@@ -36908,7 +36908,7 @@
       </c>
       <c r="P781">
         <f ca="1"/>
-        <v>523</v>
+        <v>559</v>
       </c>
     </row>
     <row r="782" spans="2:16" x14ac:dyDescent="0.2">
@@ -36955,7 +36955,7 @@
       </c>
       <c r="P782">
         <f ca="1"/>
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="783" spans="2:16" x14ac:dyDescent="0.2">
@@ -37002,7 +37002,7 @@
       </c>
       <c r="P783">
         <f ca="1"/>
-        <v>238</v>
+        <v>891</v>
       </c>
     </row>
     <row r="784" spans="2:16" x14ac:dyDescent="0.2">
@@ -37049,7 +37049,7 @@
       </c>
       <c r="P784">
         <f ca="1"/>
-        <v>357</v>
+        <v>92</v>
       </c>
     </row>
     <row r="785" spans="2:16" x14ac:dyDescent="0.2">
@@ -37096,7 +37096,7 @@
       </c>
       <c r="P785">
         <f ca="1"/>
-        <v>585</v>
+        <v>642</v>
       </c>
     </row>
     <row r="786" spans="2:16" x14ac:dyDescent="0.2">
@@ -37143,7 +37143,7 @@
       </c>
       <c r="P786">
         <f ca="1"/>
-        <v>399</v>
+        <v>129</v>
       </c>
     </row>
     <row r="787" spans="2:16" x14ac:dyDescent="0.2">
@@ -37190,7 +37190,7 @@
       </c>
       <c r="P787">
         <f ca="1"/>
-        <v>502</v>
+        <v>479</v>
       </c>
     </row>
     <row r="788" spans="2:16" x14ac:dyDescent="0.2">
@@ -37237,7 +37237,7 @@
       </c>
       <c r="P788">
         <f ca="1"/>
-        <v>55</v>
+        <v>594</v>
       </c>
     </row>
     <row r="789" spans="2:16" x14ac:dyDescent="0.2">
@@ -37284,7 +37284,7 @@
       </c>
       <c r="P789">
         <f ca="1"/>
-        <v>797</v>
+        <v>261</v>
       </c>
     </row>
     <row r="790" spans="2:16" x14ac:dyDescent="0.2">
@@ -37331,7 +37331,7 @@
       </c>
       <c r="P790">
         <f ca="1"/>
-        <v>425</v>
+        <v>62</v>
       </c>
     </row>
     <row r="791" spans="2:16" x14ac:dyDescent="0.2">
@@ -37378,7 +37378,7 @@
       </c>
       <c r="P791">
         <f ca="1"/>
-        <v>345</v>
+        <v>707</v>
       </c>
     </row>
     <row r="792" spans="2:16" x14ac:dyDescent="0.2">
@@ -37425,7 +37425,7 @@
       </c>
       <c r="P792">
         <f ca="1"/>
-        <v>564</v>
+        <v>197</v>
       </c>
     </row>
     <row r="793" spans="2:16" x14ac:dyDescent="0.2">
@@ -37472,7 +37472,7 @@
       </c>
       <c r="P793">
         <f ca="1"/>
-        <v>360</v>
+        <v>199</v>
       </c>
     </row>
     <row r="794" spans="2:16" x14ac:dyDescent="0.2">
@@ -37519,7 +37519,7 @@
       </c>
       <c r="P794">
         <f ca="1"/>
-        <v>317</v>
+        <v>347</v>
       </c>
     </row>
     <row r="795" spans="2:16" x14ac:dyDescent="0.2">
@@ -37566,7 +37566,7 @@
       </c>
       <c r="P795">
         <f ca="1"/>
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="796" spans="2:16" x14ac:dyDescent="0.2">
@@ -37613,7 +37613,7 @@
       </c>
       <c r="P796">
         <f ca="1"/>
-        <v>202</v>
+        <v>587</v>
       </c>
     </row>
     <row r="797" spans="2:16" x14ac:dyDescent="0.2">
@@ -37660,7 +37660,7 @@
       </c>
       <c r="P797">
         <f ca="1"/>
-        <v>819</v>
+        <v>825</v>
       </c>
     </row>
     <row r="798" spans="2:16" x14ac:dyDescent="0.2">
@@ -37696,7 +37696,7 @@
       </c>
       <c r="L798">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>7.5975418778332915E-3</v>
       </c>
       <c r="M798" t="s">
         <v>15</v>
@@ -37707,7 +37707,7 @@
       </c>
       <c r="P798">
         <f ca="1"/>
-        <v>825</v>
+        <v>34</v>
       </c>
     </row>
     <row r="799" spans="2:16" x14ac:dyDescent="0.2">
@@ -37754,7 +37754,7 @@
       </c>
       <c r="P799">
         <f ca="1"/>
-        <v>46</v>
+        <v>169</v>
       </c>
     </row>
     <row r="800" spans="2:16" x14ac:dyDescent="0.2">
@@ -37801,7 +37801,7 @@
       </c>
       <c r="P800">
         <f ca="1"/>
-        <v>348</v>
+        <v>334</v>
       </c>
     </row>
     <row r="801" spans="2:16" x14ac:dyDescent="0.2">
@@ -37848,7 +37848,7 @@
       </c>
       <c r="P801">
         <f ca="1"/>
-        <v>353</v>
+        <v>548</v>
       </c>
     </row>
     <row r="802" spans="2:16" x14ac:dyDescent="0.2">
@@ -37895,7 +37895,7 @@
       </c>
       <c r="P802">
         <f ca="1"/>
-        <v>837</v>
+        <v>119</v>
       </c>
     </row>
     <row r="803" spans="2:16" x14ac:dyDescent="0.2">
@@ -37942,7 +37942,7 @@
       </c>
       <c r="P803">
         <f ca="1"/>
-        <v>603</v>
+        <v>443</v>
       </c>
     </row>
     <row r="804" spans="2:16" x14ac:dyDescent="0.2">
@@ -37989,7 +37989,7 @@
       </c>
       <c r="P804">
         <f ca="1"/>
-        <v>291</v>
+        <v>444</v>
       </c>
     </row>
     <row r="805" spans="2:16" x14ac:dyDescent="0.2">
@@ -38036,7 +38036,7 @@
       </c>
       <c r="P805">
         <f ca="1"/>
-        <v>698</v>
+        <v>489</v>
       </c>
     </row>
     <row r="806" spans="2:16" x14ac:dyDescent="0.2">
@@ -38083,7 +38083,7 @@
       </c>
       <c r="P806">
         <f ca="1"/>
-        <v>679</v>
+        <v>357</v>
       </c>
     </row>
     <row r="807" spans="2:16" x14ac:dyDescent="0.2">
@@ -38130,7 +38130,7 @@
       </c>
       <c r="P807">
         <f ca="1"/>
-        <v>830</v>
+        <v>432</v>
       </c>
     </row>
     <row r="808" spans="2:16" x14ac:dyDescent="0.2">
@@ -38166,7 +38166,7 @@
       </c>
       <c r="L808">
         <f t="shared" ca="1" si="24"/>
-        <v>8.5118726516304477E-3</v>
+        <v>0</v>
       </c>
       <c r="M808" t="s">
         <v>15</v>
@@ -38177,7 +38177,7 @@
       </c>
       <c r="P808">
         <f ca="1"/>
-        <v>30</v>
+        <v>551</v>
       </c>
     </row>
     <row r="809" spans="2:16" x14ac:dyDescent="0.2">
@@ -38224,7 +38224,7 @@
       </c>
       <c r="P809">
         <f ca="1"/>
-        <v>320</v>
+        <v>174</v>
       </c>
     </row>
     <row r="810" spans="2:16" x14ac:dyDescent="0.2">
@@ -38271,7 +38271,7 @@
       </c>
       <c r="P810">
         <f ca="1"/>
-        <v>562</v>
+        <v>517</v>
       </c>
     </row>
     <row r="811" spans="2:16" x14ac:dyDescent="0.2">
@@ -38318,7 +38318,7 @@
       </c>
       <c r="P811">
         <f ca="1"/>
-        <v>450</v>
+        <v>207</v>
       </c>
     </row>
     <row r="812" spans="2:16" x14ac:dyDescent="0.2">
@@ -38365,7 +38365,7 @@
       </c>
       <c r="P812">
         <f ca="1"/>
-        <v>227</v>
+        <v>881</v>
       </c>
     </row>
     <row r="813" spans="2:16" x14ac:dyDescent="0.2">
@@ -38412,7 +38412,7 @@
       </c>
       <c r="P813">
         <f ca="1"/>
-        <v>792</v>
+        <v>303</v>
       </c>
     </row>
     <row r="814" spans="2:16" x14ac:dyDescent="0.2">
@@ -38459,7 +38459,7 @@
       </c>
       <c r="P814">
         <f ca="1"/>
-        <v>387</v>
+        <v>298</v>
       </c>
     </row>
     <row r="815" spans="2:16" x14ac:dyDescent="0.2">
@@ -38506,7 +38506,7 @@
       </c>
       <c r="P815">
         <f ca="1"/>
-        <v>102</v>
+        <v>414</v>
       </c>
     </row>
     <row r="816" spans="2:16" x14ac:dyDescent="0.2">
@@ -38553,7 +38553,7 @@
       </c>
       <c r="P816">
         <f ca="1"/>
-        <v>559</v>
+        <v>628</v>
       </c>
     </row>
     <row r="817" spans="2:16" x14ac:dyDescent="0.2">
@@ -38589,7 +38589,7 @@
       </c>
       <c r="L817">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>0.23318910560011558</v>
       </c>
       <c r="M817" t="s">
         <v>15</v>
@@ -38600,7 +38600,7 @@
       </c>
       <c r="P817">
         <f ca="1"/>
-        <v>326</v>
+        <v>42</v>
       </c>
     </row>
     <row r="818" spans="2:16" x14ac:dyDescent="0.2">
@@ -38647,7 +38647,7 @@
       </c>
       <c r="P818">
         <f ca="1"/>
-        <v>304</v>
+        <v>474</v>
       </c>
     </row>
     <row r="819" spans="2:16" x14ac:dyDescent="0.2">
@@ -38694,7 +38694,7 @@
       </c>
       <c r="P819">
         <f ca="1"/>
-        <v>122</v>
+        <v>728</v>
       </c>
     </row>
     <row r="820" spans="2:16" x14ac:dyDescent="0.2">
@@ -38741,7 +38741,7 @@
       </c>
       <c r="P820">
         <f ca="1"/>
-        <v>803</v>
+        <v>250</v>
       </c>
     </row>
     <row r="821" spans="2:16" x14ac:dyDescent="0.2">
@@ -38788,7 +38788,7 @@
       </c>
       <c r="P821">
         <f ca="1"/>
-        <v>341</v>
+        <v>437</v>
       </c>
     </row>
     <row r="822" spans="2:16" x14ac:dyDescent="0.2">
@@ -38835,7 +38835,7 @@
       </c>
       <c r="P822">
         <f ca="1"/>
-        <v>47</v>
+        <v>677</v>
       </c>
     </row>
     <row r="823" spans="2:16" x14ac:dyDescent="0.2">
@@ -38882,7 +38882,7 @@
       </c>
       <c r="P823">
         <f ca="1"/>
-        <v>833</v>
+        <v>534</v>
       </c>
     </row>
     <row r="824" spans="2:16" x14ac:dyDescent="0.2">
@@ -38929,7 +38929,7 @@
       </c>
       <c r="P824">
         <f ca="1"/>
-        <v>822</v>
+        <v>547</v>
       </c>
     </row>
     <row r="825" spans="2:16" x14ac:dyDescent="0.2">
@@ -38976,7 +38976,7 @@
       </c>
       <c r="P825">
         <f ca="1"/>
-        <v>813</v>
+        <v>663</v>
       </c>
     </row>
     <row r="826" spans="2:16" x14ac:dyDescent="0.2">
@@ -39012,7 +39012,7 @@
       </c>
       <c r="L826">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>0.12063749076363423</v>
       </c>
       <c r="M826" t="s">
         <v>15</v>
@@ -39023,7 +39023,7 @@
       </c>
       <c r="P826">
         <f ca="1"/>
-        <v>516</v>
+        <v>54</v>
       </c>
     </row>
     <row r="827" spans="2:16" x14ac:dyDescent="0.2">
@@ -39070,7 +39070,7 @@
       </c>
       <c r="P827">
         <f ca="1"/>
-        <v>280</v>
+        <v>219</v>
       </c>
     </row>
     <row r="828" spans="2:16" x14ac:dyDescent="0.2">
@@ -39117,7 +39117,7 @@
       </c>
       <c r="P828">
         <f ca="1"/>
-        <v>78</v>
+        <v>130</v>
       </c>
     </row>
     <row r="829" spans="2:16" x14ac:dyDescent="0.2">
@@ -39164,7 +39164,7 @@
       </c>
       <c r="P829">
         <f ca="1"/>
-        <v>286</v>
+        <v>704</v>
       </c>
     </row>
     <row r="830" spans="2:16" x14ac:dyDescent="0.2">
@@ -39211,7 +39211,7 @@
       </c>
       <c r="P830">
         <f ca="1"/>
-        <v>848</v>
+        <v>188</v>
       </c>
     </row>
     <row r="831" spans="2:16" x14ac:dyDescent="0.2">
@@ -39258,7 +39258,7 @@
       </c>
       <c r="P831">
         <f ca="1"/>
-        <v>650</v>
+        <v>164</v>
       </c>
     </row>
     <row r="832" spans="2:16" x14ac:dyDescent="0.2">
@@ -39305,7 +39305,7 @@
       </c>
       <c r="P832">
         <f ca="1"/>
-        <v>417</v>
+        <v>368</v>
       </c>
     </row>
     <row r="833" spans="2:16" x14ac:dyDescent="0.2">
@@ -39352,7 +39352,7 @@
       </c>
       <c r="P833">
         <f ca="1"/>
-        <v>355</v>
+        <v>902</v>
       </c>
     </row>
     <row r="834" spans="2:16" x14ac:dyDescent="0.2">
@@ -39399,7 +39399,7 @@
       </c>
       <c r="P834">
         <f ca="1"/>
-        <v>751</v>
+        <v>106</v>
       </c>
     </row>
     <row r="835" spans="2:16" x14ac:dyDescent="0.2">
@@ -39446,7 +39446,7 @@
       </c>
       <c r="P835">
         <f ca="1"/>
-        <v>740</v>
+        <v>330</v>
       </c>
     </row>
     <row r="836" spans="2:16" x14ac:dyDescent="0.2">
@@ -39493,7 +39493,7 @@
       </c>
       <c r="P836">
         <f ca="1"/>
-        <v>489</v>
+        <v>337</v>
       </c>
     </row>
     <row r="837" spans="2:16" x14ac:dyDescent="0.2">
@@ -39540,7 +39540,7 @@
       </c>
       <c r="P837">
         <f ca="1"/>
-        <v>760</v>
+        <v>834</v>
       </c>
     </row>
     <row r="838" spans="2:16" x14ac:dyDescent="0.2">
@@ -39587,7 +39587,7 @@
       </c>
       <c r="P838">
         <f ca="1"/>
-        <v>801</v>
+        <v>104</v>
       </c>
     </row>
     <row r="839" spans="2:16" x14ac:dyDescent="0.2">
@@ -39634,7 +39634,7 @@
       </c>
       <c r="P839">
         <f ca="1"/>
-        <v>420</v>
+        <v>847</v>
       </c>
     </row>
     <row r="840" spans="2:16" x14ac:dyDescent="0.2">
@@ -39670,7 +39670,7 @@
       </c>
       <c r="L840">
         <f t="shared" ca="1" si="24"/>
-        <v>0.18990818467241849</v>
+        <v>0</v>
       </c>
       <c r="M840" t="s">
         <v>15</v>
@@ -39681,7 +39681,7 @@
       </c>
       <c r="P840">
         <f ca="1"/>
-        <v>29</v>
+        <v>852</v>
       </c>
     </row>
     <row r="841" spans="2:16" x14ac:dyDescent="0.2">
@@ -39728,7 +39728,7 @@
       </c>
       <c r="P841">
         <f ca="1"/>
-        <v>597</v>
+        <v>900</v>
       </c>
     </row>
     <row r="842" spans="2:16" x14ac:dyDescent="0.2">
@@ -39775,7 +39775,7 @@
       </c>
       <c r="P842">
         <f ca="1"/>
-        <v>659</v>
+        <v>688</v>
       </c>
     </row>
     <row r="843" spans="2:16" x14ac:dyDescent="0.2">
@@ -39810,7 +39810,7 @@
         <v>1</v>
       </c>
       <c r="L843">
-        <f t="shared" ref="L843:L906" ca="1" si="26">IF(COUNTIF(O$10:O$39, P843)&gt;0, RAND()*0.5, 0)</f>
+        <f t="shared" ref="L843:L906" ca="1" si="26">IF(COUNTIF(O$10:O$69, P843)&gt;0, RAND()*0.5, 0)</f>
         <v>0</v>
       </c>
       <c r="M843" t="s">
@@ -39822,7 +39822,7 @@
       </c>
       <c r="P843">
         <f ca="1"/>
-        <v>145</v>
+        <v>787</v>
       </c>
     </row>
     <row r="844" spans="2:16" x14ac:dyDescent="0.2">
@@ -39858,7 +39858,7 @@
       </c>
       <c r="L844">
         <f t="shared" ca="1" si="26"/>
-        <v>8.8496109921562538E-3</v>
+        <v>0</v>
       </c>
       <c r="M844" t="s">
         <v>15</v>
@@ -39869,7 +39869,7 @@
       </c>
       <c r="P844">
         <f ca="1"/>
-        <v>25</v>
+        <v>731</v>
       </c>
     </row>
     <row r="845" spans="2:16" x14ac:dyDescent="0.2">
@@ -39916,7 +39916,7 @@
       </c>
       <c r="P845">
         <f ca="1"/>
-        <v>841</v>
+        <v>168</v>
       </c>
     </row>
     <row r="846" spans="2:16" x14ac:dyDescent="0.2">
@@ -39963,7 +39963,7 @@
       </c>
       <c r="P846">
         <f ca="1"/>
-        <v>409</v>
+        <v>765</v>
       </c>
     </row>
     <row r="847" spans="2:16" x14ac:dyDescent="0.2">
@@ -40010,7 +40010,7 @@
       </c>
       <c r="P847">
         <f ca="1"/>
-        <v>894</v>
+        <v>602</v>
       </c>
     </row>
     <row r="848" spans="2:16" x14ac:dyDescent="0.2">
@@ -40057,7 +40057,7 @@
       </c>
       <c r="P848">
         <f ca="1"/>
-        <v>144</v>
+        <v>327</v>
       </c>
     </row>
     <row r="849" spans="2:16" x14ac:dyDescent="0.2">
@@ -40104,7 +40104,7 @@
       </c>
       <c r="P849">
         <f ca="1"/>
-        <v>558</v>
+        <v>408</v>
       </c>
     </row>
     <row r="850" spans="2:16" x14ac:dyDescent="0.2">
@@ -40140,7 +40140,7 @@
       </c>
       <c r="L850">
         <f t="shared" ca="1" si="26"/>
-        <v>0</v>
+        <v>0.23281508563404174</v>
       </c>
       <c r="M850" t="s">
         <v>15</v>
@@ -40151,7 +40151,7 @@
       </c>
       <c r="P850">
         <f ca="1"/>
-        <v>906</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="2:16" x14ac:dyDescent="0.2">
@@ -40198,7 +40198,7 @@
       </c>
       <c r="P851">
         <f ca="1"/>
-        <v>441</v>
+        <v>345</v>
       </c>
     </row>
     <row r="852" spans="2:16" x14ac:dyDescent="0.2">
@@ -40245,7 +40245,7 @@
       </c>
       <c r="P852">
         <f ca="1"/>
-        <v>542</v>
+        <v>596</v>
       </c>
     </row>
     <row r="853" spans="2:16" x14ac:dyDescent="0.2">
@@ -40292,7 +40292,7 @@
       </c>
       <c r="P853">
         <f ca="1"/>
-        <v>820</v>
+        <v>185</v>
       </c>
     </row>
     <row r="854" spans="2:16" x14ac:dyDescent="0.2">
@@ -40339,7 +40339,7 @@
       </c>
       <c r="P854">
         <f ca="1"/>
-        <v>356</v>
+        <v>513</v>
       </c>
     </row>
     <row r="855" spans="2:16" x14ac:dyDescent="0.2">
@@ -40386,7 +40386,7 @@
       </c>
       <c r="P855">
         <f ca="1"/>
-        <v>691</v>
+        <v>502</v>
       </c>
     </row>
     <row r="856" spans="2:16" x14ac:dyDescent="0.2">
@@ -40433,7 +40433,7 @@
       </c>
       <c r="P856">
         <f ca="1"/>
-        <v>497</v>
+        <v>685</v>
       </c>
     </row>
     <row r="857" spans="2:16" x14ac:dyDescent="0.2">
@@ -40480,7 +40480,7 @@
       </c>
       <c r="P857">
         <f ca="1"/>
-        <v>230</v>
+        <v>758</v>
       </c>
     </row>
     <row r="858" spans="2:16" x14ac:dyDescent="0.2">
@@ -40527,7 +40527,7 @@
       </c>
       <c r="P858">
         <f ca="1"/>
-        <v>119</v>
+        <v>356</v>
       </c>
     </row>
     <row r="859" spans="2:16" x14ac:dyDescent="0.2">
@@ -40574,7 +40574,7 @@
       </c>
       <c r="P859">
         <f ca="1"/>
-        <v>846</v>
+        <v>166</v>
       </c>
     </row>
     <row r="860" spans="2:16" x14ac:dyDescent="0.2">
@@ -40610,7 +40610,7 @@
       </c>
       <c r="L860">
         <f t="shared" ca="1" si="26"/>
-        <v>0.34563308478581795</v>
+        <v>0</v>
       </c>
       <c r="M860" t="s">
         <v>15</v>
@@ -40621,7 +40621,7 @@
       </c>
       <c r="P860">
         <f ca="1"/>
-        <v>7</v>
+        <v>195</v>
       </c>
     </row>
     <row r="861" spans="2:16" x14ac:dyDescent="0.2">
@@ -40668,7 +40668,7 @@
       </c>
       <c r="P861">
         <f ca="1"/>
-        <v>633</v>
+        <v>447</v>
       </c>
     </row>
     <row r="862" spans="2:16" x14ac:dyDescent="0.2">
@@ -40715,7 +40715,7 @@
       </c>
       <c r="P862">
         <f ca="1"/>
-        <v>781</v>
+        <v>519</v>
       </c>
     </row>
     <row r="863" spans="2:16" x14ac:dyDescent="0.2">
@@ -40762,7 +40762,7 @@
       </c>
       <c r="P863">
         <f ca="1"/>
-        <v>604</v>
+        <v>730</v>
       </c>
     </row>
     <row r="864" spans="2:16" x14ac:dyDescent="0.2">
@@ -40809,7 +40809,7 @@
       </c>
       <c r="P864">
         <f ca="1"/>
-        <v>784</v>
+        <v>661</v>
       </c>
     </row>
     <row r="865" spans="2:16" x14ac:dyDescent="0.2">
@@ -40856,7 +40856,7 @@
       </c>
       <c r="P865">
         <f ca="1"/>
-        <v>435</v>
+        <v>791</v>
       </c>
     </row>
     <row r="866" spans="2:16" x14ac:dyDescent="0.2">
@@ -40903,7 +40903,7 @@
       </c>
       <c r="P866">
         <f ca="1"/>
-        <v>710</v>
+        <v>785</v>
       </c>
     </row>
     <row r="867" spans="2:16" x14ac:dyDescent="0.2">
@@ -40950,7 +40950,7 @@
       </c>
       <c r="P867">
         <f ca="1"/>
-        <v>32</v>
+        <v>260</v>
       </c>
     </row>
     <row r="868" spans="2:16" x14ac:dyDescent="0.2">
@@ -40997,7 +40997,7 @@
       </c>
       <c r="P868">
         <f ca="1"/>
-        <v>704</v>
+        <v>182</v>
       </c>
     </row>
     <row r="869" spans="2:16" x14ac:dyDescent="0.2">
@@ -41044,7 +41044,7 @@
       </c>
       <c r="P869">
         <f ca="1"/>
-        <v>385</v>
+        <v>226</v>
       </c>
     </row>
     <row r="870" spans="2:16" x14ac:dyDescent="0.2">
@@ -41080,7 +41080,7 @@
       </c>
       <c r="L870">
         <f t="shared" ca="1" si="26"/>
-        <v>0</v>
+        <v>0.42498100410625417</v>
       </c>
       <c r="M870" t="s">
         <v>15</v>
@@ -41091,7 +41091,7 @@
       </c>
       <c r="P870">
         <f ca="1"/>
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="871" spans="2:16" x14ac:dyDescent="0.2">
@@ -41138,7 +41138,7 @@
       </c>
       <c r="P871">
         <f ca="1"/>
-        <v>522</v>
+        <v>724</v>
       </c>
     </row>
     <row r="872" spans="2:16" x14ac:dyDescent="0.2">
@@ -41185,7 +41185,7 @@
       </c>
       <c r="P872">
         <f ca="1"/>
-        <v>775</v>
+        <v>209</v>
       </c>
     </row>
     <row r="873" spans="2:16" x14ac:dyDescent="0.2">
@@ -41232,7 +41232,7 @@
       </c>
       <c r="P873">
         <f ca="1"/>
-        <v>668</v>
+        <v>394</v>
       </c>
     </row>
     <row r="874" spans="2:16" x14ac:dyDescent="0.2">
@@ -41279,7 +41279,7 @@
       </c>
       <c r="P874">
         <f ca="1"/>
-        <v>384</v>
+        <v>873</v>
       </c>
     </row>
     <row r="875" spans="2:16" x14ac:dyDescent="0.2">
@@ -41326,7 +41326,7 @@
       </c>
       <c r="P875">
         <f ca="1"/>
-        <v>589</v>
+        <v>806</v>
       </c>
     </row>
     <row r="876" spans="2:16" x14ac:dyDescent="0.2">
@@ -41373,7 +41373,7 @@
       </c>
       <c r="P876">
         <f ca="1"/>
-        <v>727</v>
+        <v>190</v>
       </c>
     </row>
     <row r="877" spans="2:16" x14ac:dyDescent="0.2">
@@ -41420,7 +41420,7 @@
       </c>
       <c r="P877">
         <f ca="1"/>
-        <v>677</v>
+        <v>514</v>
       </c>
     </row>
     <row r="878" spans="2:16" x14ac:dyDescent="0.2">
@@ -41467,7 +41467,7 @@
       </c>
       <c r="P878">
         <f ca="1"/>
-        <v>885</v>
+        <v>905</v>
       </c>
     </row>
     <row r="879" spans="2:16" x14ac:dyDescent="0.2">
@@ -41514,7 +41514,7 @@
       </c>
       <c r="P879">
         <f ca="1"/>
-        <v>705</v>
+        <v>550</v>
       </c>
     </row>
     <row r="880" spans="2:16" x14ac:dyDescent="0.2">
@@ -41561,7 +41561,7 @@
       </c>
       <c r="P880">
         <f ca="1"/>
-        <v>795</v>
+        <v>804</v>
       </c>
     </row>
     <row r="881" spans="2:16" x14ac:dyDescent="0.2">
@@ -41608,7 +41608,7 @@
       </c>
       <c r="P881">
         <f ca="1"/>
-        <v>378</v>
+        <v>524</v>
       </c>
     </row>
     <row r="882" spans="2:16" x14ac:dyDescent="0.2">
@@ -41644,7 +41644,7 @@
       </c>
       <c r="L882">
         <f t="shared" ca="1" si="26"/>
-        <v>0</v>
+        <v>0.18169934076953465</v>
       </c>
       <c r="M882" t="s">
         <v>15</v>
@@ -41655,7 +41655,7 @@
       </c>
       <c r="P882">
         <f ca="1"/>
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="883" spans="2:16" x14ac:dyDescent="0.2">
@@ -41702,7 +41702,7 @@
       </c>
       <c r="P883">
         <f ca="1"/>
-        <v>218</v>
+        <v>512</v>
       </c>
     </row>
     <row r="884" spans="2:16" x14ac:dyDescent="0.2">
@@ -41749,7 +41749,7 @@
       </c>
       <c r="P884">
         <f ca="1"/>
-        <v>334</v>
+        <v>77</v>
       </c>
     </row>
     <row r="885" spans="2:16" x14ac:dyDescent="0.2">
@@ -41796,7 +41796,7 @@
       </c>
       <c r="P885">
         <f ca="1"/>
-        <v>752</v>
+        <v>269</v>
       </c>
     </row>
     <row r="886" spans="2:16" x14ac:dyDescent="0.2">
@@ -41843,7 +41843,7 @@
       </c>
       <c r="P886">
         <f ca="1"/>
-        <v>190</v>
+        <v>341</v>
       </c>
     </row>
     <row r="887" spans="2:16" x14ac:dyDescent="0.2">
@@ -41890,7 +41890,7 @@
       </c>
       <c r="P887">
         <f ca="1"/>
-        <v>768</v>
+        <v>901</v>
       </c>
     </row>
     <row r="888" spans="2:16" x14ac:dyDescent="0.2">
@@ -41937,7 +41937,7 @@
       </c>
       <c r="P888">
         <f ca="1"/>
-        <v>750</v>
+        <v>884</v>
       </c>
     </row>
     <row r="889" spans="2:16" x14ac:dyDescent="0.2">
@@ -41984,7 +41984,7 @@
       </c>
       <c r="P889">
         <f ca="1"/>
-        <v>812</v>
+        <v>233</v>
       </c>
     </row>
     <row r="890" spans="2:16" x14ac:dyDescent="0.2">
@@ -42031,7 +42031,7 @@
       </c>
       <c r="P890">
         <f ca="1"/>
-        <v>201</v>
+        <v>120</v>
       </c>
     </row>
     <row r="891" spans="2:16" x14ac:dyDescent="0.2">
@@ -42078,7 +42078,7 @@
       </c>
       <c r="P891">
         <f ca="1"/>
-        <v>583</v>
+        <v>734</v>
       </c>
     </row>
     <row r="892" spans="2:16" x14ac:dyDescent="0.2">
@@ -42125,7 +42125,7 @@
       </c>
       <c r="P892">
         <f ca="1"/>
-        <v>90</v>
+        <v>609</v>
       </c>
     </row>
     <row r="893" spans="2:16" x14ac:dyDescent="0.2">
@@ -42172,7 +42172,7 @@
       </c>
       <c r="P893">
         <f ca="1"/>
-        <v>164</v>
+        <v>912</v>
       </c>
     </row>
     <row r="894" spans="2:16" x14ac:dyDescent="0.2">
@@ -42219,7 +42219,7 @@
       </c>
       <c r="P894">
         <f ca="1"/>
-        <v>228</v>
+        <v>472</v>
       </c>
     </row>
     <row r="895" spans="2:16" x14ac:dyDescent="0.2">
@@ -42266,7 +42266,7 @@
       </c>
       <c r="P895">
         <f ca="1"/>
-        <v>609</v>
+        <v>506</v>
       </c>
     </row>
     <row r="896" spans="2:16" x14ac:dyDescent="0.2">
@@ -42313,7 +42313,7 @@
       </c>
       <c r="P896">
         <f ca="1"/>
-        <v>37</v>
+        <v>286</v>
       </c>
     </row>
     <row r="897" spans="2:16" x14ac:dyDescent="0.2">
@@ -42360,7 +42360,7 @@
       </c>
       <c r="P897">
         <f ca="1"/>
-        <v>174</v>
+        <v>300</v>
       </c>
     </row>
     <row r="898" spans="2:16" x14ac:dyDescent="0.2">
@@ -42407,7 +42407,7 @@
       </c>
       <c r="P898">
         <f ca="1"/>
-        <v>717</v>
+        <v>708</v>
       </c>
     </row>
     <row r="899" spans="2:16" x14ac:dyDescent="0.2">
@@ -42443,7 +42443,7 @@
       </c>
       <c r="L899">
         <f t="shared" ca="1" si="26"/>
-        <v>8.8373821485496828E-2</v>
+        <v>0</v>
       </c>
       <c r="M899" t="s">
         <v>15</v>
@@ -42454,7 +42454,7 @@
       </c>
       <c r="P899">
         <f ca="1"/>
-        <v>22</v>
+        <v>436</v>
       </c>
     </row>
     <row r="900" spans="2:16" x14ac:dyDescent="0.2">
@@ -42501,7 +42501,7 @@
       </c>
       <c r="P900">
         <f ca="1"/>
-        <v>33</v>
+        <v>903</v>
       </c>
     </row>
     <row r="901" spans="2:16" x14ac:dyDescent="0.2">
@@ -42548,7 +42548,7 @@
       </c>
       <c r="P901">
         <f ca="1"/>
-        <v>907</v>
+        <v>742</v>
       </c>
     </row>
     <row r="902" spans="2:16" x14ac:dyDescent="0.2">
@@ -42595,7 +42595,7 @@
       </c>
       <c r="P902">
         <f ca="1"/>
-        <v>866</v>
+        <v>544</v>
       </c>
     </row>
     <row r="903" spans="2:16" x14ac:dyDescent="0.2">
@@ -42642,7 +42642,7 @@
       </c>
       <c r="P903">
         <f ca="1"/>
-        <v>628</v>
+        <v>475</v>
       </c>
     </row>
     <row r="904" spans="2:16" x14ac:dyDescent="0.2">
@@ -42689,7 +42689,7 @@
       </c>
       <c r="P904">
         <f ca="1"/>
-        <v>693</v>
+        <v>620</v>
       </c>
     </row>
     <row r="905" spans="2:16" x14ac:dyDescent="0.2">
@@ -42736,7 +42736,7 @@
       </c>
       <c r="P905">
         <f ca="1"/>
-        <v>235</v>
+        <v>376</v>
       </c>
     </row>
     <row r="906" spans="2:16" x14ac:dyDescent="0.2">
@@ -42783,7 +42783,7 @@
       </c>
       <c r="P906">
         <f ca="1"/>
-        <v>179</v>
+        <v>780</v>
       </c>
     </row>
     <row r="907" spans="2:16" x14ac:dyDescent="0.2">
@@ -42818,7 +42818,7 @@
         <v>1</v>
       </c>
       <c r="L907">
-        <f t="shared" ref="L907:L923" ca="1" si="28">IF(COUNTIF(O$10:O$39, P907)&gt;0, RAND()*0.5, 0)</f>
+        <f t="shared" ref="L907:L923" ca="1" si="28">IF(COUNTIF(O$10:O$69, P907)&gt;0, RAND()*0.5, 0)</f>
         <v>0</v>
       </c>
       <c r="M907" t="s">
@@ -42830,7 +42830,7 @@
       </c>
       <c r="P907">
         <f ca="1"/>
-        <v>541</v>
+        <v>194</v>
       </c>
     </row>
     <row r="908" spans="2:16" x14ac:dyDescent="0.2">
@@ -42877,7 +42877,7 @@
       </c>
       <c r="P908">
         <f ca="1"/>
-        <v>92</v>
+        <v>308</v>
       </c>
     </row>
     <row r="909" spans="2:16" x14ac:dyDescent="0.2">
@@ -42924,7 +42924,7 @@
       </c>
       <c r="P909">
         <f ca="1"/>
-        <v>462</v>
+        <v>770</v>
       </c>
     </row>
     <row r="910" spans="2:16" x14ac:dyDescent="0.2">
@@ -42971,7 +42971,7 @@
       </c>
       <c r="P910">
         <f ca="1"/>
-        <v>878</v>
+        <v>171</v>
       </c>
     </row>
     <row r="911" spans="2:16" x14ac:dyDescent="0.2">
@@ -43018,7 +43018,7 @@
       </c>
       <c r="P911">
         <f ca="1"/>
-        <v>599</v>
+        <v>842</v>
       </c>
     </row>
     <row r="912" spans="2:16" x14ac:dyDescent="0.2">
@@ -43065,7 +43065,7 @@
       </c>
       <c r="P912">
         <f ca="1"/>
-        <v>203</v>
+        <v>499</v>
       </c>
     </row>
     <row r="913" spans="2:16" x14ac:dyDescent="0.2">
@@ -43101,7 +43101,7 @@
       </c>
       <c r="L913">
         <f t="shared" ca="1" si="28"/>
-        <v>0</v>
+        <v>0.26111231854415273</v>
       </c>
       <c r="M913" t="s">
         <v>15</v>
@@ -43112,7 +43112,7 @@
       </c>
       <c r="P913">
         <f ca="1"/>
-        <v>909</v>
+        <v>21</v>
       </c>
     </row>
     <row r="914" spans="2:16" x14ac:dyDescent="0.2">
@@ -43159,7 +43159,7 @@
       </c>
       <c r="P914">
         <f ca="1"/>
-        <v>76</v>
+        <v>117</v>
       </c>
     </row>
     <row r="915" spans="2:16" x14ac:dyDescent="0.2">
@@ -43206,7 +43206,7 @@
       </c>
       <c r="P915">
         <f ca="1"/>
-        <v>214</v>
+        <v>490</v>
       </c>
     </row>
     <row r="916" spans="2:16" x14ac:dyDescent="0.2">
@@ -43253,7 +43253,7 @@
       </c>
       <c r="P916">
         <f ca="1"/>
-        <v>428</v>
+        <v>302</v>
       </c>
     </row>
     <row r="917" spans="2:16" x14ac:dyDescent="0.2">
@@ -43300,7 +43300,7 @@
       </c>
       <c r="P917">
         <f ca="1"/>
-        <v>127</v>
+        <v>612</v>
       </c>
     </row>
     <row r="918" spans="2:16" x14ac:dyDescent="0.2">
@@ -43347,7 +43347,7 @@
       </c>
       <c r="P918">
         <f ca="1"/>
-        <v>618</v>
+        <v>113</v>
       </c>
     </row>
     <row r="919" spans="2:16" x14ac:dyDescent="0.2">
@@ -43394,7 +43394,7 @@
       </c>
       <c r="P919">
         <f ca="1"/>
-        <v>571</v>
+        <v>766</v>
       </c>
     </row>
     <row r="920" spans="2:16" x14ac:dyDescent="0.2">
@@ -43441,7 +43441,7 @@
       </c>
       <c r="P920">
         <f ca="1"/>
-        <v>196</v>
+        <v>245</v>
       </c>
     </row>
     <row r="921" spans="2:16" x14ac:dyDescent="0.2">
@@ -43488,7 +43488,7 @@
       </c>
       <c r="P921">
         <f ca="1"/>
-        <v>758</v>
+        <v>718</v>
       </c>
     </row>
     <row r="922" spans="2:16" x14ac:dyDescent="0.2">
@@ -43535,7 +43535,7 @@
       </c>
       <c r="P922">
         <f ca="1"/>
-        <v>279</v>
+        <v>660</v>
       </c>
     </row>
     <row r="923" spans="2:16" x14ac:dyDescent="0.2">
@@ -43582,7 +43582,7 @@
       </c>
       <c r="P923">
         <f ca="1"/>
-        <v>212</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
